--- a/fuentes/contenidos/grado08/guion04/Escaleta_LE_08_04_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion04/Escaleta_LE_08_04_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AULA PLANETA\PROCESO JUNIO 2015\GRADO OCTAVO\LE_08_04_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\Lenguaje\fuentes\contenidos\grado08\guion04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -593,9 +593,6 @@
     <t>Actividad para  afianzar las reglas y el propósito en un diálogo oral</t>
   </si>
   <si>
-    <t>Favor remitirse al documento Instrucciones para autores sobre elaboración de recursos F.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Revisar el uso del vocabulario y el lenguaje. Cambiar las palabras en caso de no ser pertinentes. </t>
   </si>
   <si>
@@ -720,9 +717,6 @@
   </si>
   <si>
     <t>Recurso M14A-01</t>
-  </si>
-  <si>
-    <t>Recurso F13B-01</t>
   </si>
   <si>
     <t>Recurso F4-02</t>
@@ -872,6 +866,12 @@
   <si>
     <t>Definir etapas históricas desarrolladas en el Modernismo y su desarrollo en Colombia a partir de eventos históricos. DBA: Identifica el contexto social, histórico, político y
 cultural de las obras, para ampliar el análisis y la evaluación del texto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Favor remitirse al documento Instrucciones para autores sobre elaboración de recursos F. Reestructurar el recurso, utilizar el video del recurso de Aula Planeta titulado La comunicación oral y escrita. La idea es que los estudiantes practiquen las reglas del diálogo. </t>
+  </si>
+  <si>
+    <t>Recurso F12-01</t>
   </si>
 </sst>
 </file>
@@ -1206,75 +1206,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1333,6 +1264,75 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1640,9 +1640,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,14 +1654,14 @@
     <col min="5" max="5" width="28.42578125" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="30.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="86" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="63" customWidth="1"/>
     <col min="9" max="9" width="11" style="38" customWidth="1"/>
     <col min="10" max="10" width="27.28515625" style="12" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" style="37" customWidth="1"/>
     <col min="12" max="12" width="22.5703125" style="37" customWidth="1"/>
-    <col min="13" max="14" width="12" style="90" customWidth="1"/>
+    <col min="13" max="14" width="12" style="67" customWidth="1"/>
     <col min="15" max="15" width="37.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="83" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="60" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -1671,94 +1671,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="12" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="47" t="s">
+      <c r="N1" s="82"/>
+      <c r="O1" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="53" t="s">
+      <c r="R1" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="S1" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="U1" s="85" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="62"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="77"/>
       <c r="M2" s="13" t="s">
         <v>71</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="50"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="86"/>
     </row>
     <row r="3" spans="1:21" ht="141" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1771,12 +1771,12 @@
         <v>85</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
       <c r="G3" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H3" s="34">
         <v>1</v>
@@ -1793,12 +1793,12 @@
       <c r="L3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87" t="s">
+      <c r="M3" s="64"/>
+      <c r="N3" s="64" t="s">
         <v>36</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P3" s="25" t="s">
         <v>19</v>
@@ -1830,12 +1830,12 @@
         <v>85</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
       <c r="G4" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H4" s="35">
         <v>2</v>
@@ -1844,7 +1844,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K4" s="39" t="s">
         <v>20</v>
@@ -1852,12 +1852,12 @@
       <c r="L4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88" t="s">
+      <c r="M4" s="65"/>
+      <c r="N4" s="65" t="s">
         <v>25</v>
       </c>
       <c r="O4" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P4" s="25" t="s">
         <v>19</v>
@@ -1889,7 +1889,7 @@
         <v>85</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="5"/>
@@ -1911,8 +1911,8 @@
       <c r="L5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88" t="s">
+      <c r="M5" s="65"/>
+      <c r="N5" s="65" t="s">
         <v>46</v>
       </c>
       <c r="O5" s="28" t="s">
@@ -1948,7 +1948,7 @@
         <v>85</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="5"/>
@@ -1962,7 +1962,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K6" s="39" t="s">
         <v>20</v>
@@ -1970,12 +1970,12 @@
       <c r="L6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88" t="s">
+      <c r="M6" s="65"/>
+      <c r="N6" s="65" t="s">
         <v>24</v>
       </c>
       <c r="O6" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P6" s="25" t="s">
         <v>19</v>
@@ -2007,7 +2007,7 @@
         <v>85</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="5"/>
@@ -2029,8 +2029,8 @@
       <c r="L7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88" t="s">
+      <c r="M7" s="65"/>
+      <c r="N7" s="65" t="s">
         <v>30</v>
       </c>
       <c r="O7" s="28" t="s">
@@ -2066,7 +2066,7 @@
         <v>85</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
@@ -2088,12 +2088,12 @@
       <c r="L8" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88" t="s">
+      <c r="M8" s="65"/>
+      <c r="N8" s="65" t="s">
         <v>40</v>
       </c>
       <c r="O8" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="P8" s="25" t="s">
         <v>19</v>
@@ -2125,7 +2125,7 @@
         <v>85</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>116</v>
@@ -2143,7 +2143,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K9" s="40" t="s">
         <v>20</v>
@@ -2151,14 +2151,14 @@
       <c r="L9" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="88" t="s">
+      <c r="M9" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="88"/>
+      <c r="N9" s="65"/>
       <c r="O9" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="P9" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="P9" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q9" s="30">
@@ -2188,7 +2188,7 @@
         <v>85</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>116</v>
@@ -2214,14 +2214,14 @@
       <c r="L10" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88" t="s">
+      <c r="M10" s="65"/>
+      <c r="N10" s="65" t="s">
         <v>24</v>
       </c>
       <c r="O10" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="P10" s="81" t="s">
+        <v>268</v>
+      </c>
+      <c r="P10" s="58" t="s">
         <v>20</v>
       </c>
       <c r="Q10" s="30">
@@ -2251,7 +2251,7 @@
         <v>85</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>116</v>
@@ -2277,14 +2277,14 @@
       <c r="L11" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88" t="s">
+      <c r="M11" s="65"/>
+      <c r="N11" s="65" t="s">
         <v>28</v>
       </c>
       <c r="O11" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="P11" s="81" t="s">
+      <c r="P11" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="30">
@@ -2314,7 +2314,7 @@
         <v>85</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>90</v>
@@ -2340,14 +2340,14 @@
       <c r="L12" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88" t="s">
+      <c r="M12" s="65"/>
+      <c r="N12" s="65" t="s">
         <v>29</v>
       </c>
       <c r="O12" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="P12" s="81" t="s">
+      <c r="P12" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q12" s="30">
@@ -2360,7 +2360,7 @@
         <v>109</v>
       </c>
       <c r="T12" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U12" s="30" t="s">
         <v>111</v>
@@ -2377,7 +2377,7 @@
         <v>85</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>90</v>
@@ -2395,7 +2395,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K13" s="40" t="s">
         <v>20</v>
@@ -2403,14 +2403,14 @@
       <c r="L13" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88" t="s">
+      <c r="M13" s="65"/>
+      <c r="N13" s="65" t="s">
         <v>36</v>
       </c>
       <c r="O13" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="P13" s="81" t="s">
+        <v>275</v>
+      </c>
+      <c r="P13" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="30">
@@ -2423,7 +2423,7 @@
         <v>109</v>
       </c>
       <c r="T13" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U13" s="30" t="s">
         <v>111</v>
@@ -2440,7 +2440,7 @@
         <v>85</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>90</v>
@@ -2466,14 +2466,14 @@
       <c r="L14" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="88" t="s">
+      <c r="M14" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="N14" s="88"/>
+      <c r="N14" s="65"/>
       <c r="O14" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="P14" s="81" t="s">
+        <v>277</v>
+      </c>
+      <c r="P14" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="30">
@@ -2503,7 +2503,7 @@
         <v>85</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>93</v>
@@ -2527,14 +2527,14 @@
       <c r="L15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88" t="s">
+      <c r="M15" s="65"/>
+      <c r="N15" s="65" t="s">
         <v>52</v>
       </c>
       <c r="O15" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="P15" s="81" t="s">
+        <v>269</v>
+      </c>
+      <c r="P15" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q15" s="30">
@@ -2563,22 +2563,22 @@
       <c r="C16" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="70" t="s">
+      <c r="D16" s="47" t="s">
         <v>94</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="71" t="s">
+      <c r="G16" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="H16" s="84">
+      <c r="H16" s="61">
         <v>14</v>
       </c>
-      <c r="I16" s="73" t="s">
+      <c r="I16" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="72" t="s">
-        <v>262</v>
+      <c r="J16" s="49" t="s">
+        <v>260</v>
       </c>
       <c r="K16" s="40" t="s">
         <v>20</v>
@@ -2586,14 +2586,14 @@
       <c r="L16" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="M16" s="88" t="s">
+      <c r="M16" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="N16" s="88"/>
+      <c r="N16" s="65"/>
       <c r="O16" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="P16" s="81" t="s">
+      <c r="P16" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q16" s="30">
@@ -2606,7 +2606,7 @@
         <v>162</v>
       </c>
       <c r="T16" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U16" s="30" t="s">
         <v>164</v>
@@ -2622,37 +2622,37 @@
       <c r="C17" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="47" t="s">
         <v>94</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="71" t="s">
+      <c r="G17" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="H17" s="84">
+      <c r="H17" s="61">
         <v>15</v>
       </c>
-      <c r="I17" s="73" t="s">
+      <c r="I17" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="72" t="s">
+      <c r="J17" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="K17" s="74" t="s">
+      <c r="K17" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="75" t="s">
+      <c r="L17" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="89"/>
-      <c r="N17" s="88" t="s">
+      <c r="M17" s="66"/>
+      <c r="N17" s="65" t="s">
         <v>22</v>
       </c>
       <c r="O17" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="P17" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="P17" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="30">
@@ -2665,7 +2665,7 @@
         <v>109</v>
       </c>
       <c r="T17" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U17" s="30" t="s">
         <v>111</v>
@@ -2681,37 +2681,37 @@
       <c r="C18" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="47" t="s">
         <v>94</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="71" t="s">
+      <c r="G18" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="H18" s="84">
+      <c r="H18" s="61">
         <v>16</v>
       </c>
-      <c r="I18" s="73" t="s">
+      <c r="I18" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="72" t="s">
-        <v>261</v>
-      </c>
-      <c r="K18" s="74" t="s">
+      <c r="J18" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="K18" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="75" t="s">
+      <c r="L18" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89" t="s">
+      <c r="M18" s="66"/>
+      <c r="N18" s="66" t="s">
         <v>83</v>
       </c>
       <c r="O18" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="P18" s="81" t="s">
+      <c r="P18" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q18" s="30">
@@ -2724,7 +2724,7 @@
         <v>109</v>
       </c>
       <c r="T18" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U18" s="30" t="s">
         <v>111</v>
@@ -2740,39 +2740,39 @@
       <c r="C19" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="70" t="s">
+      <c r="D19" s="47" t="s">
         <v>94</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>93</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="71" t="s">
+      <c r="G19" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="H19" s="84">
+      <c r="H19" s="61">
         <v>17</v>
       </c>
-      <c r="I19" s="73" t="s">
+      <c r="I19" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="72" t="s">
+      <c r="J19" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="K19" s="74" t="s">
+      <c r="K19" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="75" t="s">
+      <c r="L19" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89" t="s">
+      <c r="M19" s="66"/>
+      <c r="N19" s="66" t="s">
         <v>52</v>
       </c>
       <c r="O19" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="P19" s="81" t="s">
+      <c r="P19" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q19" s="30">
@@ -2826,12 +2826,12 @@
       <c r="L20" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
       <c r="O20" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="P20" s="81" t="s">
+        <v>246</v>
+      </c>
+      <c r="P20" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="30" t="s">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="V20" s="22"/>
     </row>
-    <row r="21" spans="1:22" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
@@ -2886,14 +2886,14 @@
       <c r="L21" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="88" t="s">
-        <v>65</v>
-      </c>
-      <c r="N21" s="88"/>
+      <c r="M21" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="N21" s="65"/>
       <c r="O21" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="P21" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="P21" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q21" s="30">
@@ -2906,7 +2906,7 @@
         <v>162</v>
       </c>
       <c r="T21" s="32" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="U21" s="30" t="s">
         <v>164</v>
@@ -2939,7 +2939,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K22" s="40" t="s">
         <v>19</v>
@@ -2947,12 +2947,12 @@
       <c r="L22" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
       <c r="O22" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="P22" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="P22" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q22" s="30" t="s">
@@ -3006,28 +3006,28 @@
       <c r="L23" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
       <c r="O23" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="P23" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="P23" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q23" s="30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R23" s="31" t="s">
         <v>118</v>
       </c>
       <c r="S23" s="33" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="T23" s="46" t="s">
         <v>140</v>
       </c>
       <c r="U23" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="47.25" x14ac:dyDescent="0.25">
@@ -3065,14 +3065,14 @@
       <c r="L24" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88" t="s">
+      <c r="M24" s="65"/>
+      <c r="N24" s="65" t="s">
         <v>52</v>
       </c>
       <c r="O24" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="P24" s="81" t="s">
+      <c r="P24" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q24" s="30">
@@ -3101,39 +3101,39 @@
       <c r="C25" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="76" t="s">
+      <c r="D25" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="77" t="s">
+      <c r="E25" s="54" t="s">
         <v>100</v>
       </c>
       <c r="F25" s="18"/>
-      <c r="G25" s="71" t="s">
+      <c r="G25" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="H25" s="61">
+        <v>23</v>
+      </c>
+      <c r="I25" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="K25" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="N25" s="66"/>
+      <c r="O25" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="H25" s="84">
-        <v>23</v>
-      </c>
-      <c r="I25" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="72" t="s">
-        <v>259</v>
-      </c>
-      <c r="K25" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="M25" s="89" t="s">
-        <v>54</v>
-      </c>
-      <c r="N25" s="89"/>
-      <c r="O25" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="P25" s="81" t="s">
+      <c r="P25" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="30">
@@ -3146,7 +3146,7 @@
         <v>162</v>
       </c>
       <c r="T25" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="U25" s="30" t="s">
         <v>164</v>
@@ -3162,15 +3162,15 @@
       <c r="C26" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="76" t="s">
+      <c r="D26" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="77" t="s">
+      <c r="E26" s="54" t="s">
         <v>100</v>
       </c>
       <c r="F26" s="18"/>
-      <c r="G26" s="78" t="s">
-        <v>193</v>
+      <c r="G26" s="55" t="s">
+        <v>192</v>
       </c>
       <c r="H26" s="35">
         <v>24</v>
@@ -3179,7 +3179,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K26" s="40" t="s">
         <v>20</v>
@@ -3187,14 +3187,14 @@
       <c r="L26" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88" t="s">
+      <c r="M26" s="65"/>
+      <c r="N26" s="65" t="s">
         <v>23</v>
       </c>
       <c r="O26" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="P26" s="81" t="s">
+        <v>195</v>
+      </c>
+      <c r="P26" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q26" s="30">
@@ -3223,39 +3223,39 @@
       <c r="C27" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="76" t="s">
+      <c r="D27" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="77" t="s">
+      <c r="E27" s="54" t="s">
         <v>101</v>
       </c>
       <c r="F27" s="18"/>
-      <c r="G27" s="78" t="s">
-        <v>195</v>
-      </c>
-      <c r="H27" s="84">
+      <c r="G27" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="H27" s="61">
         <v>25</v>
       </c>
-      <c r="I27" s="73" t="s">
+      <c r="I27" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="72" t="s">
-        <v>197</v>
-      </c>
-      <c r="K27" s="74" t="s">
+      <c r="J27" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="K27" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="75" t="s">
+      <c r="L27" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="89" t="s">
+      <c r="M27" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="N27" s="89"/>
-      <c r="O27" s="79" t="s">
-        <v>272</v>
-      </c>
-      <c r="P27" s="81" t="s">
+      <c r="N27" s="66"/>
+      <c r="O27" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="P27" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q27" s="30">
@@ -3268,7 +3268,7 @@
         <v>162</v>
       </c>
       <c r="T27" s="32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="U27" s="30" t="s">
         <v>164</v>
@@ -3284,39 +3284,39 @@
       <c r="C28" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="76" t="s">
+      <c r="D28" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="77" t="s">
+      <c r="E28" s="54" t="s">
         <v>101</v>
       </c>
       <c r="F28" s="18"/>
-      <c r="G28" s="78" t="s">
-        <v>253</v>
-      </c>
-      <c r="H28" s="84">
+      <c r="G28" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="H28" s="61">
         <v>26</v>
       </c>
-      <c r="I28" s="73" t="s">
+      <c r="I28" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="72" t="s">
-        <v>198</v>
-      </c>
-      <c r="K28" s="74" t="s">
+      <c r="J28" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="K28" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="75" t="s">
+      <c r="L28" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89" t="s">
+      <c r="M28" s="66"/>
+      <c r="N28" s="66" t="s">
         <v>28</v>
       </c>
       <c r="O28" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="P28" s="81" t="s">
+        <v>271</v>
+      </c>
+      <c r="P28" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q28" s="30">
@@ -3329,7 +3329,7 @@
         <v>109</v>
       </c>
       <c r="T28" s="32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="U28" s="30" t="s">
         <v>111</v>
@@ -3345,39 +3345,39 @@
       <c r="C29" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="77" t="s">
+      <c r="E29" s="54" t="s">
         <v>101</v>
       </c>
       <c r="F29" s="18"/>
-      <c r="G29" s="78" t="s">
-        <v>254</v>
-      </c>
-      <c r="H29" s="84">
+      <c r="G29" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="H29" s="61">
         <v>27</v>
       </c>
-      <c r="I29" s="73" t="s">
+      <c r="I29" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="72" t="s">
-        <v>258</v>
-      </c>
-      <c r="K29" s="74" t="s">
+      <c r="J29" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="K29" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="75" t="s">
+      <c r="L29" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89" t="s">
+      <c r="M29" s="66"/>
+      <c r="N29" s="66" t="s">
         <v>40</v>
       </c>
       <c r="O29" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="P29" s="81" t="s">
+        <v>272</v>
+      </c>
+      <c r="P29" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q29" s="30">
@@ -3390,7 +3390,7 @@
         <v>109</v>
       </c>
       <c r="T29" s="32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="U29" s="30" t="s">
         <v>111</v>
@@ -3406,39 +3406,39 @@
       <c r="C30" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="76" t="s">
+      <c r="D30" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="77" t="s">
+      <c r="E30" s="54" t="s">
         <v>102</v>
       </c>
       <c r="F30" s="18"/>
-      <c r="G30" s="78" t="s">
+      <c r="G30" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H30" s="61">
+        <v>28</v>
+      </c>
+      <c r="I30" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="H30" s="84">
-        <v>28</v>
-      </c>
-      <c r="I30" s="73" t="s">
+      <c r="K30" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="72" t="s">
+      <c r="L30" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="O30" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="K30" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89" t="s">
-        <v>43</v>
-      </c>
-      <c r="O30" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="P30" s="81" t="s">
+      <c r="P30" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q30" s="30">
@@ -3451,7 +3451,7 @@
         <v>109</v>
       </c>
       <c r="T30" s="32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="U30" s="30" t="s">
         <v>111</v>
@@ -3467,39 +3467,39 @@
       <c r="C31" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="53" t="s">
         <v>99</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F31" s="18"/>
-      <c r="G31" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="H31" s="84">
+      <c r="G31" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="H31" s="61">
         <v>29</v>
       </c>
-      <c r="I31" s="73" t="s">
+      <c r="I31" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="72" t="s">
+      <c r="J31" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="K31" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="66"/>
+      <c r="N31" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="O31" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="K31" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="M31" s="89"/>
-      <c r="N31" s="88" t="s">
-        <v>52</v>
-      </c>
-      <c r="O31" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="P31" s="81" t="s">
+      <c r="P31" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q31" s="30">
@@ -3528,37 +3528,37 @@
       <c r="C32" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="76" t="s">
+      <c r="D32" s="53" t="s">
         <v>103</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="78" t="s">
+      <c r="G32" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="H32" s="61">
+        <v>30</v>
+      </c>
+      <c r="I32" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="H32" s="84">
-        <v>30</v>
-      </c>
-      <c r="I32" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="72" t="s">
+      <c r="K32" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="N32" s="66"/>
+      <c r="O32" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="K32" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="89" t="s">
-        <v>57</v>
-      </c>
-      <c r="N32" s="89"/>
-      <c r="O32" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="P32" s="81" t="s">
+      <c r="P32" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q32" s="30">
@@ -3571,7 +3571,7 @@
         <v>162</v>
       </c>
       <c r="T32" s="32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="U32" s="30" t="s">
         <v>164</v>
@@ -3602,7 +3602,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K33" s="40" t="s">
         <v>20</v>
@@ -3610,14 +3610,14 @@
       <c r="L33" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88" t="s">
+      <c r="M33" s="65"/>
+      <c r="N33" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="O33" s="80" t="s">
+      <c r="O33" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="P33" s="81" t="s">
+      <c r="P33" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q33" s="30">
@@ -3652,7 +3652,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="5"/>
       <c r="G34" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H34" s="35">
         <v>32</v>
@@ -3661,7 +3661,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K34" s="40" t="s">
         <v>20</v>
@@ -3669,14 +3669,14 @@
       <c r="L34" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="88"/>
-      <c r="N34" s="88" t="s">
+      <c r="M34" s="65"/>
+      <c r="N34" s="65" t="s">
         <v>32</v>
       </c>
       <c r="O34" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="P34" s="81" t="s">
+      <c r="P34" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q34" s="30">
@@ -3689,7 +3689,7 @@
         <v>109</v>
       </c>
       <c r="T34" s="32" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="U34" s="30" t="s">
         <v>111</v>
@@ -3728,14 +3728,14 @@
       <c r="L35" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88" t="s">
+      <c r="M35" s="65"/>
+      <c r="N35" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="O35" s="79" t="s">
+      <c r="O35" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="P35" s="81" t="s">
+      <c r="P35" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q35" s="30">
@@ -3748,7 +3748,7 @@
         <v>109</v>
       </c>
       <c r="T35" s="32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="U35" s="30" t="s">
         <v>111</v>
@@ -3781,7 +3781,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K36" s="40" t="s">
         <v>19</v>
@@ -3789,12 +3789,12 @@
       <c r="L36" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M36" s="88"/>
-      <c r="N36" s="88"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
       <c r="O36" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="P36" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="P36" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q36" s="30" t="s">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H37" s="35">
         <v>35</v>
@@ -3840,7 +3840,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K37" s="40" t="s">
         <v>20</v>
@@ -3848,14 +3848,14 @@
       <c r="L37" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M37" s="88"/>
-      <c r="N37" s="88" t="s">
+      <c r="M37" s="65"/>
+      <c r="N37" s="65" t="s">
         <v>52</v>
       </c>
       <c r="O37" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="P37" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="P37" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q37" s="30">
@@ -3890,7 +3890,7 @@
       <c r="E38" s="17"/>
       <c r="F38" s="18"/>
       <c r="G38" s="44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H38" s="35">
         <v>36</v>
@@ -3899,7 +3899,7 @@
         <v>19</v>
       </c>
       <c r="J38" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K38" s="40" t="s">
         <v>20</v>
@@ -3907,14 +3907,14 @@
       <c r="L38" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="M38" s="88" t="s">
+      <c r="M38" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="N38" s="88"/>
+      <c r="N38" s="65"/>
       <c r="O38" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="P38" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="P38" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q38" s="30">
@@ -3927,7 +3927,7 @@
         <v>162</v>
       </c>
       <c r="T38" s="32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="U38" s="30" t="s">
         <v>164</v>
@@ -3949,7 +3949,7 @@
       <c r="E39" s="17"/>
       <c r="F39" s="18"/>
       <c r="G39" s="45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H39" s="35">
         <v>37</v>
@@ -3958,7 +3958,7 @@
         <v>20</v>
       </c>
       <c r="J39" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K39" s="40" t="s">
         <v>20</v>
@@ -3966,14 +3966,14 @@
       <c r="L39" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M39" s="88"/>
-      <c r="N39" s="88" t="s">
+      <c r="M39" s="65"/>
+      <c r="N39" s="65" t="s">
         <v>35</v>
       </c>
       <c r="O39" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="P39" s="81" t="s">
+        <v>273</v>
+      </c>
+      <c r="P39" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q39" s="30">
@@ -3986,7 +3986,7 @@
         <v>109</v>
       </c>
       <c r="T39" s="32" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="U39" s="30" t="s">
         <v>111</v>
@@ -4008,7 +4008,7 @@
       <c r="E40" s="17"/>
       <c r="F40" s="18"/>
       <c r="G40" s="45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H40" s="35">
         <v>38</v>
@@ -4017,7 +4017,7 @@
         <v>20</v>
       </c>
       <c r="J40" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K40" s="40" t="s">
         <v>20</v>
@@ -4025,14 +4025,14 @@
       <c r="L40" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88" t="s">
+      <c r="M40" s="65"/>
+      <c r="N40" s="65" t="s">
         <v>33</v>
       </c>
       <c r="O40" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="P40" s="81" t="s">
+        <v>217</v>
+      </c>
+      <c r="P40" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q40" s="30">
@@ -4045,7 +4045,7 @@
         <v>109</v>
       </c>
       <c r="T40" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="U40" s="30" t="s">
         <v>111</v>
@@ -4067,7 +4067,7 @@
       <c r="E41" s="17"/>
       <c r="F41" s="18"/>
       <c r="G41" s="45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H41" s="35">
         <v>39</v>
@@ -4076,7 +4076,7 @@
         <v>20</v>
       </c>
       <c r="J41" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K41" s="40" t="s">
         <v>20</v>
@@ -4084,14 +4084,14 @@
       <c r="L41" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88" t="s">
+      <c r="M41" s="65"/>
+      <c r="N41" s="65" t="s">
         <v>84</v>
       </c>
       <c r="O41" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="P41" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="P41" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q41" s="30">
@@ -4104,7 +4104,7 @@
         <v>109</v>
       </c>
       <c r="T41" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="U41" s="30" t="s">
         <v>111</v>
@@ -4135,7 +4135,7 @@
         <v>20</v>
       </c>
       <c r="J42" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K42" s="40" t="s">
         <v>20</v>
@@ -4143,10 +4143,10 @@
       <c r="L42" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="65"/>
       <c r="O42" s="28"/>
-      <c r="P42" s="81" t="s">
+      <c r="P42" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q42" s="30"/>
@@ -4180,18 +4180,18 @@
         <v>20</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K43" s="40" t="s">
         <v>20</v>
       </c>
       <c r="L43" s="42"/>
-      <c r="M43" s="88"/>
-      <c r="N43" s="88"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="65"/>
       <c r="O43" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="P43" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="P43" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q43" s="30"/>
@@ -4223,18 +4223,18 @@
         <v>20</v>
       </c>
       <c r="J44" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K44" s="40" t="s">
         <v>20</v>
       </c>
       <c r="L44" s="42"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="65"/>
       <c r="O44" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="P44" s="81" t="s">
+        <v>225</v>
+      </c>
+      <c r="P44" s="58" t="s">
         <v>19</v>
       </c>
       <c r="Q44" s="30"/>
@@ -4245,2216 +4245,2216 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F45"/>
-      <c r="H45" s="85"/>
+      <c r="H45" s="62"/>
       <c r="I45"/>
       <c r="J45" s="37"/>
       <c r="O45"/>
-      <c r="P45" s="82"/>
+      <c r="P45" s="59"/>
       <c r="Q45"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F46"/>
-      <c r="H46" s="85"/>
+      <c r="H46" s="62"/>
       <c r="I46"/>
       <c r="J46" s="37"/>
       <c r="O46"/>
-      <c r="P46" s="82"/>
+      <c r="P46" s="59"/>
       <c r="Q46"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F47"/>
-      <c r="H47" s="85"/>
+      <c r="H47" s="62"/>
       <c r="I47"/>
       <c r="J47" s="37"/>
       <c r="O47"/>
-      <c r="P47" s="82"/>
+      <c r="P47" s="59"/>
       <c r="Q47"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F48"/>
-      <c r="H48" s="85"/>
+      <c r="H48" s="62"/>
       <c r="I48" s="37"/>
       <c r="J48"/>
       <c r="O48"/>
-      <c r="P48" s="82"/>
+      <c r="P48" s="59"/>
       <c r="Q48"/>
     </row>
     <row r="49" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F49"/>
-      <c r="H49" s="85"/>
+      <c r="H49" s="62"/>
       <c r="I49" s="37"/>
       <c r="J49"/>
       <c r="O49"/>
-      <c r="P49" s="82"/>
+      <c r="P49" s="59"/>
       <c r="Q49"/>
     </row>
     <row r="50" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F50"/>
-      <c r="H50" s="85"/>
+      <c r="H50" s="62"/>
       <c r="I50" s="37"/>
       <c r="J50"/>
       <c r="O50"/>
-      <c r="P50" s="82"/>
+      <c r="P50" s="59"/>
       <c r="Q50"/>
     </row>
     <row r="51" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F51"/>
-      <c r="H51" s="85"/>
+      <c r="H51" s="62"/>
       <c r="I51" s="37"/>
       <c r="J51"/>
       <c r="O51"/>
-      <c r="P51" s="82"/>
+      <c r="P51" s="59"/>
       <c r="Q51"/>
     </row>
     <row r="52" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F52"/>
-      <c r="H52" s="85"/>
+      <c r="H52" s="62"/>
       <c r="I52" s="37"/>
       <c r="J52"/>
       <c r="O52"/>
-      <c r="P52" s="82"/>
+      <c r="P52" s="59"/>
       <c r="Q52"/>
     </row>
     <row r="53" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F53"/>
-      <c r="H53" s="85"/>
+      <c r="H53" s="62"/>
       <c r="I53" s="37"/>
       <c r="J53"/>
       <c r="O53"/>
-      <c r="P53" s="82"/>
+      <c r="P53" s="59"/>
       <c r="Q53"/>
     </row>
     <row r="54" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F54"/>
-      <c r="H54" s="85"/>
+      <c r="H54" s="62"/>
       <c r="I54" s="37"/>
       <c r="J54"/>
       <c r="O54"/>
-      <c r="P54" s="82"/>
+      <c r="P54" s="59"/>
       <c r="Q54"/>
     </row>
     <row r="55" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F55"/>
-      <c r="H55" s="85"/>
+      <c r="H55" s="62"/>
       <c r="I55" s="37"/>
       <c r="J55"/>
       <c r="O55"/>
-      <c r="P55" s="82"/>
+      <c r="P55" s="59"/>
       <c r="Q55"/>
     </row>
     <row r="56" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F56"/>
-      <c r="H56" s="85"/>
+      <c r="H56" s="62"/>
       <c r="I56" s="37"/>
       <c r="J56"/>
       <c r="O56"/>
-      <c r="P56" s="82"/>
+      <c r="P56" s="59"/>
       <c r="Q56"/>
     </row>
     <row r="57" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F57"/>
-      <c r="H57" s="85"/>
+      <c r="H57" s="62"/>
       <c r="I57" s="37"/>
       <c r="J57"/>
       <c r="O57"/>
-      <c r="P57" s="82"/>
+      <c r="P57" s="59"/>
       <c r="Q57"/>
     </row>
     <row r="58" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F58"/>
-      <c r="H58" s="85"/>
+      <c r="H58" s="62"/>
       <c r="I58" s="37"/>
       <c r="J58"/>
       <c r="O58"/>
-      <c r="P58" s="82"/>
+      <c r="P58" s="59"/>
       <c r="Q58"/>
     </row>
     <row r="59" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F59"/>
-      <c r="H59" s="85"/>
+      <c r="H59" s="62"/>
       <c r="I59" s="37"/>
       <c r="J59"/>
       <c r="O59"/>
-      <c r="P59" s="82"/>
+      <c r="P59" s="59"/>
       <c r="Q59"/>
     </row>
     <row r="60" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F60"/>
-      <c r="H60" s="85"/>
+      <c r="H60" s="62"/>
       <c r="I60" s="37"/>
       <c r="J60"/>
       <c r="O60"/>
-      <c r="P60" s="82"/>
+      <c r="P60" s="59"/>
       <c r="Q60"/>
     </row>
     <row r="61" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F61"/>
-      <c r="H61" s="85"/>
+      <c r="H61" s="62"/>
       <c r="I61" s="37"/>
       <c r="J61"/>
       <c r="O61"/>
-      <c r="P61" s="82"/>
+      <c r="P61" s="59"/>
       <c r="Q61"/>
     </row>
     <row r="62" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F62"/>
-      <c r="H62" s="85"/>
+      <c r="H62" s="62"/>
       <c r="I62" s="37"/>
       <c r="J62"/>
       <c r="O62"/>
-      <c r="P62" s="82"/>
+      <c r="P62" s="59"/>
       <c r="Q62"/>
     </row>
     <row r="63" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F63"/>
-      <c r="H63" s="85"/>
+      <c r="H63" s="62"/>
       <c r="I63" s="37"/>
       <c r="J63"/>
       <c r="O63"/>
-      <c r="P63" s="82"/>
+      <c r="P63" s="59"/>
       <c r="Q63"/>
     </row>
     <row r="64" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F64"/>
-      <c r="H64" s="85"/>
+      <c r="H64" s="62"/>
       <c r="I64" s="37"/>
       <c r="J64"/>
       <c r="O64"/>
-      <c r="P64" s="82"/>
+      <c r="P64" s="59"/>
       <c r="Q64"/>
     </row>
     <row r="65" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F65"/>
-      <c r="H65" s="85"/>
+      <c r="H65" s="62"/>
       <c r="I65" s="37"/>
       <c r="J65"/>
       <c r="O65"/>
-      <c r="P65" s="82"/>
+      <c r="P65" s="59"/>
       <c r="Q65"/>
     </row>
     <row r="66" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F66"/>
-      <c r="H66" s="85"/>
+      <c r="H66" s="62"/>
       <c r="I66" s="37"/>
       <c r="J66"/>
       <c r="O66"/>
-      <c r="P66" s="82"/>
+      <c r="P66" s="59"/>
       <c r="Q66"/>
     </row>
     <row r="67" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F67"/>
-      <c r="H67" s="85"/>
+      <c r="H67" s="62"/>
       <c r="I67" s="37"/>
       <c r="J67"/>
       <c r="O67"/>
-      <c r="P67" s="82"/>
+      <c r="P67" s="59"/>
       <c r="Q67"/>
     </row>
     <row r="68" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F68"/>
-      <c r="H68" s="85"/>
+      <c r="H68" s="62"/>
       <c r="I68" s="37"/>
       <c r="J68"/>
       <c r="O68"/>
-      <c r="P68" s="82"/>
+      <c r="P68" s="59"/>
       <c r="Q68"/>
     </row>
     <row r="69" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F69"/>
-      <c r="H69" s="85"/>
+      <c r="H69" s="62"/>
       <c r="I69" s="37"/>
       <c r="J69"/>
       <c r="O69"/>
-      <c r="P69" s="82"/>
+      <c r="P69" s="59"/>
       <c r="Q69"/>
     </row>
     <row r="70" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F70"/>
-      <c r="H70" s="85"/>
+      <c r="H70" s="62"/>
       <c r="I70" s="37"/>
       <c r="J70"/>
       <c r="O70"/>
-      <c r="P70" s="82"/>
+      <c r="P70" s="59"/>
       <c r="Q70"/>
     </row>
     <row r="71" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F71"/>
-      <c r="H71" s="85"/>
+      <c r="H71" s="62"/>
       <c r="I71" s="37"/>
       <c r="J71"/>
       <c r="O71"/>
-      <c r="P71" s="82"/>
+      <c r="P71" s="59"/>
       <c r="Q71"/>
     </row>
     <row r="72" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F72"/>
-      <c r="H72" s="85"/>
+      <c r="H72" s="62"/>
       <c r="I72" s="37"/>
       <c r="J72"/>
       <c r="O72"/>
-      <c r="P72" s="82"/>
+      <c r="P72" s="59"/>
       <c r="Q72"/>
     </row>
     <row r="73" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F73"/>
-      <c r="H73" s="85"/>
+      <c r="H73" s="62"/>
       <c r="I73" s="37"/>
       <c r="J73"/>
       <c r="O73"/>
-      <c r="P73" s="82"/>
+      <c r="P73" s="59"/>
       <c r="Q73"/>
     </row>
     <row r="74" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F74"/>
-      <c r="H74" s="85"/>
+      <c r="H74" s="62"/>
       <c r="I74" s="37"/>
       <c r="J74"/>
       <c r="O74"/>
-      <c r="P74" s="82"/>
+      <c r="P74" s="59"/>
       <c r="Q74"/>
     </row>
     <row r="75" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F75"/>
-      <c r="H75" s="85"/>
+      <c r="H75" s="62"/>
       <c r="I75" s="37"/>
       <c r="J75"/>
       <c r="O75"/>
-      <c r="P75" s="82"/>
+      <c r="P75" s="59"/>
       <c r="Q75"/>
     </row>
     <row r="76" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F76"/>
-      <c r="H76" s="85"/>
+      <c r="H76" s="62"/>
       <c r="I76" s="37"/>
       <c r="J76"/>
       <c r="O76"/>
-      <c r="P76" s="82"/>
+      <c r="P76" s="59"/>
       <c r="Q76"/>
     </row>
     <row r="77" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F77"/>
-      <c r="H77" s="85"/>
+      <c r="H77" s="62"/>
       <c r="I77" s="37"/>
       <c r="J77"/>
       <c r="O77"/>
-      <c r="P77" s="82"/>
+      <c r="P77" s="59"/>
       <c r="Q77"/>
     </row>
     <row r="78" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F78"/>
-      <c r="H78" s="85"/>
+      <c r="H78" s="62"/>
       <c r="I78" s="37"/>
       <c r="J78"/>
       <c r="O78"/>
-      <c r="P78" s="82"/>
+      <c r="P78" s="59"/>
       <c r="Q78"/>
     </row>
     <row r="79" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F79"/>
-      <c r="H79" s="85"/>
+      <c r="H79" s="62"/>
       <c r="I79" s="37"/>
       <c r="J79"/>
       <c r="O79"/>
-      <c r="P79" s="82"/>
+      <c r="P79" s="59"/>
       <c r="Q79"/>
     </row>
     <row r="80" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F80"/>
-      <c r="H80" s="85"/>
+      <c r="H80" s="62"/>
       <c r="I80" s="37"/>
       <c r="J80"/>
       <c r="O80"/>
-      <c r="P80" s="82"/>
+      <c r="P80" s="59"/>
       <c r="Q80"/>
     </row>
     <row r="81" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F81"/>
-      <c r="H81" s="85"/>
+      <c r="H81" s="62"/>
       <c r="I81" s="37"/>
       <c r="J81"/>
       <c r="O81"/>
-      <c r="P81" s="82"/>
+      <c r="P81" s="59"/>
       <c r="Q81"/>
     </row>
     <row r="82" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F82"/>
-      <c r="H82" s="85"/>
+      <c r="H82" s="62"/>
       <c r="I82" s="37"/>
       <c r="J82"/>
       <c r="O82"/>
-      <c r="P82" s="82"/>
+      <c r="P82" s="59"/>
       <c r="Q82"/>
     </row>
     <row r="83" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F83"/>
-      <c r="H83" s="85"/>
+      <c r="H83" s="62"/>
       <c r="I83" s="37"/>
       <c r="J83"/>
       <c r="O83"/>
-      <c r="P83" s="82"/>
+      <c r="P83" s="59"/>
       <c r="Q83"/>
     </row>
     <row r="84" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F84"/>
-      <c r="H84" s="85"/>
+      <c r="H84" s="62"/>
       <c r="I84" s="37"/>
       <c r="J84"/>
       <c r="O84"/>
-      <c r="P84" s="82"/>
+      <c r="P84" s="59"/>
       <c r="Q84"/>
     </row>
     <row r="85" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F85"/>
-      <c r="H85" s="85"/>
+      <c r="H85" s="62"/>
       <c r="I85" s="37"/>
       <c r="J85"/>
       <c r="O85"/>
-      <c r="P85" s="82"/>
+      <c r="P85" s="59"/>
       <c r="Q85"/>
     </row>
     <row r="86" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F86"/>
-      <c r="H86" s="85"/>
+      <c r="H86" s="62"/>
       <c r="I86" s="37"/>
       <c r="J86"/>
       <c r="O86"/>
-      <c r="P86" s="82"/>
+      <c r="P86" s="59"/>
       <c r="Q86"/>
     </row>
     <row r="87" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F87"/>
-      <c r="H87" s="85"/>
+      <c r="H87" s="62"/>
       <c r="I87" s="37"/>
       <c r="J87"/>
       <c r="O87"/>
-      <c r="P87" s="82"/>
+      <c r="P87" s="59"/>
       <c r="Q87"/>
     </row>
     <row r="88" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F88"/>
-      <c r="H88" s="85"/>
+      <c r="H88" s="62"/>
       <c r="I88" s="37"/>
       <c r="J88"/>
       <c r="O88"/>
-      <c r="P88" s="82"/>
+      <c r="P88" s="59"/>
       <c r="Q88"/>
     </row>
     <row r="89" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F89"/>
-      <c r="H89" s="85"/>
+      <c r="H89" s="62"/>
       <c r="I89" s="37"/>
       <c r="J89"/>
       <c r="O89"/>
-      <c r="P89" s="82"/>
+      <c r="P89" s="59"/>
       <c r="Q89"/>
     </row>
     <row r="90" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F90"/>
-      <c r="H90" s="85"/>
+      <c r="H90" s="62"/>
       <c r="I90" s="37"/>
       <c r="J90"/>
       <c r="O90"/>
-      <c r="P90" s="82"/>
+      <c r="P90" s="59"/>
       <c r="Q90"/>
     </row>
     <row r="91" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F91"/>
-      <c r="H91" s="85"/>
+      <c r="H91" s="62"/>
       <c r="I91" s="37"/>
       <c r="J91"/>
       <c r="O91"/>
-      <c r="P91" s="82"/>
+      <c r="P91" s="59"/>
       <c r="Q91"/>
     </row>
     <row r="92" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F92"/>
-      <c r="H92" s="85"/>
+      <c r="H92" s="62"/>
       <c r="I92" s="37"/>
       <c r="J92"/>
       <c r="O92"/>
-      <c r="P92" s="82"/>
+      <c r="P92" s="59"/>
       <c r="Q92"/>
     </row>
     <row r="93" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F93"/>
-      <c r="H93" s="85"/>
+      <c r="H93" s="62"/>
       <c r="I93" s="37"/>
       <c r="J93"/>
       <c r="O93"/>
-      <c r="P93" s="82"/>
+      <c r="P93" s="59"/>
       <c r="Q93"/>
     </row>
     <row r="94" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F94"/>
-      <c r="H94" s="85"/>
+      <c r="H94" s="62"/>
       <c r="I94" s="37"/>
       <c r="J94"/>
       <c r="O94"/>
-      <c r="P94" s="82"/>
+      <c r="P94" s="59"/>
       <c r="Q94"/>
     </row>
     <row r="95" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F95"/>
-      <c r="H95" s="85"/>
+      <c r="H95" s="62"/>
       <c r="I95" s="37"/>
       <c r="J95"/>
       <c r="O95"/>
-      <c r="P95" s="82"/>
+      <c r="P95" s="59"/>
       <c r="Q95"/>
     </row>
     <row r="96" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F96"/>
-      <c r="H96" s="85"/>
+      <c r="H96" s="62"/>
       <c r="I96" s="37"/>
       <c r="J96"/>
       <c r="O96"/>
-      <c r="P96" s="82"/>
+      <c r="P96" s="59"/>
       <c r="Q96"/>
     </row>
     <row r="97" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F97"/>
-      <c r="H97" s="85"/>
+      <c r="H97" s="62"/>
       <c r="I97" s="37"/>
       <c r="J97"/>
       <c r="O97"/>
-      <c r="P97" s="82"/>
+      <c r="P97" s="59"/>
       <c r="Q97"/>
     </row>
     <row r="98" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F98"/>
-      <c r="H98" s="85"/>
+      <c r="H98" s="62"/>
       <c r="I98" s="37"/>
       <c r="J98"/>
       <c r="O98"/>
-      <c r="P98" s="82"/>
+      <c r="P98" s="59"/>
       <c r="Q98"/>
     </row>
     <row r="99" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F99"/>
-      <c r="H99" s="85"/>
+      <c r="H99" s="62"/>
       <c r="I99" s="37"/>
       <c r="J99"/>
       <c r="O99"/>
-      <c r="P99" s="82"/>
+      <c r="P99" s="59"/>
       <c r="Q99"/>
     </row>
     <row r="100" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F100"/>
-      <c r="H100" s="85"/>
+      <c r="H100" s="62"/>
       <c r="I100" s="37"/>
       <c r="J100"/>
       <c r="O100"/>
-      <c r="P100" s="82"/>
+      <c r="P100" s="59"/>
       <c r="Q100"/>
     </row>
     <row r="101" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F101"/>
-      <c r="H101" s="85"/>
+      <c r="H101" s="62"/>
       <c r="I101" s="37"/>
       <c r="J101"/>
       <c r="O101"/>
-      <c r="P101" s="82"/>
+      <c r="P101" s="59"/>
       <c r="Q101"/>
     </row>
     <row r="102" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F102"/>
-      <c r="H102" s="85"/>
+      <c r="H102" s="62"/>
       <c r="I102" s="37"/>
       <c r="J102"/>
       <c r="O102"/>
-      <c r="P102" s="82"/>
+      <c r="P102" s="59"/>
       <c r="Q102"/>
     </row>
     <row r="103" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F103"/>
-      <c r="H103" s="85"/>
+      <c r="H103" s="62"/>
       <c r="I103" s="37"/>
       <c r="J103"/>
       <c r="O103"/>
-      <c r="P103" s="82"/>
+      <c r="P103" s="59"/>
       <c r="Q103"/>
     </row>
     <row r="104" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F104"/>
-      <c r="H104" s="85"/>
+      <c r="H104" s="62"/>
       <c r="I104" s="37"/>
       <c r="J104"/>
       <c r="O104"/>
-      <c r="P104" s="82"/>
+      <c r="P104" s="59"/>
       <c r="Q104"/>
     </row>
     <row r="105" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F105"/>
-      <c r="H105" s="85"/>
+      <c r="H105" s="62"/>
       <c r="I105" s="37"/>
       <c r="J105"/>
       <c r="O105"/>
-      <c r="P105" s="82"/>
+      <c r="P105" s="59"/>
       <c r="Q105"/>
     </row>
     <row r="106" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F106"/>
-      <c r="H106" s="85"/>
+      <c r="H106" s="62"/>
       <c r="I106" s="37"/>
       <c r="J106"/>
       <c r="O106"/>
-      <c r="P106" s="82"/>
+      <c r="P106" s="59"/>
       <c r="Q106"/>
     </row>
     <row r="107" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F107"/>
-      <c r="H107" s="85"/>
+      <c r="H107" s="62"/>
       <c r="I107" s="37"/>
       <c r="J107"/>
       <c r="O107"/>
-      <c r="P107" s="82"/>
+      <c r="P107" s="59"/>
       <c r="Q107"/>
     </row>
     <row r="108" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F108"/>
-      <c r="H108" s="85"/>
+      <c r="H108" s="62"/>
       <c r="I108" s="37"/>
       <c r="J108"/>
       <c r="O108"/>
-      <c r="P108" s="82"/>
+      <c r="P108" s="59"/>
       <c r="Q108"/>
     </row>
     <row r="109" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F109"/>
-      <c r="H109" s="85"/>
+      <c r="H109" s="62"/>
       <c r="I109" s="37"/>
       <c r="J109"/>
       <c r="O109"/>
-      <c r="P109" s="82"/>
+      <c r="P109" s="59"/>
       <c r="Q109"/>
     </row>
     <row r="110" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F110"/>
-      <c r="H110" s="85"/>
+      <c r="H110" s="62"/>
       <c r="I110" s="37"/>
       <c r="J110"/>
       <c r="O110"/>
-      <c r="P110" s="82"/>
+      <c r="P110" s="59"/>
       <c r="Q110"/>
     </row>
     <row r="111" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F111"/>
-      <c r="H111" s="85"/>
+      <c r="H111" s="62"/>
       <c r="I111" s="37"/>
       <c r="J111"/>
       <c r="O111"/>
-      <c r="P111" s="82"/>
+      <c r="P111" s="59"/>
       <c r="Q111"/>
     </row>
     <row r="112" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F112"/>
-      <c r="H112" s="85"/>
+      <c r="H112" s="62"/>
       <c r="I112" s="37"/>
       <c r="J112"/>
       <c r="O112"/>
-      <c r="P112" s="82"/>
+      <c r="P112" s="59"/>
       <c r="Q112"/>
     </row>
     <row r="113" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F113"/>
-      <c r="H113" s="85"/>
+      <c r="H113" s="62"/>
       <c r="I113" s="37"/>
       <c r="J113"/>
       <c r="O113"/>
-      <c r="P113" s="82"/>
+      <c r="P113" s="59"/>
       <c r="Q113"/>
     </row>
     <row r="114" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F114"/>
-      <c r="H114" s="85"/>
+      <c r="H114" s="62"/>
       <c r="I114" s="37"/>
       <c r="J114"/>
       <c r="O114"/>
-      <c r="P114" s="82"/>
+      <c r="P114" s="59"/>
       <c r="Q114"/>
     </row>
     <row r="115" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F115"/>
-      <c r="H115" s="85"/>
+      <c r="H115" s="62"/>
       <c r="I115" s="37"/>
       <c r="J115"/>
       <c r="O115"/>
-      <c r="P115" s="82"/>
+      <c r="P115" s="59"/>
       <c r="Q115"/>
     </row>
     <row r="116" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F116"/>
-      <c r="H116" s="85"/>
+      <c r="H116" s="62"/>
       <c r="I116" s="37"/>
       <c r="J116"/>
       <c r="O116"/>
-      <c r="P116" s="82"/>
+      <c r="P116" s="59"/>
       <c r="Q116"/>
     </row>
     <row r="117" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F117"/>
-      <c r="H117" s="85"/>
+      <c r="H117" s="62"/>
       <c r="I117" s="37"/>
       <c r="J117"/>
       <c r="O117"/>
-      <c r="P117" s="82"/>
+      <c r="P117" s="59"/>
       <c r="Q117"/>
     </row>
     <row r="118" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F118"/>
-      <c r="H118" s="85"/>
+      <c r="H118" s="62"/>
       <c r="I118" s="37"/>
       <c r="J118"/>
       <c r="O118"/>
-      <c r="P118" s="82"/>
+      <c r="P118" s="59"/>
       <c r="Q118"/>
     </row>
     <row r="119" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F119"/>
-      <c r="H119" s="85"/>
+      <c r="H119" s="62"/>
       <c r="I119" s="37"/>
       <c r="J119"/>
       <c r="O119"/>
-      <c r="P119" s="82"/>
+      <c r="P119" s="59"/>
       <c r="Q119"/>
     </row>
     <row r="120" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F120"/>
-      <c r="H120" s="85"/>
+      <c r="H120" s="62"/>
       <c r="I120" s="37"/>
       <c r="J120"/>
       <c r="O120"/>
-      <c r="P120" s="82"/>
+      <c r="P120" s="59"/>
       <c r="Q120"/>
     </row>
     <row r="121" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F121"/>
-      <c r="H121" s="85"/>
+      <c r="H121" s="62"/>
       <c r="I121" s="37"/>
       <c r="J121"/>
       <c r="O121"/>
-      <c r="P121" s="82"/>
+      <c r="P121" s="59"/>
       <c r="Q121"/>
     </row>
     <row r="122" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F122"/>
-      <c r="H122" s="85"/>
+      <c r="H122" s="62"/>
       <c r="I122" s="37"/>
       <c r="J122"/>
       <c r="O122"/>
-      <c r="P122" s="82"/>
+      <c r="P122" s="59"/>
       <c r="Q122"/>
     </row>
     <row r="123" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F123"/>
-      <c r="H123" s="85"/>
+      <c r="H123" s="62"/>
       <c r="I123" s="37"/>
       <c r="J123"/>
       <c r="O123"/>
-      <c r="P123" s="82"/>
+      <c r="P123" s="59"/>
       <c r="Q123"/>
     </row>
     <row r="124" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F124"/>
-      <c r="H124" s="85"/>
+      <c r="H124" s="62"/>
       <c r="I124" s="37"/>
       <c r="J124"/>
       <c r="O124"/>
-      <c r="P124" s="82"/>
+      <c r="P124" s="59"/>
       <c r="Q124"/>
     </row>
     <row r="125" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F125"/>
-      <c r="H125" s="85"/>
+      <c r="H125" s="62"/>
       <c r="I125" s="37"/>
       <c r="J125"/>
       <c r="O125"/>
-      <c r="P125" s="82"/>
+      <c r="P125" s="59"/>
       <c r="Q125"/>
     </row>
     <row r="126" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F126"/>
-      <c r="H126" s="85"/>
+      <c r="H126" s="62"/>
       <c r="I126" s="37"/>
       <c r="J126"/>
       <c r="O126"/>
-      <c r="P126" s="82"/>
+      <c r="P126" s="59"/>
       <c r="Q126"/>
     </row>
     <row r="127" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F127"/>
-      <c r="H127" s="85"/>
+      <c r="H127" s="62"/>
       <c r="I127" s="37"/>
       <c r="J127"/>
       <c r="O127"/>
-      <c r="P127" s="82"/>
+      <c r="P127" s="59"/>
       <c r="Q127"/>
     </row>
     <row r="128" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F128"/>
-      <c r="H128" s="85"/>
+      <c r="H128" s="62"/>
       <c r="I128" s="37"/>
       <c r="J128"/>
       <c r="O128"/>
-      <c r="P128" s="82"/>
+      <c r="P128" s="59"/>
       <c r="Q128"/>
     </row>
     <row r="129" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F129"/>
-      <c r="H129" s="85"/>
+      <c r="H129" s="62"/>
       <c r="I129" s="37"/>
       <c r="J129"/>
       <c r="O129"/>
-      <c r="P129" s="82"/>
+      <c r="P129" s="59"/>
       <c r="Q129"/>
     </row>
     <row r="130" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F130"/>
-      <c r="H130" s="85"/>
+      <c r="H130" s="62"/>
       <c r="I130" s="37"/>
       <c r="J130"/>
       <c r="O130"/>
-      <c r="P130" s="82"/>
+      <c r="P130" s="59"/>
       <c r="Q130"/>
     </row>
     <row r="131" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F131"/>
-      <c r="H131" s="85"/>
+      <c r="H131" s="62"/>
       <c r="I131" s="37"/>
       <c r="J131"/>
       <c r="O131"/>
-      <c r="P131" s="82"/>
+      <c r="P131" s="59"/>
       <c r="Q131"/>
     </row>
     <row r="132" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F132"/>
-      <c r="H132" s="85"/>
+      <c r="H132" s="62"/>
       <c r="I132" s="37"/>
       <c r="J132"/>
       <c r="O132"/>
-      <c r="P132" s="82"/>
+      <c r="P132" s="59"/>
       <c r="Q132"/>
     </row>
     <row r="133" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F133"/>
-      <c r="H133" s="85"/>
+      <c r="H133" s="62"/>
       <c r="I133" s="37"/>
       <c r="J133"/>
       <c r="O133"/>
-      <c r="P133" s="82"/>
+      <c r="P133" s="59"/>
       <c r="Q133"/>
     </row>
     <row r="134" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F134"/>
-      <c r="H134" s="85"/>
+      <c r="H134" s="62"/>
       <c r="I134" s="37"/>
       <c r="J134"/>
       <c r="O134"/>
-      <c r="P134" s="82"/>
+      <c r="P134" s="59"/>
       <c r="Q134"/>
     </row>
     <row r="135" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F135"/>
-      <c r="H135" s="85"/>
+      <c r="H135" s="62"/>
       <c r="I135" s="37"/>
       <c r="J135"/>
       <c r="O135"/>
-      <c r="P135" s="82"/>
+      <c r="P135" s="59"/>
       <c r="Q135"/>
     </row>
     <row r="136" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F136"/>
-      <c r="H136" s="85"/>
+      <c r="H136" s="62"/>
       <c r="I136" s="37"/>
       <c r="J136"/>
       <c r="O136"/>
-      <c r="P136" s="82"/>
+      <c r="P136" s="59"/>
       <c r="Q136"/>
     </row>
     <row r="137" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F137"/>
-      <c r="H137" s="85"/>
+      <c r="H137" s="62"/>
       <c r="I137" s="37"/>
       <c r="J137"/>
       <c r="O137"/>
-      <c r="P137" s="82"/>
+      <c r="P137" s="59"/>
       <c r="Q137"/>
     </row>
     <row r="138" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F138"/>
-      <c r="H138" s="85"/>
+      <c r="H138" s="62"/>
       <c r="I138" s="37"/>
       <c r="J138"/>
       <c r="O138"/>
-      <c r="P138" s="82"/>
+      <c r="P138" s="59"/>
       <c r="Q138"/>
     </row>
     <row r="139" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F139"/>
-      <c r="H139" s="85"/>
+      <c r="H139" s="62"/>
       <c r="I139" s="37"/>
       <c r="J139"/>
       <c r="O139"/>
-      <c r="P139" s="82"/>
+      <c r="P139" s="59"/>
       <c r="Q139"/>
     </row>
     <row r="140" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F140"/>
-      <c r="H140" s="85"/>
+      <c r="H140" s="62"/>
       <c r="I140" s="37"/>
       <c r="J140"/>
       <c r="O140"/>
-      <c r="P140" s="82"/>
+      <c r="P140" s="59"/>
       <c r="Q140"/>
     </row>
     <row r="141" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F141"/>
-      <c r="H141" s="85"/>
+      <c r="H141" s="62"/>
       <c r="I141" s="37"/>
       <c r="J141"/>
       <c r="O141"/>
-      <c r="P141" s="82"/>
+      <c r="P141" s="59"/>
       <c r="Q141"/>
     </row>
     <row r="142" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F142"/>
-      <c r="H142" s="85"/>
+      <c r="H142" s="62"/>
       <c r="I142" s="37"/>
       <c r="J142"/>
       <c r="O142"/>
-      <c r="P142" s="82"/>
+      <c r="P142" s="59"/>
       <c r="Q142"/>
     </row>
     <row r="143" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F143"/>
-      <c r="H143" s="85"/>
+      <c r="H143" s="62"/>
       <c r="I143" s="37"/>
       <c r="J143"/>
       <c r="O143"/>
-      <c r="P143" s="82"/>
+      <c r="P143" s="59"/>
       <c r="Q143"/>
     </row>
     <row r="144" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F144"/>
-      <c r="H144" s="85"/>
+      <c r="H144" s="62"/>
       <c r="I144" s="37"/>
       <c r="J144"/>
       <c r="O144"/>
-      <c r="P144" s="82"/>
+      <c r="P144" s="59"/>
       <c r="Q144"/>
     </row>
     <row r="145" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F145"/>
-      <c r="H145" s="85"/>
+      <c r="H145" s="62"/>
       <c r="I145" s="37"/>
       <c r="J145"/>
       <c r="O145"/>
-      <c r="P145" s="82"/>
+      <c r="P145" s="59"/>
       <c r="Q145"/>
     </row>
     <row r="146" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F146"/>
-      <c r="H146" s="85"/>
+      <c r="H146" s="62"/>
       <c r="I146" s="37"/>
       <c r="J146"/>
       <c r="O146"/>
-      <c r="P146" s="82"/>
+      <c r="P146" s="59"/>
       <c r="Q146"/>
     </row>
     <row r="147" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F147"/>
-      <c r="H147" s="85"/>
+      <c r="H147" s="62"/>
       <c r="I147" s="37"/>
       <c r="J147"/>
       <c r="O147"/>
-      <c r="P147" s="82"/>
+      <c r="P147" s="59"/>
       <c r="Q147"/>
     </row>
     <row r="148" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F148"/>
-      <c r="H148" s="85"/>
+      <c r="H148" s="62"/>
       <c r="I148" s="37"/>
       <c r="J148"/>
       <c r="O148"/>
-      <c r="P148" s="82"/>
+      <c r="P148" s="59"/>
       <c r="Q148"/>
     </row>
     <row r="149" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F149"/>
-      <c r="H149" s="85"/>
+      <c r="H149" s="62"/>
       <c r="I149" s="37"/>
       <c r="J149"/>
       <c r="O149"/>
-      <c r="P149" s="82"/>
+      <c r="P149" s="59"/>
       <c r="Q149"/>
     </row>
     <row r="150" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F150"/>
-      <c r="H150" s="85"/>
+      <c r="H150" s="62"/>
       <c r="I150" s="37"/>
       <c r="J150"/>
       <c r="O150"/>
-      <c r="P150" s="82"/>
+      <c r="P150" s="59"/>
       <c r="Q150"/>
     </row>
     <row r="151" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F151"/>
-      <c r="H151" s="85"/>
+      <c r="H151" s="62"/>
       <c r="I151" s="37"/>
       <c r="J151"/>
       <c r="O151"/>
-      <c r="P151" s="82"/>
+      <c r="P151" s="59"/>
       <c r="Q151"/>
     </row>
     <row r="152" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F152"/>
-      <c r="H152" s="85"/>
+      <c r="H152" s="62"/>
       <c r="I152" s="37"/>
       <c r="J152"/>
       <c r="O152"/>
-      <c r="P152" s="82"/>
+      <c r="P152" s="59"/>
       <c r="Q152"/>
     </row>
     <row r="153" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F153"/>
-      <c r="H153" s="85"/>
+      <c r="H153" s="62"/>
       <c r="I153" s="37"/>
       <c r="J153"/>
       <c r="O153"/>
-      <c r="P153" s="82"/>
+      <c r="P153" s="59"/>
       <c r="Q153"/>
     </row>
     <row r="154" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F154"/>
-      <c r="H154" s="85"/>
+      <c r="H154" s="62"/>
       <c r="I154" s="37"/>
       <c r="J154"/>
       <c r="O154"/>
-      <c r="P154" s="82"/>
+      <c r="P154" s="59"/>
       <c r="Q154"/>
     </row>
     <row r="155" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F155"/>
-      <c r="H155" s="85"/>
+      <c r="H155" s="62"/>
       <c r="I155" s="37"/>
       <c r="J155"/>
       <c r="O155"/>
-      <c r="P155" s="82"/>
+      <c r="P155" s="59"/>
       <c r="Q155"/>
     </row>
     <row r="156" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F156"/>
-      <c r="H156" s="85"/>
+      <c r="H156" s="62"/>
       <c r="I156" s="37"/>
       <c r="J156"/>
       <c r="O156"/>
-      <c r="P156" s="82"/>
+      <c r="P156" s="59"/>
       <c r="Q156"/>
     </row>
     <row r="157" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F157"/>
-      <c r="H157" s="85"/>
+      <c r="H157" s="62"/>
       <c r="I157" s="37"/>
       <c r="J157"/>
       <c r="O157"/>
-      <c r="P157" s="82"/>
+      <c r="P157" s="59"/>
       <c r="Q157"/>
     </row>
     <row r="158" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F158"/>
-      <c r="H158" s="85"/>
+      <c r="H158" s="62"/>
       <c r="I158" s="37"/>
       <c r="J158"/>
       <c r="O158"/>
-      <c r="P158" s="82"/>
+      <c r="P158" s="59"/>
       <c r="Q158"/>
     </row>
     <row r="159" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F159"/>
-      <c r="H159" s="85"/>
+      <c r="H159" s="62"/>
       <c r="I159" s="37"/>
       <c r="J159"/>
       <c r="O159"/>
-      <c r="P159" s="82"/>
+      <c r="P159" s="59"/>
       <c r="Q159"/>
     </row>
     <row r="160" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F160"/>
-      <c r="H160" s="85"/>
+      <c r="H160" s="62"/>
       <c r="I160" s="37"/>
       <c r="J160"/>
       <c r="O160"/>
-      <c r="P160" s="82"/>
+      <c r="P160" s="59"/>
       <c r="Q160"/>
     </row>
     <row r="161" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F161"/>
-      <c r="H161" s="85"/>
+      <c r="H161" s="62"/>
       <c r="I161" s="37"/>
       <c r="J161"/>
       <c r="O161"/>
-      <c r="P161" s="82"/>
+      <c r="P161" s="59"/>
       <c r="Q161"/>
     </row>
     <row r="162" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F162"/>
-      <c r="H162" s="85"/>
+      <c r="H162" s="62"/>
       <c r="I162" s="37"/>
       <c r="J162"/>
       <c r="O162"/>
-      <c r="P162" s="82"/>
+      <c r="P162" s="59"/>
       <c r="Q162"/>
     </row>
     <row r="163" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F163"/>
-      <c r="H163" s="85"/>
+      <c r="H163" s="62"/>
       <c r="I163" s="37"/>
       <c r="J163"/>
       <c r="O163"/>
-      <c r="P163" s="82"/>
+      <c r="P163" s="59"/>
       <c r="Q163"/>
     </row>
     <row r="164" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F164"/>
-      <c r="H164" s="85"/>
+      <c r="H164" s="62"/>
       <c r="I164" s="37"/>
       <c r="J164"/>
       <c r="O164"/>
-      <c r="P164" s="82"/>
+      <c r="P164" s="59"/>
       <c r="Q164"/>
     </row>
     <row r="165" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F165"/>
-      <c r="H165" s="85"/>
+      <c r="H165" s="62"/>
       <c r="I165" s="37"/>
       <c r="J165"/>
       <c r="O165"/>
-      <c r="P165" s="82"/>
+      <c r="P165" s="59"/>
       <c r="Q165"/>
     </row>
     <row r="166" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F166"/>
-      <c r="H166" s="85"/>
+      <c r="H166" s="62"/>
       <c r="I166" s="37"/>
       <c r="J166"/>
       <c r="O166"/>
-      <c r="P166" s="82"/>
+      <c r="P166" s="59"/>
       <c r="Q166"/>
     </row>
     <row r="167" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F167"/>
-      <c r="H167" s="85"/>
+      <c r="H167" s="62"/>
       <c r="I167" s="37"/>
       <c r="J167"/>
       <c r="O167"/>
-      <c r="P167" s="82"/>
+      <c r="P167" s="59"/>
       <c r="Q167"/>
     </row>
     <row r="168" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F168"/>
-      <c r="H168" s="85"/>
+      <c r="H168" s="62"/>
       <c r="I168" s="37"/>
       <c r="J168"/>
       <c r="O168"/>
-      <c r="P168" s="82"/>
+      <c r="P168" s="59"/>
       <c r="Q168"/>
     </row>
     <row r="169" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F169"/>
-      <c r="H169" s="85"/>
+      <c r="H169" s="62"/>
       <c r="I169" s="37"/>
       <c r="J169"/>
       <c r="O169"/>
-      <c r="P169" s="82"/>
+      <c r="P169" s="59"/>
       <c r="Q169"/>
     </row>
     <row r="170" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F170"/>
-      <c r="H170" s="85"/>
+      <c r="H170" s="62"/>
       <c r="I170" s="37"/>
       <c r="J170"/>
       <c r="O170"/>
-      <c r="P170" s="82"/>
+      <c r="P170" s="59"/>
       <c r="Q170"/>
     </row>
     <row r="171" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F171"/>
-      <c r="H171" s="85"/>
+      <c r="H171" s="62"/>
       <c r="I171" s="37"/>
       <c r="J171"/>
       <c r="O171"/>
-      <c r="P171" s="82"/>
+      <c r="P171" s="59"/>
       <c r="Q171"/>
     </row>
     <row r="172" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F172"/>
-      <c r="H172" s="85"/>
+      <c r="H172" s="62"/>
       <c r="I172" s="37"/>
       <c r="J172"/>
       <c r="O172"/>
-      <c r="P172" s="82"/>
+      <c r="P172" s="59"/>
       <c r="Q172"/>
     </row>
     <row r="173" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F173"/>
-      <c r="H173" s="85"/>
+      <c r="H173" s="62"/>
       <c r="I173" s="37"/>
       <c r="J173"/>
       <c r="O173"/>
-      <c r="P173" s="82"/>
+      <c r="P173" s="59"/>
       <c r="Q173"/>
     </row>
     <row r="174" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F174"/>
-      <c r="H174" s="85"/>
+      <c r="H174" s="62"/>
       <c r="I174" s="37"/>
       <c r="J174"/>
       <c r="O174"/>
-      <c r="P174" s="82"/>
+      <c r="P174" s="59"/>
       <c r="Q174"/>
     </row>
     <row r="175" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F175"/>
-      <c r="H175" s="85"/>
+      <c r="H175" s="62"/>
       <c r="I175" s="37"/>
       <c r="J175"/>
       <c r="O175"/>
-      <c r="P175" s="82"/>
+      <c r="P175" s="59"/>
       <c r="Q175"/>
     </row>
     <row r="176" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F176"/>
-      <c r="H176" s="85"/>
+      <c r="H176" s="62"/>
       <c r="I176" s="37"/>
       <c r="J176"/>
       <c r="O176"/>
-      <c r="P176" s="82"/>
+      <c r="P176" s="59"/>
       <c r="Q176"/>
     </row>
     <row r="177" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F177"/>
-      <c r="H177" s="85"/>
+      <c r="H177" s="62"/>
       <c r="I177" s="37"/>
       <c r="J177"/>
       <c r="O177"/>
-      <c r="P177" s="82"/>
+      <c r="P177" s="59"/>
       <c r="Q177"/>
     </row>
     <row r="178" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F178"/>
-      <c r="H178" s="85"/>
+      <c r="H178" s="62"/>
       <c r="I178" s="37"/>
       <c r="J178"/>
       <c r="O178"/>
-      <c r="P178" s="82"/>
+      <c r="P178" s="59"/>
       <c r="Q178"/>
     </row>
     <row r="179" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F179"/>
-      <c r="H179" s="85"/>
+      <c r="H179" s="62"/>
       <c r="I179" s="37"/>
       <c r="J179"/>
       <c r="O179"/>
-      <c r="P179" s="82"/>
+      <c r="P179" s="59"/>
       <c r="Q179"/>
     </row>
     <row r="180" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F180"/>
-      <c r="H180" s="85"/>
+      <c r="H180" s="62"/>
       <c r="I180" s="37"/>
       <c r="J180"/>
       <c r="O180"/>
-      <c r="P180" s="82"/>
+      <c r="P180" s="59"/>
       <c r="Q180"/>
     </row>
     <row r="181" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F181"/>
-      <c r="H181" s="85"/>
+      <c r="H181" s="62"/>
       <c r="I181" s="37"/>
       <c r="J181"/>
       <c r="O181"/>
-      <c r="P181" s="82"/>
+      <c r="P181" s="59"/>
       <c r="Q181"/>
     </row>
     <row r="182" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F182"/>
-      <c r="H182" s="85"/>
+      <c r="H182" s="62"/>
       <c r="I182" s="37"/>
       <c r="J182"/>
       <c r="O182"/>
-      <c r="P182" s="82"/>
+      <c r="P182" s="59"/>
       <c r="Q182"/>
     </row>
     <row r="183" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F183"/>
-      <c r="H183" s="85"/>
+      <c r="H183" s="62"/>
       <c r="I183" s="37"/>
       <c r="J183"/>
       <c r="O183"/>
-      <c r="P183" s="82"/>
+      <c r="P183" s="59"/>
       <c r="Q183"/>
     </row>
     <row r="184" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F184"/>
-      <c r="H184" s="85"/>
+      <c r="H184" s="62"/>
       <c r="I184" s="37"/>
       <c r="J184"/>
       <c r="O184"/>
-      <c r="P184" s="82"/>
+      <c r="P184" s="59"/>
       <c r="Q184"/>
     </row>
     <row r="185" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F185"/>
-      <c r="H185" s="85"/>
+      <c r="H185" s="62"/>
       <c r="I185" s="37"/>
       <c r="J185"/>
       <c r="O185"/>
-      <c r="P185" s="82"/>
+      <c r="P185" s="59"/>
       <c r="Q185"/>
     </row>
     <row r="186" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F186"/>
-      <c r="H186" s="85"/>
+      <c r="H186" s="62"/>
       <c r="I186" s="37"/>
       <c r="J186"/>
       <c r="O186"/>
-      <c r="P186" s="82"/>
+      <c r="P186" s="59"/>
       <c r="Q186"/>
     </row>
     <row r="187" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F187"/>
-      <c r="H187" s="85"/>
+      <c r="H187" s="62"/>
       <c r="I187" s="37"/>
       <c r="J187"/>
       <c r="O187"/>
-      <c r="P187" s="82"/>
+      <c r="P187" s="59"/>
       <c r="Q187"/>
     </row>
     <row r="188" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F188"/>
-      <c r="H188" s="85"/>
+      <c r="H188" s="62"/>
       <c r="I188" s="37"/>
       <c r="J188"/>
       <c r="O188"/>
-      <c r="P188" s="82"/>
+      <c r="P188" s="59"/>
       <c r="Q188"/>
     </row>
     <row r="189" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F189"/>
-      <c r="H189" s="85"/>
+      <c r="H189" s="62"/>
       <c r="I189" s="37"/>
       <c r="J189"/>
       <c r="O189"/>
-      <c r="P189" s="82"/>
+      <c r="P189" s="59"/>
       <c r="Q189"/>
     </row>
     <row r="190" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F190"/>
-      <c r="H190" s="85"/>
+      <c r="H190" s="62"/>
       <c r="I190" s="37"/>
       <c r="J190"/>
       <c r="O190"/>
-      <c r="P190" s="82"/>
+      <c r="P190" s="59"/>
       <c r="Q190"/>
     </row>
     <row r="191" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F191"/>
-      <c r="H191" s="85"/>
+      <c r="H191" s="62"/>
       <c r="I191" s="37"/>
       <c r="J191"/>
       <c r="O191"/>
-      <c r="P191" s="82"/>
+      <c r="P191" s="59"/>
       <c r="Q191"/>
     </row>
     <row r="192" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F192"/>
-      <c r="H192" s="85"/>
+      <c r="H192" s="62"/>
       <c r="I192" s="37"/>
       <c r="J192"/>
       <c r="O192"/>
-      <c r="P192" s="82"/>
+      <c r="P192" s="59"/>
       <c r="Q192"/>
     </row>
     <row r="193" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F193"/>
-      <c r="H193" s="85"/>
+      <c r="H193" s="62"/>
       <c r="I193" s="37"/>
       <c r="J193"/>
       <c r="O193"/>
-      <c r="P193" s="82"/>
+      <c r="P193" s="59"/>
       <c r="Q193"/>
     </row>
     <row r="194" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F194"/>
-      <c r="H194" s="85"/>
+      <c r="H194" s="62"/>
       <c r="I194" s="37"/>
       <c r="J194"/>
       <c r="O194"/>
-      <c r="P194" s="82"/>
+      <c r="P194" s="59"/>
       <c r="Q194"/>
     </row>
     <row r="195" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F195"/>
-      <c r="H195" s="85"/>
+      <c r="H195" s="62"/>
       <c r="I195" s="37"/>
       <c r="J195"/>
       <c r="O195"/>
-      <c r="P195" s="82"/>
+      <c r="P195" s="59"/>
       <c r="Q195"/>
     </row>
     <row r="196" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F196"/>
-      <c r="H196" s="85"/>
+      <c r="H196" s="62"/>
       <c r="I196" s="37"/>
       <c r="J196"/>
       <c r="O196"/>
-      <c r="P196" s="82"/>
+      <c r="P196" s="59"/>
       <c r="Q196"/>
     </row>
     <row r="197" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F197"/>
-      <c r="H197" s="85"/>
+      <c r="H197" s="62"/>
       <c r="I197" s="37"/>
       <c r="J197"/>
       <c r="O197"/>
-      <c r="P197" s="82"/>
+      <c r="P197" s="59"/>
       <c r="Q197"/>
     </row>
     <row r="198" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F198"/>
-      <c r="H198" s="85"/>
+      <c r="H198" s="62"/>
       <c r="I198" s="37"/>
       <c r="J198"/>
       <c r="O198"/>
-      <c r="P198" s="82"/>
+      <c r="P198" s="59"/>
       <c r="Q198"/>
     </row>
     <row r="199" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F199"/>
-      <c r="H199" s="85"/>
+      <c r="H199" s="62"/>
       <c r="I199" s="37"/>
       <c r="J199"/>
       <c r="O199"/>
-      <c r="P199" s="82"/>
+      <c r="P199" s="59"/>
       <c r="Q199"/>
     </row>
     <row r="200" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F200"/>
-      <c r="H200" s="85"/>
+      <c r="H200" s="62"/>
       <c r="I200" s="37"/>
       <c r="J200"/>
       <c r="O200"/>
-      <c r="P200" s="82"/>
+      <c r="P200" s="59"/>
       <c r="Q200"/>
     </row>
     <row r="201" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F201"/>
-      <c r="H201" s="85"/>
+      <c r="H201" s="62"/>
       <c r="I201" s="37"/>
       <c r="J201"/>
       <c r="O201"/>
-      <c r="P201" s="82"/>
+      <c r="P201" s="59"/>
       <c r="Q201"/>
     </row>
     <row r="202" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F202"/>
-      <c r="H202" s="85"/>
+      <c r="H202" s="62"/>
       <c r="I202" s="37"/>
       <c r="J202"/>
       <c r="O202"/>
-      <c r="P202" s="82"/>
+      <c r="P202" s="59"/>
       <c r="Q202"/>
     </row>
     <row r="203" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F203"/>
-      <c r="H203" s="85"/>
+      <c r="H203" s="62"/>
       <c r="I203" s="37"/>
       <c r="J203"/>
       <c r="O203"/>
-      <c r="P203" s="82"/>
+      <c r="P203" s="59"/>
       <c r="Q203"/>
     </row>
     <row r="204" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F204"/>
-      <c r="H204" s="85"/>
+      <c r="H204" s="62"/>
       <c r="I204" s="37"/>
       <c r="J204"/>
       <c r="O204"/>
-      <c r="P204" s="82"/>
+      <c r="P204" s="59"/>
       <c r="Q204"/>
     </row>
     <row r="205" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F205"/>
-      <c r="H205" s="85"/>
+      <c r="H205" s="62"/>
       <c r="I205" s="37"/>
       <c r="J205"/>
       <c r="O205"/>
-      <c r="P205" s="82"/>
+      <c r="P205" s="59"/>
       <c r="Q205"/>
     </row>
     <row r="206" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F206"/>
-      <c r="H206" s="85"/>
+      <c r="H206" s="62"/>
       <c r="I206" s="37"/>
       <c r="J206"/>
       <c r="O206"/>
-      <c r="P206" s="82"/>
+      <c r="P206" s="59"/>
       <c r="Q206"/>
     </row>
     <row r="207" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F207"/>
-      <c r="H207" s="85"/>
+      <c r="H207" s="62"/>
       <c r="I207" s="37"/>
       <c r="J207"/>
       <c r="O207"/>
-      <c r="P207" s="82"/>
+      <c r="P207" s="59"/>
       <c r="Q207"/>
     </row>
     <row r="208" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F208"/>
-      <c r="H208" s="85"/>
+      <c r="H208" s="62"/>
       <c r="I208" s="37"/>
       <c r="J208"/>
       <c r="O208"/>
-      <c r="P208" s="82"/>
+      <c r="P208" s="59"/>
       <c r="Q208"/>
     </row>
     <row r="209" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F209"/>
-      <c r="H209" s="85"/>
+      <c r="H209" s="62"/>
       <c r="I209" s="37"/>
       <c r="J209"/>
       <c r="O209"/>
-      <c r="P209" s="82"/>
+      <c r="P209" s="59"/>
       <c r="Q209"/>
     </row>
     <row r="210" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F210"/>
-      <c r="H210" s="85"/>
+      <c r="H210" s="62"/>
       <c r="I210" s="37"/>
       <c r="J210"/>
       <c r="O210"/>
-      <c r="P210" s="82"/>
+      <c r="P210" s="59"/>
       <c r="Q210"/>
     </row>
     <row r="211" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F211"/>
-      <c r="H211" s="85"/>
+      <c r="H211" s="62"/>
       <c r="I211" s="37"/>
       <c r="J211"/>
       <c r="O211"/>
-      <c r="P211" s="82"/>
+      <c r="P211" s="59"/>
       <c r="Q211"/>
     </row>
     <row r="212" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F212"/>
-      <c r="H212" s="85"/>
+      <c r="H212" s="62"/>
       <c r="I212" s="37"/>
       <c r="J212"/>
       <c r="O212"/>
-      <c r="P212" s="82"/>
+      <c r="P212" s="59"/>
       <c r="Q212"/>
     </row>
     <row r="213" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F213"/>
-      <c r="H213" s="85"/>
+      <c r="H213" s="62"/>
       <c r="I213" s="37"/>
       <c r="J213"/>
       <c r="O213"/>
-      <c r="P213" s="82"/>
+      <c r="P213" s="59"/>
       <c r="Q213"/>
     </row>
     <row r="214" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F214"/>
-      <c r="H214" s="85"/>
+      <c r="H214" s="62"/>
       <c r="I214" s="37"/>
       <c r="J214"/>
       <c r="O214"/>
-      <c r="P214" s="82"/>
+      <c r="P214" s="59"/>
       <c r="Q214"/>
     </row>
     <row r="215" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F215"/>
-      <c r="H215" s="85"/>
+      <c r="H215" s="62"/>
       <c r="I215" s="37"/>
       <c r="J215"/>
       <c r="O215"/>
-      <c r="P215" s="82"/>
+      <c r="P215" s="59"/>
       <c r="Q215"/>
     </row>
     <row r="216" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F216"/>
-      <c r="H216" s="85"/>
+      <c r="H216" s="62"/>
       <c r="I216" s="37"/>
       <c r="J216"/>
       <c r="O216"/>
-      <c r="P216" s="82"/>
+      <c r="P216" s="59"/>
       <c r="Q216"/>
     </row>
     <row r="217" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F217"/>
-      <c r="H217" s="85"/>
+      <c r="H217" s="62"/>
       <c r="I217" s="37"/>
       <c r="J217"/>
       <c r="O217"/>
-      <c r="P217" s="82"/>
+      <c r="P217" s="59"/>
       <c r="Q217"/>
     </row>
     <row r="218" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F218"/>
-      <c r="H218" s="85"/>
+      <c r="H218" s="62"/>
       <c r="I218" s="37"/>
       <c r="J218"/>
       <c r="O218"/>
-      <c r="P218" s="82"/>
+      <c r="P218" s="59"/>
       <c r="Q218"/>
     </row>
     <row r="219" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F219"/>
-      <c r="H219" s="85"/>
+      <c r="H219" s="62"/>
       <c r="I219" s="37"/>
       <c r="J219"/>
       <c r="O219"/>
-      <c r="P219" s="82"/>
+      <c r="P219" s="59"/>
       <c r="Q219"/>
     </row>
     <row r="220" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F220"/>
-      <c r="H220" s="85"/>
+      <c r="H220" s="62"/>
       <c r="I220" s="37"/>
       <c r="J220"/>
       <c r="O220"/>
-      <c r="P220" s="82"/>
+      <c r="P220" s="59"/>
       <c r="Q220"/>
     </row>
     <row r="221" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F221"/>
-      <c r="H221" s="85"/>
+      <c r="H221" s="62"/>
       <c r="I221" s="37"/>
       <c r="J221"/>
       <c r="O221"/>
-      <c r="P221" s="82"/>
+      <c r="P221" s="59"/>
       <c r="Q221"/>
     </row>
     <row r="222" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F222"/>
-      <c r="H222" s="85"/>
+      <c r="H222" s="62"/>
       <c r="I222" s="37"/>
       <c r="J222"/>
       <c r="O222"/>
-      <c r="P222" s="82"/>
+      <c r="P222" s="59"/>
       <c r="Q222"/>
     </row>
     <row r="223" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F223"/>
-      <c r="H223" s="85"/>
+      <c r="H223" s="62"/>
       <c r="I223" s="37"/>
       <c r="J223"/>
       <c r="O223"/>
-      <c r="P223" s="82"/>
+      <c r="P223" s="59"/>
       <c r="Q223"/>
     </row>
     <row r="224" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F224"/>
-      <c r="H224" s="85"/>
+      <c r="H224" s="62"/>
       <c r="I224" s="37"/>
       <c r="J224"/>
       <c r="O224"/>
-      <c r="P224" s="82"/>
+      <c r="P224" s="59"/>
       <c r="Q224"/>
     </row>
     <row r="225" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F225"/>
-      <c r="H225" s="85"/>
+      <c r="H225" s="62"/>
       <c r="I225" s="37"/>
       <c r="J225"/>
       <c r="O225"/>
-      <c r="P225" s="82"/>
+      <c r="P225" s="59"/>
       <c r="Q225"/>
     </row>
     <row r="226" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F226"/>
-      <c r="H226" s="85"/>
+      <c r="H226" s="62"/>
       <c r="I226" s="37"/>
       <c r="J226"/>
       <c r="O226"/>
-      <c r="P226" s="82"/>
+      <c r="P226" s="59"/>
       <c r="Q226"/>
     </row>
     <row r="227" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F227"/>
-      <c r="H227" s="85"/>
+      <c r="H227" s="62"/>
       <c r="I227" s="37"/>
       <c r="J227"/>
       <c r="O227"/>
-      <c r="P227" s="82"/>
+      <c r="P227" s="59"/>
       <c r="Q227"/>
     </row>
     <row r="228" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F228"/>
-      <c r="H228" s="85"/>
+      <c r="H228" s="62"/>
       <c r="I228" s="37"/>
       <c r="J228"/>
       <c r="O228"/>
-      <c r="P228" s="82"/>
+      <c r="P228" s="59"/>
       <c r="Q228"/>
     </row>
     <row r="229" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F229"/>
-      <c r="H229" s="85"/>
+      <c r="H229" s="62"/>
       <c r="I229" s="37"/>
       <c r="J229"/>
       <c r="O229"/>
-      <c r="P229" s="82"/>
+      <c r="P229" s="59"/>
       <c r="Q229"/>
     </row>
     <row r="230" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F230"/>
-      <c r="H230" s="85"/>
+      <c r="H230" s="62"/>
       <c r="I230" s="37"/>
       <c r="J230"/>
       <c r="O230"/>
-      <c r="P230" s="82"/>
+      <c r="P230" s="59"/>
       <c r="Q230"/>
     </row>
     <row r="231" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F231"/>
-      <c r="H231" s="85"/>
+      <c r="H231" s="62"/>
       <c r="I231" s="37"/>
       <c r="J231"/>
       <c r="O231"/>
-      <c r="P231" s="82"/>
+      <c r="P231" s="59"/>
       <c r="Q231"/>
     </row>
     <row r="232" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F232"/>
-      <c r="H232" s="85"/>
+      <c r="H232" s="62"/>
       <c r="I232" s="37"/>
       <c r="J232"/>
       <c r="O232"/>
-      <c r="P232" s="82"/>
+      <c r="P232" s="59"/>
       <c r="Q232"/>
     </row>
     <row r="233" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F233"/>
-      <c r="H233" s="85"/>
+      <c r="H233" s="62"/>
       <c r="I233" s="37"/>
       <c r="J233"/>
       <c r="O233"/>
-      <c r="P233" s="82"/>
+      <c r="P233" s="59"/>
       <c r="Q233"/>
     </row>
     <row r="234" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F234"/>
-      <c r="H234" s="85"/>
+      <c r="H234" s="62"/>
       <c r="I234" s="37"/>
       <c r="J234"/>
       <c r="O234"/>
-      <c r="P234" s="82"/>
+      <c r="P234" s="59"/>
       <c r="Q234"/>
     </row>
     <row r="235" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F235"/>
-      <c r="H235" s="85"/>
+      <c r="H235" s="62"/>
       <c r="I235" s="37"/>
       <c r="J235"/>
       <c r="O235"/>
-      <c r="P235" s="82"/>
+      <c r="P235" s="59"/>
       <c r="Q235"/>
     </row>
     <row r="236" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F236"/>
-      <c r="H236" s="85"/>
+      <c r="H236" s="62"/>
       <c r="I236" s="37"/>
       <c r="J236"/>
       <c r="O236"/>
-      <c r="P236" s="82"/>
+      <c r="P236" s="59"/>
       <c r="Q236"/>
     </row>
     <row r="237" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F237"/>
-      <c r="H237" s="85"/>
+      <c r="H237" s="62"/>
       <c r="I237" s="37"/>
       <c r="J237"/>
       <c r="O237"/>
-      <c r="P237" s="82"/>
+      <c r="P237" s="59"/>
       <c r="Q237"/>
     </row>
     <row r="238" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F238"/>
-      <c r="H238" s="85"/>
+      <c r="H238" s="62"/>
       <c r="I238" s="37"/>
       <c r="J238"/>
       <c r="O238"/>
-      <c r="P238" s="82"/>
+      <c r="P238" s="59"/>
       <c r="Q238"/>
     </row>
     <row r="239" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F239"/>
-      <c r="H239" s="85"/>
+      <c r="H239" s="62"/>
       <c r="I239" s="37"/>
       <c r="J239"/>
       <c r="O239"/>
-      <c r="P239" s="82"/>
+      <c r="P239" s="59"/>
       <c r="Q239"/>
     </row>
     <row r="240" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F240"/>
-      <c r="H240" s="85"/>
+      <c r="H240" s="62"/>
       <c r="I240" s="37"/>
       <c r="J240"/>
       <c r="O240"/>
-      <c r="P240" s="82"/>
+      <c r="P240" s="59"/>
       <c r="Q240"/>
     </row>
     <row r="241" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F241"/>
-      <c r="H241" s="85"/>
+      <c r="H241" s="62"/>
       <c r="I241" s="37"/>
       <c r="J241"/>
       <c r="O241"/>
-      <c r="P241" s="82"/>
+      <c r="P241" s="59"/>
       <c r="Q241"/>
     </row>
     <row r="242" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F242"/>
-      <c r="H242" s="85"/>
+      <c r="H242" s="62"/>
       <c r="I242" s="37"/>
       <c r="J242"/>
       <c r="O242"/>
-      <c r="P242" s="82"/>
+      <c r="P242" s="59"/>
       <c r="Q242"/>
     </row>
     <row r="243" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F243"/>
-      <c r="H243" s="85"/>
+      <c r="H243" s="62"/>
       <c r="I243" s="37"/>
       <c r="J243"/>
       <c r="O243"/>
-      <c r="P243" s="82"/>
+      <c r="P243" s="59"/>
       <c r="Q243"/>
     </row>
     <row r="244" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F244"/>
-      <c r="H244" s="85"/>
+      <c r="H244" s="62"/>
       <c r="I244" s="37"/>
       <c r="J244"/>
       <c r="O244"/>
-      <c r="P244" s="82"/>
+      <c r="P244" s="59"/>
       <c r="Q244"/>
     </row>
     <row r="245" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F245"/>
-      <c r="H245" s="85"/>
+      <c r="H245" s="62"/>
       <c r="I245" s="37"/>
       <c r="J245"/>
       <c r="O245"/>
-      <c r="P245" s="82"/>
+      <c r="P245" s="59"/>
       <c r="Q245"/>
     </row>
     <row r="246" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F246"/>
-      <c r="H246" s="85"/>
+      <c r="H246" s="62"/>
       <c r="I246" s="37"/>
       <c r="J246"/>
       <c r="O246"/>
-      <c r="P246" s="82"/>
+      <c r="P246" s="59"/>
       <c r="Q246"/>
     </row>
     <row r="247" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F247"/>
-      <c r="H247" s="85"/>
+      <c r="H247" s="62"/>
       <c r="I247" s="37"/>
       <c r="J247"/>
       <c r="O247"/>
-      <c r="P247" s="82"/>
+      <c r="P247" s="59"/>
       <c r="Q247"/>
     </row>
     <row r="248" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F248"/>
-      <c r="H248" s="85"/>
+      <c r="H248" s="62"/>
       <c r="I248" s="37"/>
       <c r="J248"/>
       <c r="O248"/>
-      <c r="P248" s="82"/>
+      <c r="P248" s="59"/>
       <c r="Q248"/>
     </row>
     <row r="249" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F249"/>
-      <c r="H249" s="85"/>
+      <c r="H249" s="62"/>
       <c r="I249" s="37"/>
       <c r="J249"/>
       <c r="O249"/>
-      <c r="P249" s="82"/>
+      <c r="P249" s="59"/>
       <c r="Q249"/>
     </row>
     <row r="250" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F250"/>
-      <c r="H250" s="85"/>
+      <c r="H250" s="62"/>
       <c r="I250" s="37"/>
       <c r="J250"/>
       <c r="O250"/>
-      <c r="P250" s="82"/>
+      <c r="P250" s="59"/>
       <c r="Q250"/>
     </row>
     <row r="251" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F251"/>
-      <c r="H251" s="85"/>
+      <c r="H251" s="62"/>
       <c r="I251" s="37"/>
       <c r="J251"/>
       <c r="O251"/>
-      <c r="P251" s="82"/>
+      <c r="P251" s="59"/>
       <c r="Q251"/>
     </row>
     <row r="252" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F252"/>
-      <c r="H252" s="85"/>
+      <c r="H252" s="62"/>
       <c r="I252" s="37"/>
       <c r="J252"/>
       <c r="O252"/>
-      <c r="P252" s="82"/>
+      <c r="P252" s="59"/>
       <c r="Q252"/>
     </row>
     <row r="253" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F253"/>
-      <c r="H253" s="85"/>
+      <c r="H253" s="62"/>
       <c r="I253" s="37"/>
       <c r="J253"/>
       <c r="O253"/>
-      <c r="P253" s="82"/>
+      <c r="P253" s="59"/>
       <c r="Q253"/>
     </row>
     <row r="254" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F254"/>
-      <c r="H254" s="85"/>
+      <c r="H254" s="62"/>
       <c r="I254" s="37"/>
       <c r="J254"/>
       <c r="O254"/>
-      <c r="P254" s="82"/>
+      <c r="P254" s="59"/>
       <c r="Q254"/>
     </row>
     <row r="255" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F255"/>
-      <c r="H255" s="85"/>
+      <c r="H255" s="62"/>
       <c r="I255" s="37"/>
       <c r="J255"/>
       <c r="O255"/>
-      <c r="P255" s="82"/>
+      <c r="P255" s="59"/>
       <c r="Q255"/>
     </row>
     <row r="256" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F256"/>
-      <c r="H256" s="85"/>
+      <c r="H256" s="62"/>
       <c r="I256" s="37"/>
       <c r="J256"/>
       <c r="O256"/>
-      <c r="P256" s="82"/>
+      <c r="P256" s="59"/>
       <c r="Q256"/>
     </row>
     <row r="257" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F257"/>
-      <c r="H257" s="85"/>
+      <c r="H257" s="62"/>
       <c r="I257" s="37"/>
       <c r="J257"/>
       <c r="O257"/>
-      <c r="P257" s="82"/>
+      <c r="P257" s="59"/>
       <c r="Q257"/>
     </row>
     <row r="258" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F258"/>
-      <c r="H258" s="85"/>
+      <c r="H258" s="62"/>
       <c r="I258" s="37"/>
       <c r="J258"/>
       <c r="O258"/>
-      <c r="P258" s="82"/>
+      <c r="P258" s="59"/>
       <c r="Q258"/>
     </row>
     <row r="259" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F259"/>
-      <c r="H259" s="85"/>
+      <c r="H259" s="62"/>
       <c r="I259" s="37"/>
       <c r="J259"/>
       <c r="O259"/>
-      <c r="P259" s="82"/>
+      <c r="P259" s="59"/>
       <c r="Q259"/>
     </row>
     <row r="260" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F260"/>
-      <c r="H260" s="85"/>
+      <c r="H260" s="62"/>
       <c r="I260" s="37"/>
       <c r="J260"/>
       <c r="O260"/>
-      <c r="P260" s="82"/>
+      <c r="P260" s="59"/>
       <c r="Q260"/>
     </row>
     <row r="261" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F261"/>
-      <c r="H261" s="85"/>
+      <c r="H261" s="62"/>
       <c r="I261" s="37"/>
       <c r="J261"/>
       <c r="O261"/>
-      <c r="P261" s="82"/>
+      <c r="P261" s="59"/>
       <c r="Q261"/>
     </row>
     <row r="262" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F262"/>
-      <c r="H262" s="85"/>
+      <c r="H262" s="62"/>
       <c r="I262" s="37"/>
       <c r="J262"/>
       <c r="O262"/>
-      <c r="P262" s="82"/>
+      <c r="P262" s="59"/>
       <c r="Q262"/>
     </row>
     <row r="263" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F263"/>
-      <c r="H263" s="85"/>
+      <c r="H263" s="62"/>
       <c r="I263" s="37"/>
       <c r="J263"/>
       <c r="O263"/>
-      <c r="P263" s="82"/>
+      <c r="P263" s="59"/>
       <c r="Q263"/>
     </row>
     <row r="264" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F264"/>
-      <c r="H264" s="85"/>
+      <c r="H264" s="62"/>
       <c r="I264" s="37"/>
       <c r="J264"/>
       <c r="O264"/>
-      <c r="P264" s="82"/>
+      <c r="P264" s="59"/>
       <c r="Q264"/>
     </row>
     <row r="265" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F265"/>
-      <c r="H265" s="85"/>
+      <c r="H265" s="62"/>
       <c r="I265" s="37"/>
       <c r="J265"/>
       <c r="O265"/>
-      <c r="P265" s="82"/>
+      <c r="P265" s="59"/>
       <c r="Q265"/>
     </row>
     <row r="266" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F266"/>
-      <c r="H266" s="85"/>
+      <c r="H266" s="62"/>
       <c r="I266" s="37"/>
       <c r="J266"/>
       <c r="O266"/>
-      <c r="P266" s="82"/>
+      <c r="P266" s="59"/>
       <c r="Q266"/>
     </row>
     <row r="267" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F267"/>
-      <c r="H267" s="85"/>
+      <c r="H267" s="62"/>
       <c r="I267" s="37"/>
       <c r="J267"/>
       <c r="O267"/>
-      <c r="P267" s="82"/>
+      <c r="P267" s="59"/>
       <c r="Q267"/>
     </row>
     <row r="268" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F268"/>
-      <c r="H268" s="85"/>
+      <c r="H268" s="62"/>
       <c r="I268" s="37"/>
       <c r="J268"/>
       <c r="O268"/>
-      <c r="P268" s="82"/>
+      <c r="P268" s="59"/>
       <c r="Q268"/>
     </row>
     <row r="269" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F269"/>
-      <c r="H269" s="85"/>
+      <c r="H269" s="62"/>
       <c r="I269" s="37"/>
       <c r="J269"/>
       <c r="O269"/>
-      <c r="P269" s="82"/>
+      <c r="P269" s="59"/>
       <c r="Q269"/>
     </row>
     <row r="270" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F270"/>
-      <c r="H270" s="85"/>
+      <c r="H270" s="62"/>
       <c r="I270" s="37"/>
       <c r="J270"/>
       <c r="O270"/>
-      <c r="P270" s="82"/>
+      <c r="P270" s="59"/>
       <c r="Q270"/>
     </row>
     <row r="271" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F271"/>
-      <c r="H271" s="85"/>
+      <c r="H271" s="62"/>
       <c r="I271" s="37"/>
       <c r="J271"/>
       <c r="O271"/>
-      <c r="P271" s="82"/>
+      <c r="P271" s="59"/>
       <c r="Q271"/>
     </row>
     <row r="272" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F272"/>
-      <c r="H272" s="85"/>
+      <c r="H272" s="62"/>
       <c r="I272" s="37"/>
       <c r="J272"/>
       <c r="O272"/>
-      <c r="P272" s="82"/>
+      <c r="P272" s="59"/>
       <c r="Q272"/>
     </row>
     <row r="273" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F273"/>
-      <c r="H273" s="85"/>
+      <c r="H273" s="62"/>
       <c r="I273" s="37"/>
       <c r="J273"/>
       <c r="O273"/>
-      <c r="P273" s="82"/>
+      <c r="P273" s="59"/>
       <c r="Q273"/>
     </row>
     <row r="274" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F274"/>
-      <c r="H274" s="85"/>
+      <c r="H274" s="62"/>
       <c r="I274" s="37"/>
       <c r="J274"/>
       <c r="O274"/>
-      <c r="P274" s="82"/>
+      <c r="P274" s="59"/>
       <c r="Q274"/>
     </row>
     <row r="275" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F275"/>
-      <c r="H275" s="85"/>
+      <c r="H275" s="62"/>
       <c r="I275" s="37"/>
       <c r="J275"/>
       <c r="O275"/>
-      <c r="P275" s="82"/>
+      <c r="P275" s="59"/>
       <c r="Q275"/>
     </row>
     <row r="276" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F276"/>
-      <c r="H276" s="85"/>
+      <c r="H276" s="62"/>
       <c r="I276" s="37"/>
       <c r="J276"/>
       <c r="O276"/>
-      <c r="P276" s="82"/>
+      <c r="P276" s="59"/>
       <c r="Q276"/>
     </row>
     <row r="277" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F277"/>
-      <c r="H277" s="85"/>
+      <c r="H277" s="62"/>
       <c r="I277" s="37"/>
       <c r="J277"/>
       <c r="O277"/>
-      <c r="P277" s="82"/>
+      <c r="P277" s="59"/>
       <c r="Q277"/>
     </row>
     <row r="278" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F278"/>
-      <c r="H278" s="85"/>
+      <c r="H278" s="62"/>
       <c r="I278" s="37"/>
       <c r="J278"/>
       <c r="O278"/>
-      <c r="P278" s="82"/>
+      <c r="P278" s="59"/>
       <c r="Q278"/>
     </row>
     <row r="279" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F279"/>
-      <c r="H279" s="85"/>
+      <c r="H279" s="62"/>
       <c r="I279" s="37"/>
       <c r="J279"/>
       <c r="O279"/>
-      <c r="P279" s="82"/>
+      <c r="P279" s="59"/>
       <c r="Q279"/>
     </row>
     <row r="280" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F280"/>
-      <c r="H280" s="85"/>
+      <c r="H280" s="62"/>
       <c r="I280" s="37"/>
       <c r="J280"/>
       <c r="O280"/>
-      <c r="P280" s="82"/>
+      <c r="P280" s="59"/>
       <c r="Q280"/>
     </row>
     <row r="281" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F281"/>
-      <c r="H281" s="85"/>
+      <c r="H281" s="62"/>
       <c r="I281" s="37"/>
       <c r="J281"/>
       <c r="O281"/>
-      <c r="P281" s="82"/>
+      <c r="P281" s="59"/>
       <c r="Q281"/>
     </row>
     <row r="282" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F282"/>
-      <c r="H282" s="85"/>
+      <c r="H282" s="62"/>
       <c r="I282" s="37"/>
       <c r="J282"/>
       <c r="O282"/>
-      <c r="P282" s="82"/>
+      <c r="P282" s="59"/>
       <c r="Q282"/>
     </row>
     <row r="283" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F283"/>
-      <c r="H283" s="85"/>
+      <c r="H283" s="62"/>
       <c r="I283" s="37"/>
       <c r="J283"/>
       <c r="O283"/>
-      <c r="P283" s="82"/>
+      <c r="P283" s="59"/>
       <c r="Q283"/>
     </row>
     <row r="284" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F284"/>
-      <c r="H284" s="85"/>
+      <c r="H284" s="62"/>
       <c r="I284" s="37"/>
       <c r="J284"/>
       <c r="O284"/>
-      <c r="P284" s="82"/>
+      <c r="P284" s="59"/>
       <c r="Q284"/>
     </row>
     <row r="285" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F285"/>
-      <c r="H285" s="85"/>
+      <c r="H285" s="62"/>
       <c r="I285" s="37"/>
       <c r="J285"/>
       <c r="O285"/>
-      <c r="P285" s="82"/>
+      <c r="P285" s="59"/>
       <c r="Q285"/>
     </row>
     <row r="286" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F286"/>
-      <c r="H286" s="85"/>
+      <c r="H286" s="62"/>
       <c r="I286" s="37"/>
       <c r="J286"/>
       <c r="O286"/>
-      <c r="P286" s="82"/>
+      <c r="P286" s="59"/>
       <c r="Q286"/>
     </row>
     <row r="287" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F287"/>
-      <c r="H287" s="85"/>
+      <c r="H287" s="62"/>
       <c r="I287" s="37"/>
       <c r="J287"/>
       <c r="O287"/>
-      <c r="P287" s="82"/>
+      <c r="P287" s="59"/>
       <c r="Q287"/>
     </row>
     <row r="288" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F288"/>
-      <c r="H288" s="85"/>
+      <c r="H288" s="62"/>
       <c r="I288" s="37"/>
       <c r="J288"/>
       <c r="O288"/>
-      <c r="P288" s="82"/>
+      <c r="P288" s="59"/>
       <c r="Q288"/>
     </row>
     <row r="289" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F289"/>
-      <c r="H289" s="85"/>
+      <c r="H289" s="62"/>
       <c r="I289" s="37"/>
       <c r="J289"/>
       <c r="O289"/>
-      <c r="P289" s="82"/>
+      <c r="P289" s="59"/>
       <c r="Q289"/>
     </row>
     <row r="290" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F290"/>
-      <c r="H290" s="85"/>
+      <c r="H290" s="62"/>
       <c r="I290" s="37"/>
       <c r="J290"/>
       <c r="O290"/>
-      <c r="P290" s="82"/>
+      <c r="P290" s="59"/>
       <c r="Q290"/>
     </row>
   </sheetData>
@@ -6462,6 +6462,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -6476,12 +6482,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion04/Escaleta_LE_08_04_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion04/Escaleta_LE_08_04_CO.xlsx
@@ -868,10 +868,10 @@
 cultural de las obras, para ampliar el análisis y la evaluación del texto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Favor remitirse al documento Instrucciones para autores sobre elaboración de recursos F. Reestructurar el recurso, utilizar el video del recurso de Aula Planeta titulado La comunicación oral y escrita. La idea es que los estudiantes practiquen las reglas del diálogo. </t>
-  </si>
-  <si>
     <t>Recurso F12-01</t>
+  </si>
+  <si>
+    <t>Favor remitirse al documento Instrucciones para autores sobre elaboración de recursos F. Reestructurar el recurso, utilizar el video del recurso de Aula Planeta titulado La comunicación oral y escrita. La idea es que los estudiantes practiquen las reglas del diálogo apartir de la observación del video y del planteamineto de preguntas guía. O revisar el recurso titulado Comprensión oral: el diálogo que también trae un diálogo.</t>
   </si>
 </sst>
 </file>
@@ -1265,16 +1265,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1314,24 +1332,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1640,9 +1640,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1671,94 +1671,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="12" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="J1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="78" t="s">
+      <c r="K1" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="76" t="s">
+      <c r="L1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="82" t="s">
+      <c r="M1" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="82"/>
-      <c r="O1" s="70" t="s">
+      <c r="N1" s="88"/>
+      <c r="O1" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="70" t="s">
+      <c r="P1" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="85" t="s">
+      <c r="Q1" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="89" t="s">
+      <c r="R1" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="85" t="s">
+      <c r="S1" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="87" t="s">
+      <c r="T1" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="U1" s="85" t="s">
+      <c r="U1" s="70" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="77"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="83"/>
       <c r="M2" s="13" t="s">
         <v>71</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="86"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="71"/>
     </row>
     <row r="3" spans="1:21" ht="141" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="V20" s="22"/>
     </row>
-    <row r="21" spans="1:22" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="N21" s="65"/>
       <c r="O21" s="28" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P21" s="58" t="s">
         <v>19</v>
@@ -2906,7 +2906,7 @@
         <v>162</v>
       </c>
       <c r="T21" s="32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U21" s="30" t="s">
         <v>164</v>
@@ -6462,12 +6462,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -6482,6 +6476,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion04/Escaleta_LE_08_04_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion04/Escaleta_LE_08_04_CO.xlsx
@@ -1265,34 +1265,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1332,6 +1314,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1640,9 +1640,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1671,94 +1671,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="12" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="J1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="84" t="s">
+      <c r="K1" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="82" t="s">
+      <c r="L1" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="88" t="s">
+      <c r="M1" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="88"/>
-      <c r="O1" s="68" t="s">
+      <c r="N1" s="82"/>
+      <c r="O1" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="68" t="s">
+      <c r="P1" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="70" t="s">
+      <c r="Q1" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="74" t="s">
+      <c r="R1" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="70" t="s">
+      <c r="S1" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="72" t="s">
+      <c r="T1" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="U1" s="70" t="s">
+      <c r="U1" s="85" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="83"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="77"/>
       <c r="M2" s="13" t="s">
         <v>71</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="86"/>
     </row>
     <row r="3" spans="1:21" ht="141" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -6462,6 +6462,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -6476,12 +6482,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion04/Escaleta_LE_08_04_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion04/Escaleta_LE_08_04_CO.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\Lenguaje\fuentes\contenidos\grado08\guion04\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7080"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525" iterateCount="2" iterateDelta="10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="285">
   <si>
     <t>Asignatura</t>
   </si>
@@ -872,6 +867,15 @@
   </si>
   <si>
     <t>Favor remitirse al documento Instrucciones para autores sobre elaboración de recursos F. Reestructurar el recurso, utilizar el video del recurso de Aula Planeta titulado La comunicación oral y escrita. La idea es que los estudiantes practiquen las reglas del diálogo apartir de la observación del video y del planteamineto de preguntas guía. O revisar el recurso titulado Comprensión oral: el diálogo que también trae un diálogo.</t>
+  </si>
+  <si>
+    <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>M101ap</t>
+  </si>
+  <si>
+    <t>m4A</t>
   </si>
 </sst>
 </file>
@@ -1265,16 +1269,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1314,24 +1336,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1394,7 +1398,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1429,7 +1433,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1640,9 +1644,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,7 +1664,7 @@
     <col min="11" max="11" width="13.28515625" style="37" customWidth="1"/>
     <col min="12" max="12" width="22.5703125" style="37" customWidth="1"/>
     <col min="13" max="14" width="12" style="67" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="29" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="60" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
@@ -1671,94 +1675,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="12" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="J1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="78" t="s">
+      <c r="K1" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="76" t="s">
+      <c r="L1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="82" t="s">
+      <c r="M1" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="82"/>
-      <c r="O1" s="70" t="s">
+      <c r="N1" s="88"/>
+      <c r="O1" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="70" t="s">
+      <c r="P1" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="85" t="s">
+      <c r="Q1" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="89" t="s">
+      <c r="R1" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="85" t="s">
+      <c r="S1" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="87" t="s">
+      <c r="T1" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="U1" s="85" t="s">
+      <c r="U1" s="70" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="77"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="83"/>
       <c r="M2" s="13" t="s">
         <v>71</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="86"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="71"/>
     </row>
     <row r="3" spans="1:21" ht="141" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -4187,18 +4191,30 @@
       </c>
       <c r="L43" s="42"/>
       <c r="M43" s="65"/>
-      <c r="N43" s="65"/>
+      <c r="N43" s="65" t="s">
+        <v>284</v>
+      </c>
       <c r="O43" s="28" t="s">
         <v>224</v>
       </c>
       <c r="P43" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="32"/>
-      <c r="U43" s="30"/>
+      <c r="Q43" s="30">
+        <v>6</v>
+      </c>
+      <c r="R43" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="S43" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="T43" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U43" s="30" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="44" spans="1:21" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -4230,18 +4246,30 @@
       </c>
       <c r="L44" s="42"/>
       <c r="M44" s="65"/>
-      <c r="N44" s="65"/>
+      <c r="N44" s="65" t="s">
+        <v>283</v>
+      </c>
       <c r="O44" s="28" t="s">
         <v>225</v>
       </c>
       <c r="P44" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="32"/>
-      <c r="U44" s="30"/>
+      <c r="Q44" s="30">
+        <v>6</v>
+      </c>
+      <c r="R44" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="S44" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="T44" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="U44" s="30" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F45"/>
@@ -6462,12 +6490,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -6482,6 +6504,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion04/Escaleta_LE_08_04_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion04/Escaleta_LE_08_04_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AULA PLANETA\PROCESO JUNIO 2015\GRADO OCTAVO\LE_08_04_CO\PROCESO Y CONTROL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7080"/>
   </bookViews>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="287">
   <si>
     <t>Asignatura</t>
   </si>
@@ -387,9 +392,6 @@
     <t>LC_07_02</t>
   </si>
   <si>
-    <t>Interactivo que presenta los tipos de diálogos y sus características</t>
-  </si>
-  <si>
     <t>Comprende qué es y qué características tiene un diálogo</t>
   </si>
   <si>
@@ -405,87 +407,30 @@
     <t>LC_08_13</t>
   </si>
   <si>
-    <t>Lectura- expresión oral: Practica un diálogo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lectura-ética de la comunicación:Identifica la variedad geográfica </t>
-  </si>
-  <si>
-    <t>Lectura-comprensión textual: Reconoce las características del Modernismo</t>
-  </si>
-  <si>
-    <t>Actividad para inferir las características del Modernismo</t>
-  </si>
-  <si>
     <t>Actividad para completar la secuencia de un diálogo</t>
   </si>
   <si>
     <t>Se expone un diálogo entre dos autores Modernistas, con el fin que los estudiantes ordenen las ideas del diálogo.</t>
   </si>
   <si>
-    <t>Lectura-comprensión textual: Distingue los tipos de textos</t>
-  </si>
-  <si>
-    <t>Actividad que permite distinguir los tipos de textos desarrollados durante el Modernismo</t>
-  </si>
-  <si>
     <t>Se exponen cinco audios de textos literarios de diferente género para que los relacionen con el género correspondiente.</t>
   </si>
   <si>
-    <t>Actividad para identificar las variedades geográficas  a partir de contextos</t>
-  </si>
-  <si>
-    <t>Organiza un diálogo</t>
-  </si>
-  <si>
-    <t>Actividad para ordenar un diálogo con sentido</t>
-  </si>
-  <si>
     <t>Compón un diálogo</t>
   </si>
   <si>
     <t>Antología de la poesía modernista</t>
   </si>
   <si>
-    <t>Actividad para analizar fragmentos literarios</t>
-  </si>
-  <si>
     <t>El contexto histórico del Modernismo</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Reconocer las características del Modernismo en Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para afianzar las características del Modernimo en Colombia </t>
-  </si>
-  <si>
-    <t>Comparar contextos sociales</t>
-  </si>
-  <si>
-    <t>Actividad para relacionar y comparar contextos sociales en Latinoamérica</t>
-  </si>
-  <si>
-    <t>Actividad para completar un texto relacionado con el desarrollo del contexto cultural del Modernismo en Colombia</t>
-  </si>
-  <si>
-    <t>Determina el contexto social del Modernismo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se selecciona un texto argumentativo  relacionado con el desarrollo del contexto cultural  del Modernimo en Colombia. </t>
   </si>
   <si>
     <t>Los gentilicios</t>
   </si>
   <si>
-    <t>Reconoce características de la variedad diatópica de la costa pacífica</t>
-  </si>
-  <si>
-    <t>Identifica la región de donde procede el hablante</t>
-  </si>
-  <si>
-    <t>Actividad que permite afianzar el reconocimiento de algunas de las variedades diatópicas del español</t>
-  </si>
-  <si>
     <t>Recurso M5D-01</t>
   </si>
   <si>
@@ -540,54 +485,24 @@
     <t>Expone la definición y las características de los gentilicios, se acompaña de imágenes que permitan realizar inferencias en la construcción de los gentilicios.</t>
   </si>
   <si>
-    <t xml:space="preserve">Relaciona los gentilicios </t>
-  </si>
-  <si>
-    <t>Actividad para relacionar los gentilicios con la región  de donde procede</t>
-  </si>
-  <si>
     <t>Descubre los gentilicios</t>
   </si>
   <si>
     <t>Se realiza un juego de ahorcado con mínimo ocho gentilicios (de diferentes países).</t>
   </si>
   <si>
-    <t>Deduce los gentilicios</t>
-  </si>
-  <si>
-    <t>Actividad para analizar e interpretar preguntas que guían la deducción de gentilicios</t>
-  </si>
-  <si>
     <t xml:space="preserve">Seis preguntas que direccionene la respuesta de gentilicios a partir de la deducción e interpretación. </t>
   </si>
   <si>
-    <t>Reconoce las características de la narrativa modernista</t>
-  </si>
-  <si>
-    <t>Actividad para deducir las características de la narrativa en Colombia</t>
-  </si>
-  <si>
     <t>Tres audios de fragmentos narrativos, y N etiquetas de ideas relacionadas con el audio, que sinteticen o evidencien características modernistas.</t>
   </si>
   <si>
-    <t xml:space="preserve">Interpreta textos poéticos modernistas </t>
-  </si>
-  <si>
-    <t>Interpreta diferentes situaciones de diálogo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad que permite interpretar situaciones de diálogo cotidianas </t>
-  </si>
-  <si>
     <t xml:space="preserve">Se contextualiza cuatro situaciones para que a partir de ellas los estudiantes elaboren los diálogos. </t>
   </si>
   <si>
     <t>El diálogo en la cotidianidad</t>
   </si>
   <si>
-    <t>Actividad para  afianzar las reglas y el propósito en un diálogo oral</t>
-  </si>
-  <si>
     <t xml:space="preserve">Revisar el uso del vocabulario y el lenguaje. Cambiar las palabras en caso de no ser pertinentes. </t>
   </si>
   <si>
@@ -597,102 +512,39 @@
     <t>Se exponen imágenes que ilustren la música colombiana y se acompaña de ideas o comentarios relacionados que ayuden a los estudiantes a reconocer sus raices musicales.</t>
   </si>
   <si>
-    <t>Identifica las características de la música colombiana</t>
-  </si>
-  <si>
-    <t>Actividad para reconocer las vertientes musicales y sus respectivas características</t>
-  </si>
-  <si>
     <t>La música en las regiones colombianas</t>
   </si>
   <si>
     <t>Se exponen cinco vertientes músicales y sus definiciones o características.</t>
   </si>
   <si>
-    <t>Interactivo que expone las regiones de Colombia y las principales características músicales</t>
-  </si>
-  <si>
-    <t>Actividad para afianzar los conocimientos en torno al desarrollo músical en Colombia</t>
-  </si>
-  <si>
-    <t>Identifica la música tradicional y sus representantes</t>
-  </si>
-  <si>
-    <t>Actividad para identificar los representantes de la música tradicional en Colombia</t>
-  </si>
-  <si>
     <t>Se exponen algunos representantes de la música tradicional colombiana como: Gentil Montaña, Toto, los gaiteros de San Jacinto… y etiquetas con versos o frases de las canciones tradicionales interpretadas por ellos.</t>
   </si>
   <si>
-    <t>Actividad para interpretar y argumentar situaciones culturales de la música en Colombia</t>
-  </si>
-  <si>
     <t>Seis preguntas que invite a los estudiantes a interpretar y analizar las situaciones de la música tradicional en Colombia.</t>
   </si>
   <si>
-    <t>Determina la variedad diatópica o geográfica de la lengua</t>
-  </si>
-  <si>
-    <t>Actividad que permite comprender la variedad diatópica o geográfica de la lengua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interpreta situaciones musicales </t>
-  </si>
-  <si>
     <t xml:space="preserve">La variedad geográfica o diatópica </t>
   </si>
   <si>
-    <t xml:space="preserve">Interactivo que ejemplifica la variedad geográfica o diatópica </t>
-  </si>
-  <si>
     <t>Se exponen los principales casos de variedad geográfica con sus respectivas características y ejemplos.</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Analiza situaciones de variedad geográfica</t>
-  </si>
-  <si>
-    <t>Actividad que permite interpretar y analizar situaciones de variedad geográfica</t>
-  </si>
-  <si>
     <t xml:space="preserve">Seis preguntas que permitan a los estudiantes interpretar y analizar situaciones cotidianas de variedad geográfica. </t>
   </si>
   <si>
-    <t>Literatura:  El Modernismo en Colombia</t>
-  </si>
-  <si>
     <t>Interactivo para analizar y comparar fragmentos literarios del Modernismo en Colombia</t>
   </si>
   <si>
-    <t>Expresión oral: Analiza un diálogo</t>
-  </si>
-  <si>
-    <t>Actividad para analizar un diálogo a partir de las reglas de participación</t>
-  </si>
-  <si>
-    <t>Sistemas simbólicos: Diferencia los tipos de música en Colombia</t>
-  </si>
-  <si>
     <t>Expone seis preguntas relacionadas con los tipos de música, su ubicación y sus características.</t>
   </si>
   <si>
-    <t xml:space="preserve">Proyecto: Diseña un afiche publicitario </t>
-  </si>
-  <si>
     <t>Actividad para diseñar y promover la música tradicional en Colombia</t>
   </si>
   <si>
     <t>Describir cada proceso  y pautas necesarias para la construcción  de un afiche públicitario que incite a promover y valorar la música tradicional en Colombia.                                                                 DBA: Aplica todas las etapas  de la escritura en la elaboración de textos coherentes y cohesionados, con criterios cercanos a los de una publicación.</t>
   </si>
   <si>
-    <t>Mapa conceptual del tema La Literatura Colombiana del Modernismo</t>
-  </si>
-  <si>
-    <t>Actividad para evaluar los conocimientos del estudiantes sobre el tema La Literatura Colombiana del Modernismo</t>
-  </si>
-  <si>
-    <t>Actividades para repasar los contenidos del tema La Literatura Colombiana del Modernismo</t>
-  </si>
-  <si>
     <t>Realizar seis preguntas relacionadas con el tema  La Literatura Colombiana del Modernismo.</t>
   </si>
   <si>
@@ -768,46 +620,13 @@
     <t>La literatura colombiana del Modernismo</t>
   </si>
   <si>
-    <t>Lectura-literatura: Señala los elementos del Modernismo</t>
-  </si>
-  <si>
-    <t>Lectura-semántica: Identifica los gentilicios</t>
-  </si>
-  <si>
     <t>Conoce el desarolllo musical en Colombia</t>
   </si>
   <si>
     <t>Interpreta contextos musicales</t>
   </si>
   <si>
-    <t>Actividad para diferenciar los tipos de música y las características de cada uno de ellos</t>
-  </si>
-  <si>
-    <t>Actividades sobre La variedad  geografica o diatópica</t>
-  </si>
-  <si>
-    <t>Actividad que permite reconocer las características de la variedad diatópica de la costa pacífica colombiana a través de la obra de Candelario Obeso</t>
-  </si>
-  <si>
-    <t>Actividad que invita a analizar e interpretar situaciones de la música en las regiones colombianas</t>
-  </si>
-  <si>
     <t>Interactivo para ilustrar el desarrollo de la música colombiana</t>
-  </si>
-  <si>
-    <t>Actividad que facilita la comprensión de las características del  diálogo</t>
-  </si>
-  <si>
-    <t>Actividad que permite analizar pistas con el fin de descubrir un gentilicio</t>
-  </si>
-  <si>
-    <t>Interactivo que sintetiza las características y los elementos clave de los gentilicios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad que permite comprender e interpretar poemas modernistas </t>
-  </si>
-  <si>
-    <t>Interactivo para exponer la evolución y desarrollo  del Modernismo  en Colombia</t>
   </si>
   <si>
     <t xml:space="preserve">Actividad para identificar las características del Modernismo </t>
@@ -876,6 +695,198 @@
   </si>
   <si>
     <t>m4A</t>
+  </si>
+  <si>
+    <t>Literatura: elementos del Modernismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para inferir las características del Modernismo </t>
+  </si>
+  <si>
+    <t>Semántica: identifica gentilicios</t>
+  </si>
+  <si>
+    <t>Expresión oral: practica un diálogo</t>
+  </si>
+  <si>
+    <t>Comprensión textual: el Modernismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprensión textual: las figuras literarias </t>
+  </si>
+  <si>
+    <t>Actividad para identificar las figuras literarias propias del Modernismo</t>
+  </si>
+  <si>
+    <t>Ética de la comunicación: la variedad geográfica</t>
+  </si>
+  <si>
+    <t>Actividad para diferenciar las variedades geográficas a partir de contextos</t>
+  </si>
+  <si>
+    <t>Interactivo que expone el desarrollo del Modernismo</t>
+  </si>
+  <si>
+    <t>Comparar contextos</t>
+  </si>
+  <si>
+    <t>Actividad para contrastar los contextos modernistas</t>
+  </si>
+  <si>
+    <t>Determina el contexto artístico</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer el desarrollo del contexto artístico del Modernismo</t>
+  </si>
+  <si>
+    <t>Reconoce la narrativa modernista</t>
+  </si>
+  <si>
+    <t>Actividad para deducir las características de la narrativa modernista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interpreta textos poéticos </t>
+  </si>
+  <si>
+    <t>Actividad para comprender poemas modernistas</t>
+  </si>
+  <si>
+    <t>Interactivo para analizar fragmentos literarios</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El Modernismo en Colombia</t>
+  </si>
+  <si>
+    <t>Actividad para afianzar las características del Modernismo en Colombia</t>
+  </si>
+  <si>
+    <t>Interactivo que sintetiza las características y los gentilicios</t>
+  </si>
+  <si>
+    <t>Relaciona expresiones con gentilicios</t>
+  </si>
+  <si>
+    <t>Actividad para identificar los gentilicios con la región de donde proceden</t>
+  </si>
+  <si>
+    <t>Actividad para inferir gentilicios</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Caracteriza los gentilicios</t>
+  </si>
+  <si>
+    <t>Actividad para determinar las características de los gentilicios</t>
+  </si>
+  <si>
+    <t>Interactivo que expone los tipos de diálogos y sus características</t>
+  </si>
+  <si>
+    <t>Interactivo para afianzar las reglas y la intencionalidad en un diálogo oral</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Caracteriza un diálogo</t>
+  </si>
+  <si>
+    <t>Actividad para comprender las características del diálogo</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Organiza un diálogo</t>
+  </si>
+  <si>
+    <t>Actividad para ordenar un diálogo</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Interpreta situaciones de diálogo</t>
+  </si>
+  <si>
+    <t>Actividad para analizar diferentes diálogos cotidianos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifica las características de la música </t>
+  </si>
+  <si>
+    <t>Actividad para reconocer las vertientes musicales colombianas</t>
+  </si>
+  <si>
+    <t>Interactivo que expone las regiones de Colombia y las principales características musicales</t>
+  </si>
+  <si>
+    <t>Actividad para afianzar los conocimientos en torno a la música colombiana</t>
+  </si>
+  <si>
+    <t>Actividad que invita a analizar situaciones musicales</t>
+  </si>
+  <si>
+    <t>Identifica la música tradicional</t>
+  </si>
+  <si>
+    <t>Actividad para identificar los representantes de la música tradicional colombiana</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Interpreta situaciones musicales</t>
+  </si>
+  <si>
+    <t>Actividad para analizar situaciones culturales de la música colombiana</t>
+  </si>
+  <si>
+    <t>Interactivo que ejemplifica la variedad geográfica o diatópica</t>
+  </si>
+  <si>
+    <t>Relaciona variedades diatópicas</t>
+  </si>
+  <si>
+    <t>Actividad que permite comprender la variedad diatópica de la lengua</t>
+  </si>
+  <si>
+    <t>Determina la variedad diatópica de la lengua</t>
+  </si>
+  <si>
+    <t>Actividad que permite caracterizar la variedad diatópica de la lengua</t>
+  </si>
+  <si>
+    <t>Identifica el lugar de procedencia</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer el origen de las variedades diatópicas</t>
+  </si>
+  <si>
+    <t>Actividad para caracterizar los rasgos lingüísticos</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Analiza situaciones lingüísticas</t>
+  </si>
+  <si>
+    <t>Actividad que permite interpretar situaciones de acuerdo con la variedad geográfica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Literatura: el Modernismo </t>
+  </si>
+  <si>
+    <t>Expresión oral: analiza un diálogo</t>
+  </si>
+  <si>
+    <t>Actividad para comprender las reglas de participación en un diálogo</t>
+  </si>
+  <si>
+    <t>Sistemas simbólicos: la música en Colombia</t>
+  </si>
+  <si>
+    <t>Actividad para diferenciar los tipos de música desarrollados en Colombia</t>
+  </si>
+  <si>
+    <t>Proyecto: Diseña un afiche publicitario</t>
+  </si>
+  <si>
+    <t>Mapa conceptual del tema La literatura colombiana del Modernismo</t>
+  </si>
+  <si>
+    <t>Evalúa tus conocimientos sobre el tema La Literatura colombiana del Modernismo</t>
+  </si>
+  <si>
+    <t>Actividades para repasar los contenidos del tema La Literatura colombiana del Modernismo</t>
+  </si>
+  <si>
+    <t>Banco de Actividades: La Literatura colombiana del Modernismo</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1103,7 +1114,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1136,13 +1146,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1201,20 +1205,10 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1228,9 +1222,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1269,34 +1260,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1336,6 +1309,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1398,7 +1389,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1433,7 +1424,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1644,9 +1635,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P47" sqref="P47"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1658,14 +1649,14 @@
     <col min="5" max="5" width="28.42578125" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="30.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="63" customWidth="1"/>
-    <col min="9" max="9" width="11" style="38" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="37" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" style="37" customWidth="1"/>
-    <col min="13" max="14" width="12" style="67" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="29" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="60" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="55" customWidth="1"/>
+    <col min="9" max="9" width="11" style="35" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="34" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" style="34" customWidth="1"/>
+    <col min="13" max="14" width="12" style="59" customWidth="1"/>
+    <col min="15" max="15" width="30.5703125" style="26" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="52" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -1674,211 +1665,211 @@
     <col min="22" max="22" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="12" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:21" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="J1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="84" t="s">
+      <c r="K1" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="82" t="s">
+      <c r="L1" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="88" t="s">
+      <c r="M1" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="88"/>
-      <c r="O1" s="68" t="s">
+      <c r="N1" s="74"/>
+      <c r="O1" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="68" t="s">
+      <c r="P1" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="70" t="s">
+      <c r="Q1" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="74" t="s">
+      <c r="R1" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="70" t="s">
+      <c r="S1" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="72" t="s">
+      <c r="T1" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="U1" s="70" t="s">
+      <c r="U1" s="77" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="13" t="s">
+    <row r="2" spans="1:21" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="67"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="71"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="78"/>
     </row>
     <row r="3" spans="1:21" ht="141" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="H3" s="34">
+      <c r="D3" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="H3" s="31">
         <v>1</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="K3" s="39" t="s">
+      <c r="J3" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="K3" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64" t="s">
+      <c r="M3" s="56"/>
+      <c r="N3" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="P3" s="25" t="s">
+      <c r="O3" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="P3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="30">
+      <c r="Q3" s="27">
         <v>6</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="R3" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="S3" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T3" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="U3" s="30" t="s">
+      <c r="T3" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="U3" s="27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>247</v>
+      <c r="D4" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="H4" s="35">
+      <c r="G4" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="H4" s="32">
         <v>2</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="K4" s="39" t="s">
+      <c r="J4" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="K4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65" t="s">
+      <c r="M4" s="57"/>
+      <c r="N4" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="P4" s="25" t="s">
+      <c r="O4" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="P4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="27">
         <v>6</v>
       </c>
-      <c r="R4" s="31" t="s">
+      <c r="R4" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S4" s="30" t="s">
+      <c r="S4" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T4" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="U4" s="30" t="s">
+      <c r="T4" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="U4" s="27" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1886,58 +1877,58 @@
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>247</v>
+      <c r="D5" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="H5" s="32">
+        <v>3</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="35">
-        <v>3</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="K5" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="P5" s="25" t="s">
+      <c r="P5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="27">
         <v>6</v>
       </c>
-      <c r="R5" s="31" t="s">
+      <c r="R5" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S5" s="30" t="s">
+      <c r="S5" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T5" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="U5" s="30" t="s">
+      <c r="T5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="U5" s="27" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1945,58 +1936,58 @@
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>247</v>
+      <c r="D6" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="H6" s="35">
+      <c r="G6" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="H6" s="32">
         <v>4</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="K6" s="39" t="s">
+      <c r="J6" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="K6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="41" t="s">
+      <c r="L6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65" t="s">
+      <c r="M6" s="57"/>
+      <c r="N6" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="P6" s="25" t="s">
+      <c r="O6" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="P6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="27">
         <v>6</v>
       </c>
-      <c r="R6" s="31" t="s">
+      <c r="R6" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S6" s="30" t="s">
+      <c r="S6" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T6" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="U6" s="30" t="s">
+      <c r="T6" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="U6" s="27" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2004,58 +1995,58 @@
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>247</v>
+      <c r="D7" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="H7" s="35">
+      <c r="G7" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="H7" s="32">
         <v>5</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="K7" s="39" t="s">
+      <c r="J7" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="K7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="41" t="s">
+      <c r="L7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65" t="s">
+      <c r="M7" s="57"/>
+      <c r="N7" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="P7" s="25" t="s">
+      <c r="O7" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="P7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="27">
         <v>6</v>
       </c>
-      <c r="R7" s="31" t="s">
+      <c r="R7" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S7" s="30" t="s">
+      <c r="S7" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T7" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="U7" s="30" t="s">
+      <c r="T7" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="U7" s="27" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2063,58 +2054,58 @@
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>247</v>
+      <c r="D8" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="35">
+      <c r="G8" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="H8" s="32">
         <v>6</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="K8" s="39" t="s">
+      <c r="J8" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="K8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="41" t="s">
+      <c r="L8" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65" t="s">
+      <c r="M8" s="57"/>
+      <c r="N8" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="P8" s="25" t="s">
+      <c r="O8" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="P8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="Q8" s="27">
         <v>6</v>
       </c>
-      <c r="R8" s="31" t="s">
+      <c r="R8" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S8" s="30" t="s">
+      <c r="S8" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T8" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="U8" s="30" t="s">
+      <c r="T8" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="U8" s="27" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2122,125 +2113,125 @@
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>116</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="32">
+        <v>7</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="57"/>
+      <c r="O9" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="P9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="27">
+        <v>6</v>
+      </c>
+      <c r="R9" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="S9" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="T9" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="H9" s="35">
-        <v>7</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="N9" s="65"/>
-      <c r="O9" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="P9" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="30">
-        <v>6</v>
-      </c>
-      <c r="R9" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="S9" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="T9" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="U9" s="30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="U9" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="D10" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>116</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H10" s="35">
+      <c r="G10" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="H10" s="32">
         <v>8</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="K10" s="40" t="s">
+      <c r="J10" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="K10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="42" t="s">
+      <c r="L10" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65" t="s">
+      <c r="M10" s="57"/>
+      <c r="N10" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="P10" s="58" t="s">
+      <c r="O10" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="P10" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="30">
+      <c r="Q10" s="27">
         <v>6</v>
       </c>
-      <c r="R10" s="31" t="s">
+      <c r="R10" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S10" s="30" t="s">
+      <c r="S10" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T10" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="U10" s="30" t="s">
+      <c r="T10" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="U10" s="27" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2248,312 +2239,312 @@
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="D11" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>116</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="H11" s="35">
+      <c r="G11" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="H11" s="32">
         <v>9</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="K11" s="40" t="s">
+      <c r="J11" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="K11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="42" t="s">
+      <c r="L11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65" t="s">
+      <c r="M11" s="57"/>
+      <c r="N11" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="P11" s="58" t="s">
+      <c r="O11" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="P11" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="30">
+      <c r="Q11" s="27">
         <v>6</v>
       </c>
-      <c r="R11" s="31" t="s">
+      <c r="R11" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S11" s="30" t="s">
+      <c r="S11" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T11" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="U11" s="30" t="s">
+      <c r="T11" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="U11" s="27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>90</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="H12" s="35">
+      <c r="G12" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="H12" s="32">
         <v>10</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="K12" s="40" t="s">
+      <c r="J12" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="K12" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="42" t="s">
+      <c r="L12" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65" t="s">
+      <c r="M12" s="57"/>
+      <c r="N12" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="P12" s="58" t="s">
+      <c r="O12" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="P12" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="Q12" s="27">
         <v>6</v>
       </c>
-      <c r="R12" s="31" t="s">
+      <c r="R12" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S12" s="30" t="s">
+      <c r="S12" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T12" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="U12" s="30" t="s">
+      <c r="T12" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="U12" s="27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="H13" s="35">
+      <c r="G13" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="H13" s="32">
         <v>11</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="K13" s="40" t="s">
+      <c r="J13" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="K13" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="42" t="s">
+      <c r="L13" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65" t="s">
+      <c r="M13" s="57"/>
+      <c r="N13" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="P13" s="58" t="s">
+      <c r="O13" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="P13" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="30">
+      <c r="Q13" s="27">
         <v>6</v>
       </c>
-      <c r="R13" s="31" t="s">
+      <c r="R13" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S13" s="30" t="s">
+      <c r="S13" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T13" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="U13" s="30" t="s">
+      <c r="T13" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="U13" s="27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="150" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>90</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="32">
+        <v>12</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="57"/>
+      <c r="O14" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="P14" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="27">
+        <v>6</v>
+      </c>
+      <c r="R14" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="H14" s="35">
-        <v>12</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="21" t="s">
+      <c r="S14" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="K14" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="N14" s="65"/>
-      <c r="O14" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="P14" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="30">
-        <v>6</v>
-      </c>
-      <c r="R14" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="S14" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="T14" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="U14" s="30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="T14" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="U14" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>248</v>
+      <c r="D15" s="14" t="s">
+        <v>197</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>93</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" s="35">
+      <c r="G15" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="H15" s="32">
         <v>13</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="K15" s="40" t="s">
+      <c r="J15" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="K15" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="42" t="s">
+      <c r="L15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65" t="s">
+      <c r="M15" s="57"/>
+      <c r="N15" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="P15" s="58" t="s">
+      <c r="O15" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="P15" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="30">
+      <c r="Q15" s="27">
         <v>6</v>
       </c>
-      <c r="R15" s="31" t="s">
+      <c r="R15" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S15" s="30" t="s">
+      <c r="S15" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T15" s="32" t="s">
+      <c r="T15" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="U15" s="30" t="s">
+      <c r="U15" s="27" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2561,117 +2552,117 @@
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" s="61">
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="53">
         <v>14</v>
       </c>
-      <c r="I16" s="50" t="s">
+      <c r="I16" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="K16" s="40" t="s">
+      <c r="J16" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="K16" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="42" t="s">
+      <c r="L16" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="M16" s="65" t="s">
+      <c r="M16" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="N16" s="65"/>
-      <c r="O16" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="P16" s="58" t="s">
+      <c r="N16" s="57"/>
+      <c r="O16" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="P16" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="30">
+      <c r="Q16" s="27">
         <v>6</v>
       </c>
-      <c r="R16" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="S16" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="T16" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="U16" s="30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="135" x14ac:dyDescent="0.25">
+      <c r="R16" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="S16" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="T16" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="U16" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="150" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="H17" s="61">
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="H17" s="53">
         <v>15</v>
       </c>
-      <c r="I17" s="50" t="s">
+      <c r="I17" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="K17" s="51" t="s">
+      <c r="J17" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="K17" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="52" t="s">
+      <c r="L17" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="66"/>
-      <c r="N17" s="65" t="s">
+      <c r="M17" s="58"/>
+      <c r="N17" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="O17" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="P17" s="58" t="s">
+      <c r="O17" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="P17" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="30">
+      <c r="Q17" s="27">
         <v>6</v>
       </c>
-      <c r="R17" s="31" t="s">
+      <c r="R17" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S17" s="30" t="s">
+      <c r="S17" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T17" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="U17" s="30" t="s">
+      <c r="T17" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="U17" s="27" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2679,58 +2670,58 @@
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="H18" s="61">
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="53">
         <v>16</v>
       </c>
-      <c r="I18" s="50" t="s">
+      <c r="I18" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="49" t="s">
-        <v>259</v>
-      </c>
-      <c r="K18" s="51" t="s">
+      <c r="J18" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="K18" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="52" t="s">
+      <c r="L18" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66" t="s">
+      <c r="M18" s="58"/>
+      <c r="N18" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="O18" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="P18" s="58" t="s">
+      <c r="O18" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="P18" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="30">
+      <c r="Q18" s="27">
         <v>6</v>
       </c>
-      <c r="R18" s="31" t="s">
+      <c r="R18" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S18" s="30" t="s">
+      <c r="S18" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T18" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="U18" s="30" t="s">
+      <c r="T18" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="U18" s="27" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2738,60 +2729,60 @@
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="42" t="s">
         <v>94</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>93</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="H19" s="61">
+      <c r="G19" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="H19" s="53">
         <v>17</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="K19" s="51" t="s">
+      <c r="J19" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="K19" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="52" t="s">
+      <c r="L19" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66" t="s">
+      <c r="M19" s="58"/>
+      <c r="N19" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="O19" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="P19" s="58" t="s">
+      <c r="O19" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="P19" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="30">
+      <c r="Q19" s="27">
         <v>6</v>
       </c>
-      <c r="R19" s="31" t="s">
+      <c r="R19" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S19" s="30" t="s">
+      <c r="S19" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T19" s="32" t="s">
+      <c r="T19" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="U19" s="30" t="s">
+      <c r="U19" s="27" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2799,10 +2790,10 @@
       <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>85</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -2812,118 +2803,118 @@
         <v>96</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="32">
         <v>18</v>
       </c>
-      <c r="I20" s="36" t="s">
+      <c r="I20" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="K20" s="40" t="s">
+      <c r="J20" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="K20" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="43" t="s">
+      <c r="L20" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="P20" s="58" t="s">
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="P20" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="30" t="s">
+      <c r="Q20" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="R20" s="31" t="s">
+      <c r="R20" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="S20" s="33" t="s">
+      <c r="S20" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="T20" s="32" t="s">
+      <c r="T20" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="U20" s="30" t="s">
+      <c r="U20" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="V20" s="22"/>
+      <c r="V20" s="20"/>
     </row>
     <row r="21" spans="1:22" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>85</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>97</v>
       </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="H21" s="35">
+      <c r="G21" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="H21" s="32">
         <v>19</v>
       </c>
-      <c r="I21" s="36" t="s">
+      <c r="I21" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="K21" s="40" t="s">
+      <c r="J21" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="K21" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="42" t="s">
+      <c r="L21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="65" t="s">
+      <c r="M21" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="N21" s="65"/>
-      <c r="O21" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="P21" s="58" t="s">
+      <c r="N21" s="57"/>
+      <c r="O21" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="P21" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="30">
+      <c r="Q21" s="27">
         <v>6</v>
       </c>
-      <c r="R21" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="S21" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="T21" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="U21" s="30" t="s">
-        <v>164</v>
+      <c r="R21" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="S21" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="T21" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="U21" s="27" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>85</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -2933,45 +2924,45 @@
         <v>98</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="H22" s="35">
+      <c r="G22" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H22" s="32">
         <v>20</v>
       </c>
-      <c r="I22" s="36" t="s">
+      <c r="I22" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="K22" s="40" t="s">
+      <c r="J22" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="K22" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="42" t="s">
+      <c r="L22" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="P22" s="58" t="s">
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="P22" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="30" t="s">
+      <c r="Q22" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="R22" s="31" t="s">
+      <c r="R22" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="S22" s="33" t="s">
+      <c r="S22" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="T22" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="U22" s="30" t="s">
+      <c r="T22" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="U22" s="27" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2979,10 +2970,10 @@
       <c r="A23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>85</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -2992,56 +2983,56 @@
         <v>98</v>
       </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="H23" s="35">
+      <c r="G23" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="H23" s="32">
         <v>21</v>
       </c>
-      <c r="I23" s="36" t="s">
+      <c r="I23" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="K23" s="40" t="s">
+      <c r="J23" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="K23" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="42" t="s">
+      <c r="L23" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="P23" s="58" t="s">
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="P23" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="R23" s="31" t="s">
+      <c r="Q23" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="R23" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="S23" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="T23" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="U23" s="30" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="S23" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="T23" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="U23" s="27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>85</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -3051,413 +3042,413 @@
         <v>98</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="H24" s="35">
+      <c r="G24" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="H24" s="32">
         <v>22</v>
       </c>
-      <c r="I24" s="36" t="s">
+      <c r="I24" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="K24" s="40" t="s">
+      <c r="J24" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="K24" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="42" t="s">
+      <c r="L24" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65" t="s">
+      <c r="M24" s="57"/>
+      <c r="N24" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="O24" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="P24" s="58" t="s">
+      <c r="O24" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="P24" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="30">
+      <c r="Q24" s="27">
         <v>6</v>
       </c>
-      <c r="R24" s="31" t="s">
+      <c r="R24" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S24" s="30" t="s">
+      <c r="S24" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T24" s="32" t="s">
+      <c r="T24" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="U24" s="30" t="s">
+      <c r="U24" s="27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="H25" s="61">
+      <c r="F25" s="17"/>
+      <c r="G25" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25" s="53">
         <v>23</v>
       </c>
-      <c r="I25" s="50" t="s">
+      <c r="I25" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="49" t="s">
-        <v>257</v>
-      </c>
-      <c r="K25" s="51" t="s">
+      <c r="J25" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="52" t="s">
+      <c r="L25" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="M25" s="66" t="s">
+      <c r="M25" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="N25" s="66"/>
-      <c r="O25" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="P25" s="58" t="s">
+      <c r="N25" s="58"/>
+      <c r="O25" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="P25" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="30">
+      <c r="Q25" s="27">
         <v>6</v>
       </c>
-      <c r="R25" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="S25" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="T25" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="U25" s="30" t="s">
-        <v>164</v>
+      <c r="R25" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="S25" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="T25" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="U25" s="27" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="H26" s="35">
+      <c r="F26" s="17"/>
+      <c r="G26" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="H26" s="32">
         <v>24</v>
       </c>
-      <c r="I26" s="36" t="s">
+      <c r="I26" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="K26" s="40" t="s">
+      <c r="J26" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="K26" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="42" t="s">
+      <c r="L26" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65" t="s">
+      <c r="M26" s="57"/>
+      <c r="N26" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="O26" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="P26" s="58" t="s">
+      <c r="O26" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="P26" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="30">
+      <c r="Q26" s="27">
         <v>6</v>
       </c>
-      <c r="R26" s="31" t="s">
+      <c r="R26" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S26" s="30" t="s">
+      <c r="S26" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T26" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="U26" s="30" t="s">
+      <c r="T26" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="U26" s="27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="54" t="s">
+      <c r="E27" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="H27" s="61">
+      <c r="F27" s="17"/>
+      <c r="G27" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H27" s="53">
         <v>25</v>
       </c>
-      <c r="I27" s="50" t="s">
+      <c r="I27" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="K27" s="51" t="s">
+      <c r="J27" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="K27" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="52" t="s">
+      <c r="L27" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="66" t="s">
+      <c r="M27" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="N27" s="66"/>
-      <c r="O27" s="56" t="s">
-        <v>270</v>
-      </c>
-      <c r="P27" s="58" t="s">
+      <c r="N27" s="58"/>
+      <c r="O27" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="P27" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="30">
+      <c r="Q27" s="27">
         <v>6</v>
       </c>
-      <c r="R27" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="S27" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="T27" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="U27" s="30" t="s">
-        <v>164</v>
+      <c r="R27" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="S27" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="T27" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="U27" s="27" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="53" t="s">
+      <c r="D28" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="55" t="s">
-        <v>251</v>
-      </c>
-      <c r="H28" s="61">
+      <c r="F28" s="17"/>
+      <c r="G28" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H28" s="53">
         <v>26</v>
       </c>
-      <c r="I28" s="50" t="s">
+      <c r="I28" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="K28" s="51" t="s">
+      <c r="J28" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="K28" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="52" t="s">
+      <c r="L28" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66" t="s">
+      <c r="M28" s="58"/>
+      <c r="N28" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="O28" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="P28" s="58" t="s">
+      <c r="O28" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="P28" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="30">
+      <c r="Q28" s="27">
         <v>6</v>
       </c>
-      <c r="R28" s="31" t="s">
+      <c r="R28" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S28" s="30" t="s">
+      <c r="S28" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T28" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="U28" s="30" t="s">
+      <c r="T28" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="U28" s="27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="54" t="s">
+      <c r="E29" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="55" t="s">
-        <v>252</v>
-      </c>
-      <c r="H29" s="61">
+      <c r="F29" s="17"/>
+      <c r="G29" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29" s="53">
         <v>27</v>
       </c>
-      <c r="I29" s="50" t="s">
+      <c r="I29" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="K29" s="51" t="s">
+      <c r="J29" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="K29" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="52" t="s">
+      <c r="L29" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66" t="s">
+      <c r="M29" s="58"/>
+      <c r="N29" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="O29" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="P29" s="58" t="s">
+      <c r="O29" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="P29" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="30">
+      <c r="Q29" s="27">
         <v>6</v>
       </c>
-      <c r="R29" s="31" t="s">
+      <c r="R29" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S29" s="30" t="s">
+      <c r="S29" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T29" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="U29" s="30" t="s">
+      <c r="T29" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="U29" s="27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="53" t="s">
+      <c r="D30" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="54" t="s">
+      <c r="E30" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="H30" s="61">
+      <c r="F30" s="17"/>
+      <c r="G30" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="H30" s="53">
         <v>28</v>
       </c>
-      <c r="I30" s="50" t="s">
+      <c r="I30" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="K30" s="51" t="s">
+      <c r="J30" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="K30" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="52" t="s">
+      <c r="L30" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66" t="s">
+      <c r="M30" s="58"/>
+      <c r="N30" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="O30" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="P30" s="58" t="s">
+      <c r="O30" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="P30" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="30">
+      <c r="Q30" s="27">
         <v>6</v>
       </c>
-      <c r="R30" s="31" t="s">
+      <c r="R30" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S30" s="30" t="s">
+      <c r="S30" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T30" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="U30" s="30" t="s">
+      <c r="T30" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="U30" s="27" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3465,60 +3456,60 @@
       <c r="A31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="53" t="s">
+      <c r="D31" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="H31" s="61">
+      <c r="F31" s="17"/>
+      <c r="G31" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="H31" s="53">
         <v>29</v>
       </c>
-      <c r="I31" s="50" t="s">
+      <c r="I31" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="K31" s="51" t="s">
+      <c r="J31" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="K31" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="52" t="s">
+      <c r="L31" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="66"/>
-      <c r="N31" s="65" t="s">
+      <c r="M31" s="58"/>
+      <c r="N31" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="P31" s="58" t="s">
+      <c r="O31" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="P31" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="30">
+      <c r="Q31" s="27">
         <v>6</v>
       </c>
-      <c r="R31" s="31" t="s">
+      <c r="R31" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S31" s="30" t="s">
+      <c r="S31" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T31" s="32" t="s">
+      <c r="T31" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="U31" s="30" t="s">
+      <c r="U31" s="27" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3526,117 +3517,117 @@
       <c r="A32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="53" t="s">
+      <c r="D32" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="H32" s="61">
+      <c r="E32" s="16"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32" s="53">
         <v>30</v>
       </c>
-      <c r="I32" s="50" t="s">
+      <c r="I32" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="K32" s="51" t="s">
+      <c r="J32" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="K32" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="52" t="s">
+      <c r="L32" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="M32" s="66" t="s">
+      <c r="M32" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="N32" s="66"/>
-      <c r="O32" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="P32" s="58" t="s">
+      <c r="N32" s="58"/>
+      <c r="O32" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="P32" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="30">
+      <c r="Q32" s="27">
         <v>6</v>
       </c>
-      <c r="R32" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="S32" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="T32" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="U32" s="30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+      <c r="R32" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="S32" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="T32" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="U32" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="14" t="s">
         <v>103</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="H33" s="35">
+      <c r="G33" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="H33" s="32">
         <v>31</v>
       </c>
-      <c r="I33" s="36" t="s">
+      <c r="I33" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="K33" s="40" t="s">
+      <c r="J33" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="K33" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="42" t="s">
+      <c r="L33" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65" t="s">
+      <c r="M33" s="57"/>
+      <c r="N33" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="O33" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="P33" s="58" t="s">
+      <c r="O33" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="P33" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="30">
+      <c r="Q33" s="27">
         <v>6</v>
       </c>
-      <c r="R33" s="31" t="s">
+      <c r="R33" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S33" s="30" t="s">
+      <c r="S33" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T33" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="U33" s="30" t="s">
+      <c r="T33" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="U33" s="27" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3644,117 +3635,117 @@
       <c r="A34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="14" t="s">
         <v>103</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="H34" s="35">
+      <c r="G34" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="H34" s="32">
         <v>32</v>
       </c>
-      <c r="I34" s="36" t="s">
+      <c r="I34" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="K34" s="40" t="s">
+      <c r="J34" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="K34" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="42" t="s">
+      <c r="L34" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65" t="s">
+      <c r="M34" s="57"/>
+      <c r="N34" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="O34" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="P34" s="58" t="s">
+      <c r="O34" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="P34" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="30">
+      <c r="Q34" s="27">
         <v>6</v>
       </c>
-      <c r="R34" s="31" t="s">
+      <c r="R34" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S34" s="30" t="s">
+      <c r="S34" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T34" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="U34" s="30" t="s">
+      <c r="T34" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="U34" s="27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="14" t="s">
         <v>103</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="H35" s="35">
+      <c r="G35" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="H35" s="32">
         <v>33</v>
       </c>
-      <c r="I35" s="36" t="s">
+      <c r="I35" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="K35" s="40" t="s">
+      <c r="J35" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="K35" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="42" t="s">
+      <c r="L35" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65" t="s">
+      <c r="M35" s="57"/>
+      <c r="N35" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="O35" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="P35" s="58" t="s">
+      <c r="O35" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="P35" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="30">
+      <c r="Q35" s="27">
         <v>6</v>
       </c>
-      <c r="R35" s="31" t="s">
+      <c r="R35" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S35" s="30" t="s">
+      <c r="S35" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T35" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="U35" s="30" t="s">
+      <c r="T35" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="U35" s="27" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3762,119 +3753,119 @@
       <c r="A36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="14" t="s">
         <v>103</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>98</v>
       </c>
       <c r="F36" s="5"/>
-      <c r="G36" s="23" t="s">
+      <c r="G36" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H36" s="32">
+        <v>34</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="K36" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="P36" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q36" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="R36" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="S36" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="T36" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="U36" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="H36" s="35">
-        <v>34</v>
-      </c>
-      <c r="I36" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="K36" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="L36" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="P36" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q36" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="R36" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="S36" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="T36" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="U36" s="30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="14" t="s">
         <v>103</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>98</v>
       </c>
       <c r="F37" s="5"/>
-      <c r="G37" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="H37" s="35">
+      <c r="G37" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="H37" s="32">
         <v>35</v>
       </c>
-      <c r="I37" s="36" t="s">
+      <c r="I37" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="K37" s="40" t="s">
+      <c r="J37" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="K37" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L37" s="42" t="s">
+      <c r="L37" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M37" s="65"/>
-      <c r="N37" s="65" t="s">
+      <c r="M37" s="57"/>
+      <c r="N37" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="O37" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="P37" s="58" t="s">
+      <c r="O37" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="P37" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="30">
+      <c r="Q37" s="27">
         <v>6</v>
       </c>
-      <c r="R37" s="31" t="s">
+      <c r="R37" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S37" s="30" t="s">
+      <c r="S37" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T37" s="32" t="s">
+      <c r="T37" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="U37" s="30" t="s">
+      <c r="U37" s="27" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3882,117 +3873,117 @@
       <c r="A38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>85</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="H38" s="35">
+      <c r="E38" s="16"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="H38" s="32">
         <v>36</v>
       </c>
-      <c r="I38" s="36" t="s">
+      <c r="I38" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J38" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="K38" s="40" t="s">
+      <c r="J38" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="K38" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="42" t="s">
+      <c r="L38" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="M38" s="65" t="s">
+      <c r="M38" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="N38" s="65"/>
-      <c r="O38" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="P38" s="58" t="s">
+      <c r="N38" s="57"/>
+      <c r="O38" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="P38" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="30">
+      <c r="Q38" s="27">
         <v>6</v>
       </c>
-      <c r="R38" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="S38" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="T38" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="U38" s="30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="R38" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="S38" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="T38" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="U38" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="13" t="s">
         <v>85</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="H39" s="35">
+      <c r="E39" s="16"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="H39" s="32">
         <v>37</v>
       </c>
-      <c r="I39" s="36" t="s">
+      <c r="I39" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="K39" s="40" t="s">
+      <c r="J39" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="K39" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L39" s="42" t="s">
+      <c r="L39" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M39" s="65"/>
-      <c r="N39" s="65" t="s">
+      <c r="M39" s="57"/>
+      <c r="N39" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="O39" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="P39" s="58" t="s">
+      <c r="O39" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="P39" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q39" s="30">
+      <c r="Q39" s="27">
         <v>6</v>
       </c>
-      <c r="R39" s="31" t="s">
+      <c r="R39" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S39" s="30" t="s">
+      <c r="S39" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T39" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="U39" s="30" t="s">
+      <c r="T39" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="U39" s="27" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4000,58 +3991,58 @@
       <c r="A40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="13" t="s">
         <v>85</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="H40" s="35">
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="H40" s="32">
         <v>38</v>
       </c>
-      <c r="I40" s="36" t="s">
+      <c r="I40" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="K40" s="40" t="s">
+      <c r="J40" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="K40" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L40" s="42" t="s">
+      <c r="L40" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M40" s="65"/>
-      <c r="N40" s="65" t="s">
+      <c r="M40" s="57"/>
+      <c r="N40" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="O40" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="P40" s="58" t="s">
+      <c r="O40" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="P40" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q40" s="30">
+      <c r="Q40" s="27">
         <v>6</v>
       </c>
-      <c r="R40" s="31" t="s">
+      <c r="R40" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S40" s="30" t="s">
+      <c r="S40" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T40" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="U40" s="30" t="s">
+      <c r="T40" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="U40" s="27" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4059,58 +4050,58 @@
       <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>85</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="H41" s="35">
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="H41" s="32">
         <v>39</v>
       </c>
-      <c r="I41" s="36" t="s">
+      <c r="I41" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="K41" s="40" t="s">
+      <c r="J41" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="K41" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L41" s="42" t="s">
+      <c r="L41" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M41" s="65"/>
-      <c r="N41" s="65" t="s">
+      <c r="M41" s="57"/>
+      <c r="N41" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="O41" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="P41" s="58" t="s">
+      <c r="O41" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="P41" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="30">
+      <c r="Q41" s="27">
         <v>6</v>
       </c>
-      <c r="R41" s="31" t="s">
+      <c r="R41" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S41" s="30" t="s">
+      <c r="S41" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T41" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="U41" s="30" t="s">
+      <c r="T41" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="U41" s="27" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4118,2371 +4109,2373 @@
       <c r="A42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="17"/>
+      <c r="E42" s="16"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H42" s="35">
+      <c r="H42" s="32">
         <v>40</v>
       </c>
-      <c r="I42" s="36" t="s">
+      <c r="I42" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="K42" s="40" t="s">
+      <c r="J42" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="K42" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L42" s="42" t="s">
+      <c r="L42" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="65"/>
-      <c r="N42" s="65"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="58" t="s">
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="30"/>
-    </row>
-    <row r="43" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="Q42" s="27"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="27"/>
+    </row>
+    <row r="43" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E43" s="17"/>
+      <c r="E43" s="16"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="H43" s="35">
+      <c r="H43" s="32">
         <v>41</v>
       </c>
-      <c r="I43" s="36" t="s">
+      <c r="I43" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="21" t="s">
+      <c r="J43" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="K43" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="39"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="K43" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="L43" s="42"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="65" t="s">
-        <v>284</v>
-      </c>
-      <c r="O43" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="P43" s="58" t="s">
+      <c r="O43" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="P43" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q43" s="30">
+      <c r="Q43" s="27">
         <v>6</v>
       </c>
-      <c r="R43" s="31" t="s">
+      <c r="R43" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S43" s="30" t="s">
+      <c r="S43" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T43" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="U43" s="30" t="s">
+      <c r="T43" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="U43" s="27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="19" t="s">
-        <v>170</v>
+      <c r="D44" s="18" t="s">
+        <v>150</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="35">
+      <c r="G44" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="H44" s="32">
         <v>42</v>
       </c>
-      <c r="I44" s="36" t="s">
+      <c r="I44" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="K44" s="40" t="s">
+      <c r="J44" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="K44" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L44" s="42"/>
-      <c r="M44" s="65"/>
-      <c r="N44" s="65" t="s">
-        <v>283</v>
-      </c>
-      <c r="O44" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="P44" s="58" t="s">
+      <c r="L44" s="39"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="O44" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="P44" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q44" s="30">
+      <c r="Q44" s="27">
         <v>6</v>
       </c>
-      <c r="R44" s="31" t="s">
+      <c r="R44" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S44" s="30" t="s">
+      <c r="S44" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T44" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="U44" s="30" t="s">
+      <c r="T44" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="U44" s="27" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F45"/>
-      <c r="H45" s="62"/>
+      <c r="H45" s="54"/>
       <c r="I45"/>
-      <c r="J45" s="37"/>
+      <c r="J45" s="34"/>
       <c r="O45"/>
-      <c r="P45" s="59"/>
+      <c r="P45" s="51"/>
       <c r="Q45"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F46"/>
-      <c r="H46" s="62"/>
+      <c r="H46" s="54"/>
       <c r="I46"/>
-      <c r="J46" s="37"/>
+      <c r="J46" s="34"/>
       <c r="O46"/>
-      <c r="P46" s="59"/>
+      <c r="P46" s="51"/>
       <c r="Q46"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F47"/>
-      <c r="H47" s="62"/>
+      <c r="H47" s="54"/>
       <c r="I47"/>
-      <c r="J47" s="37"/>
+      <c r="J47" s="34"/>
       <c r="O47"/>
-      <c r="P47" s="59"/>
+      <c r="P47" s="51"/>
       <c r="Q47"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F48"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="37"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="34"/>
       <c r="J48"/>
       <c r="O48"/>
-      <c r="P48" s="59"/>
+      <c r="P48" s="51"/>
       <c r="Q48"/>
     </row>
     <row r="49" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F49"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="37"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="34"/>
       <c r="J49"/>
       <c r="O49"/>
-      <c r="P49" s="59"/>
+      <c r="P49" s="51"/>
       <c r="Q49"/>
     </row>
     <row r="50" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F50"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="37"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="34"/>
       <c r="J50"/>
       <c r="O50"/>
-      <c r="P50" s="59"/>
+      <c r="P50" s="51"/>
       <c r="Q50"/>
     </row>
     <row r="51" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F51"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="37"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="34"/>
       <c r="J51"/>
       <c r="O51"/>
-      <c r="P51" s="59"/>
+      <c r="P51" s="51"/>
       <c r="Q51"/>
     </row>
     <row r="52" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F52"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="37"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="34"/>
       <c r="J52"/>
       <c r="O52"/>
-      <c r="P52" s="59"/>
+      <c r="P52" s="51"/>
       <c r="Q52"/>
     </row>
     <row r="53" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F53"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="37"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="34"/>
       <c r="J53"/>
       <c r="O53"/>
-      <c r="P53" s="59"/>
+      <c r="P53" s="51"/>
       <c r="Q53"/>
     </row>
     <row r="54" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F54"/>
-      <c r="H54" s="62"/>
-      <c r="I54" s="37"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="34"/>
       <c r="J54"/>
       <c r="O54"/>
-      <c r="P54" s="59"/>
+      <c r="P54" s="51"/>
       <c r="Q54"/>
     </row>
     <row r="55" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F55"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="37"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="34"/>
       <c r="J55"/>
       <c r="O55"/>
-      <c r="P55" s="59"/>
+      <c r="P55" s="51"/>
       <c r="Q55"/>
     </row>
     <row r="56" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F56"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="37"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="34"/>
       <c r="J56"/>
       <c r="O56"/>
-      <c r="P56" s="59"/>
+      <c r="P56" s="51"/>
       <c r="Q56"/>
     </row>
     <row r="57" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F57"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="37"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="34"/>
       <c r="J57"/>
       <c r="O57"/>
-      <c r="P57" s="59"/>
+      <c r="P57" s="51"/>
       <c r="Q57"/>
     </row>
     <row r="58" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F58"/>
-      <c r="H58" s="62"/>
-      <c r="I58" s="37"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="34"/>
       <c r="J58"/>
       <c r="O58"/>
-      <c r="P58" s="59"/>
+      <c r="P58" s="51"/>
       <c r="Q58"/>
     </row>
     <row r="59" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F59"/>
-      <c r="H59" s="62"/>
-      <c r="I59" s="37"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="34"/>
       <c r="J59"/>
       <c r="O59"/>
-      <c r="P59" s="59"/>
+      <c r="P59" s="51"/>
       <c r="Q59"/>
     </row>
     <row r="60" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F60"/>
-      <c r="H60" s="62"/>
-      <c r="I60" s="37"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="34"/>
       <c r="J60"/>
       <c r="O60"/>
-      <c r="P60" s="59"/>
+      <c r="P60" s="51"/>
       <c r="Q60"/>
     </row>
     <row r="61" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F61"/>
-      <c r="H61" s="62"/>
-      <c r="I61" s="37"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="34"/>
       <c r="J61"/>
       <c r="O61"/>
-      <c r="P61" s="59"/>
+      <c r="P61" s="51"/>
       <c r="Q61"/>
     </row>
     <row r="62" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F62"/>
-      <c r="H62" s="62"/>
-      <c r="I62" s="37"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="34"/>
       <c r="J62"/>
       <c r="O62"/>
-      <c r="P62" s="59"/>
+      <c r="P62" s="51"/>
       <c r="Q62"/>
     </row>
     <row r="63" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F63"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="37"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="34"/>
       <c r="J63"/>
       <c r="O63"/>
-      <c r="P63" s="59"/>
+      <c r="P63" s="51"/>
       <c r="Q63"/>
     </row>
     <row r="64" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F64"/>
-      <c r="H64" s="62"/>
-      <c r="I64" s="37"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="34"/>
       <c r="J64"/>
       <c r="O64"/>
-      <c r="P64" s="59"/>
+      <c r="P64" s="51"/>
       <c r="Q64"/>
     </row>
     <row r="65" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F65"/>
-      <c r="H65" s="62"/>
-      <c r="I65" s="37"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="34"/>
       <c r="J65"/>
       <c r="O65"/>
-      <c r="P65" s="59"/>
+      <c r="P65" s="51"/>
       <c r="Q65"/>
     </row>
     <row r="66" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F66"/>
-      <c r="H66" s="62"/>
-      <c r="I66" s="37"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="34"/>
       <c r="J66"/>
       <c r="O66"/>
-      <c r="P66" s="59"/>
+      <c r="P66" s="51"/>
       <c r="Q66"/>
     </row>
     <row r="67" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F67"/>
-      <c r="H67" s="62"/>
-      <c r="I67" s="37"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="34"/>
       <c r="J67"/>
       <c r="O67"/>
-      <c r="P67" s="59"/>
+      <c r="P67" s="51"/>
       <c r="Q67"/>
     </row>
     <row r="68" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F68"/>
-      <c r="H68" s="62"/>
-      <c r="I68" s="37"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="34"/>
       <c r="J68"/>
       <c r="O68"/>
-      <c r="P68" s="59"/>
+      <c r="P68" s="51"/>
       <c r="Q68"/>
     </row>
     <row r="69" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F69"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="37"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="34"/>
       <c r="J69"/>
       <c r="O69"/>
-      <c r="P69" s="59"/>
+      <c r="P69" s="51"/>
       <c r="Q69"/>
     </row>
     <row r="70" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F70"/>
-      <c r="H70" s="62"/>
-      <c r="I70" s="37"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="34"/>
       <c r="J70"/>
       <c r="O70"/>
-      <c r="P70" s="59"/>
+      <c r="P70" s="51"/>
       <c r="Q70"/>
     </row>
     <row r="71" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F71"/>
-      <c r="H71" s="62"/>
-      <c r="I71" s="37"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="34"/>
       <c r="J71"/>
       <c r="O71"/>
-      <c r="P71" s="59"/>
+      <c r="P71" s="51"/>
       <c r="Q71"/>
     </row>
     <row r="72" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F72"/>
-      <c r="H72" s="62"/>
-      <c r="I72" s="37"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="34"/>
       <c r="J72"/>
       <c r="O72"/>
-      <c r="P72" s="59"/>
+      <c r="P72" s="51"/>
       <c r="Q72"/>
     </row>
     <row r="73" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F73"/>
-      <c r="H73" s="62"/>
-      <c r="I73" s="37"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="34"/>
       <c r="J73"/>
       <c r="O73"/>
-      <c r="P73" s="59"/>
+      <c r="P73" s="51"/>
       <c r="Q73"/>
     </row>
     <row r="74" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F74"/>
-      <c r="H74" s="62"/>
-      <c r="I74" s="37"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="34"/>
       <c r="J74"/>
       <c r="O74"/>
-      <c r="P74" s="59"/>
+      <c r="P74" s="51"/>
       <c r="Q74"/>
     </row>
     <row r="75" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F75"/>
-      <c r="H75" s="62"/>
-      <c r="I75" s="37"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="34"/>
       <c r="J75"/>
       <c r="O75"/>
-      <c r="P75" s="59"/>
+      <c r="P75" s="51"/>
       <c r="Q75"/>
     </row>
     <row r="76" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F76"/>
-      <c r="H76" s="62"/>
-      <c r="I76" s="37"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="34"/>
       <c r="J76"/>
       <c r="O76"/>
-      <c r="P76" s="59"/>
+      <c r="P76" s="51"/>
       <c r="Q76"/>
     </row>
     <row r="77" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F77"/>
-      <c r="H77" s="62"/>
-      <c r="I77" s="37"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="34"/>
       <c r="J77"/>
       <c r="O77"/>
-      <c r="P77" s="59"/>
+      <c r="P77" s="51"/>
       <c r="Q77"/>
     </row>
     <row r="78" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F78"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="37"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="34"/>
       <c r="J78"/>
       <c r="O78"/>
-      <c r="P78" s="59"/>
+      <c r="P78" s="51"/>
       <c r="Q78"/>
     </row>
     <row r="79" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F79"/>
-      <c r="H79" s="62"/>
-      <c r="I79" s="37"/>
+      <c r="H79" s="54"/>
+      <c r="I79" s="34"/>
       <c r="J79"/>
       <c r="O79"/>
-      <c r="P79" s="59"/>
+      <c r="P79" s="51"/>
       <c r="Q79"/>
     </row>
     <row r="80" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F80"/>
-      <c r="H80" s="62"/>
-      <c r="I80" s="37"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="34"/>
       <c r="J80"/>
       <c r="O80"/>
-      <c r="P80" s="59"/>
+      <c r="P80" s="51"/>
       <c r="Q80"/>
     </row>
     <row r="81" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F81"/>
-      <c r="H81" s="62"/>
-      <c r="I81" s="37"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="34"/>
       <c r="J81"/>
       <c r="O81"/>
-      <c r="P81" s="59"/>
+      <c r="P81" s="51"/>
       <c r="Q81"/>
     </row>
     <row r="82" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F82"/>
-      <c r="H82" s="62"/>
-      <c r="I82" s="37"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="34"/>
       <c r="J82"/>
       <c r="O82"/>
-      <c r="P82" s="59"/>
+      <c r="P82" s="51"/>
       <c r="Q82"/>
     </row>
     <row r="83" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F83"/>
-      <c r="H83" s="62"/>
-      <c r="I83" s="37"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="34"/>
       <c r="J83"/>
       <c r="O83"/>
-      <c r="P83" s="59"/>
+      <c r="P83" s="51"/>
       <c r="Q83"/>
     </row>
     <row r="84" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F84"/>
-      <c r="H84" s="62"/>
-      <c r="I84" s="37"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="34"/>
       <c r="J84"/>
       <c r="O84"/>
-      <c r="P84" s="59"/>
+      <c r="P84" s="51"/>
       <c r="Q84"/>
     </row>
     <row r="85" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F85"/>
-      <c r="H85" s="62"/>
-      <c r="I85" s="37"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="34"/>
       <c r="J85"/>
       <c r="O85"/>
-      <c r="P85" s="59"/>
+      <c r="P85" s="51"/>
       <c r="Q85"/>
     </row>
     <row r="86" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F86"/>
-      <c r="H86" s="62"/>
-      <c r="I86" s="37"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="34"/>
       <c r="J86"/>
       <c r="O86"/>
-      <c r="P86" s="59"/>
+      <c r="P86" s="51"/>
       <c r="Q86"/>
     </row>
     <row r="87" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F87"/>
-      <c r="H87" s="62"/>
-      <c r="I87" s="37"/>
+      <c r="H87" s="54"/>
+      <c r="I87" s="34"/>
       <c r="J87"/>
       <c r="O87"/>
-      <c r="P87" s="59"/>
+      <c r="P87" s="51"/>
       <c r="Q87"/>
     </row>
     <row r="88" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F88"/>
-      <c r="H88" s="62"/>
-      <c r="I88" s="37"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="34"/>
       <c r="J88"/>
       <c r="O88"/>
-      <c r="P88" s="59"/>
+      <c r="P88" s="51"/>
       <c r="Q88"/>
     </row>
     <row r="89" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F89"/>
-      <c r="H89" s="62"/>
-      <c r="I89" s="37"/>
+      <c r="H89" s="54"/>
+      <c r="I89" s="34"/>
       <c r="J89"/>
       <c r="O89"/>
-      <c r="P89" s="59"/>
+      <c r="P89" s="51"/>
       <c r="Q89"/>
     </row>
     <row r="90" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F90"/>
-      <c r="H90" s="62"/>
-      <c r="I90" s="37"/>
+      <c r="H90" s="54"/>
+      <c r="I90" s="34"/>
       <c r="J90"/>
       <c r="O90"/>
-      <c r="P90" s="59"/>
+      <c r="P90" s="51"/>
       <c r="Q90"/>
     </row>
     <row r="91" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F91"/>
-      <c r="H91" s="62"/>
-      <c r="I91" s="37"/>
+      <c r="H91" s="54"/>
+      <c r="I91" s="34"/>
       <c r="J91"/>
       <c r="O91"/>
-      <c r="P91" s="59"/>
+      <c r="P91" s="51"/>
       <c r="Q91"/>
     </row>
     <row r="92" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F92"/>
-      <c r="H92" s="62"/>
-      <c r="I92" s="37"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="34"/>
       <c r="J92"/>
       <c r="O92"/>
-      <c r="P92" s="59"/>
+      <c r="P92" s="51"/>
       <c r="Q92"/>
     </row>
     <row r="93" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F93"/>
-      <c r="H93" s="62"/>
-      <c r="I93" s="37"/>
+      <c r="H93" s="54"/>
+      <c r="I93" s="34"/>
       <c r="J93"/>
       <c r="O93"/>
-      <c r="P93" s="59"/>
+      <c r="P93" s="51"/>
       <c r="Q93"/>
     </row>
     <row r="94" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F94"/>
-      <c r="H94" s="62"/>
-      <c r="I94" s="37"/>
+      <c r="H94" s="54"/>
+      <c r="I94" s="34"/>
       <c r="J94"/>
       <c r="O94"/>
-      <c r="P94" s="59"/>
+      <c r="P94" s="51"/>
       <c r="Q94"/>
     </row>
     <row r="95" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F95"/>
-      <c r="H95" s="62"/>
-      <c r="I95" s="37"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="34"/>
       <c r="J95"/>
       <c r="O95"/>
-      <c r="P95" s="59"/>
+      <c r="P95" s="51"/>
       <c r="Q95"/>
     </row>
     <row r="96" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F96"/>
-      <c r="H96" s="62"/>
-      <c r="I96" s="37"/>
+      <c r="H96" s="54"/>
+      <c r="I96" s="34"/>
       <c r="J96"/>
       <c r="O96"/>
-      <c r="P96" s="59"/>
+      <c r="P96" s="51"/>
       <c r="Q96"/>
     </row>
     <row r="97" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F97"/>
-      <c r="H97" s="62"/>
-      <c r="I97" s="37"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="34"/>
       <c r="J97"/>
       <c r="O97"/>
-      <c r="P97" s="59"/>
+      <c r="P97" s="51"/>
       <c r="Q97"/>
     </row>
     <row r="98" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F98"/>
-      <c r="H98" s="62"/>
-      <c r="I98" s="37"/>
+      <c r="H98" s="54"/>
+      <c r="I98" s="34"/>
       <c r="J98"/>
       <c r="O98"/>
-      <c r="P98" s="59"/>
+      <c r="P98" s="51"/>
       <c r="Q98"/>
     </row>
     <row r="99" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F99"/>
-      <c r="H99" s="62"/>
-      <c r="I99" s="37"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="34"/>
       <c r="J99"/>
       <c r="O99"/>
-      <c r="P99" s="59"/>
+      <c r="P99" s="51"/>
       <c r="Q99"/>
     </row>
     <row r="100" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F100"/>
-      <c r="H100" s="62"/>
-      <c r="I100" s="37"/>
+      <c r="H100" s="54"/>
+      <c r="I100" s="34"/>
       <c r="J100"/>
       <c r="O100"/>
-      <c r="P100" s="59"/>
+      <c r="P100" s="51"/>
       <c r="Q100"/>
     </row>
     <row r="101" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F101"/>
-      <c r="H101" s="62"/>
-      <c r="I101" s="37"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="34"/>
       <c r="J101"/>
       <c r="O101"/>
-      <c r="P101" s="59"/>
+      <c r="P101" s="51"/>
       <c r="Q101"/>
     </row>
     <row r="102" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F102"/>
-      <c r="H102" s="62"/>
-      <c r="I102" s="37"/>
+      <c r="H102" s="54"/>
+      <c r="I102" s="34"/>
       <c r="J102"/>
       <c r="O102"/>
-      <c r="P102" s="59"/>
+      <c r="P102" s="51"/>
       <c r="Q102"/>
     </row>
     <row r="103" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F103"/>
-      <c r="H103" s="62"/>
-      <c r="I103" s="37"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="34"/>
       <c r="J103"/>
       <c r="O103"/>
-      <c r="P103" s="59"/>
+      <c r="P103" s="51"/>
       <c r="Q103"/>
     </row>
     <row r="104" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F104"/>
-      <c r="H104" s="62"/>
-      <c r="I104" s="37"/>
+      <c r="H104" s="54"/>
+      <c r="I104" s="34"/>
       <c r="J104"/>
       <c r="O104"/>
-      <c r="P104" s="59"/>
+      <c r="P104" s="51"/>
       <c r="Q104"/>
     </row>
     <row r="105" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F105"/>
-      <c r="H105" s="62"/>
-      <c r="I105" s="37"/>
+      <c r="H105" s="54"/>
+      <c r="I105" s="34"/>
       <c r="J105"/>
       <c r="O105"/>
-      <c r="P105" s="59"/>
+      <c r="P105" s="51"/>
       <c r="Q105"/>
     </row>
     <row r="106" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F106"/>
-      <c r="H106" s="62"/>
-      <c r="I106" s="37"/>
+      <c r="H106" s="54"/>
+      <c r="I106" s="34"/>
       <c r="J106"/>
       <c r="O106"/>
-      <c r="P106" s="59"/>
+      <c r="P106" s="51"/>
       <c r="Q106"/>
     </row>
     <row r="107" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F107"/>
-      <c r="H107" s="62"/>
-      <c r="I107" s="37"/>
+      <c r="H107" s="54"/>
+      <c r="I107" s="34"/>
       <c r="J107"/>
       <c r="O107"/>
-      <c r="P107" s="59"/>
+      <c r="P107" s="51"/>
       <c r="Q107"/>
     </row>
     <row r="108" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F108"/>
-      <c r="H108" s="62"/>
-      <c r="I108" s="37"/>
+      <c r="H108" s="54"/>
+      <c r="I108" s="34"/>
       <c r="J108"/>
       <c r="O108"/>
-      <c r="P108" s="59"/>
+      <c r="P108" s="51"/>
       <c r="Q108"/>
     </row>
     <row r="109" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F109"/>
-      <c r="H109" s="62"/>
-      <c r="I109" s="37"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="34"/>
       <c r="J109"/>
       <c r="O109"/>
-      <c r="P109" s="59"/>
+      <c r="P109" s="51"/>
       <c r="Q109"/>
     </row>
     <row r="110" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F110"/>
-      <c r="H110" s="62"/>
-      <c r="I110" s="37"/>
+      <c r="H110" s="54"/>
+      <c r="I110" s="34"/>
       <c r="J110"/>
       <c r="O110"/>
-      <c r="P110" s="59"/>
+      <c r="P110" s="51"/>
       <c r="Q110"/>
     </row>
     <row r="111" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F111"/>
-      <c r="H111" s="62"/>
-      <c r="I111" s="37"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="34"/>
       <c r="J111"/>
       <c r="O111"/>
-      <c r="P111" s="59"/>
+      <c r="P111" s="51"/>
       <c r="Q111"/>
     </row>
     <row r="112" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F112"/>
-      <c r="H112" s="62"/>
-      <c r="I112" s="37"/>
+      <c r="H112" s="54"/>
+      <c r="I112" s="34"/>
       <c r="J112"/>
       <c r="O112"/>
-      <c r="P112" s="59"/>
+      <c r="P112" s="51"/>
       <c r="Q112"/>
     </row>
     <row r="113" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F113"/>
-      <c r="H113" s="62"/>
-      <c r="I113" s="37"/>
+      <c r="H113" s="54"/>
+      <c r="I113" s="34"/>
       <c r="J113"/>
       <c r="O113"/>
-      <c r="P113" s="59"/>
+      <c r="P113" s="51"/>
       <c r="Q113"/>
     </row>
     <row r="114" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F114"/>
-      <c r="H114" s="62"/>
-      <c r="I114" s="37"/>
+      <c r="H114" s="54"/>
+      <c r="I114" s="34"/>
       <c r="J114"/>
       <c r="O114"/>
-      <c r="P114" s="59"/>
+      <c r="P114" s="51"/>
       <c r="Q114"/>
     </row>
     <row r="115" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F115"/>
-      <c r="H115" s="62"/>
-      <c r="I115" s="37"/>
+      <c r="H115" s="54"/>
+      <c r="I115" s="34"/>
       <c r="J115"/>
       <c r="O115"/>
-      <c r="P115" s="59"/>
+      <c r="P115" s="51"/>
       <c r="Q115"/>
     </row>
     <row r="116" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F116"/>
-      <c r="H116" s="62"/>
-      <c r="I116" s="37"/>
+      <c r="H116" s="54"/>
+      <c r="I116" s="34"/>
       <c r="J116"/>
       <c r="O116"/>
-      <c r="P116" s="59"/>
+      <c r="P116" s="51"/>
       <c r="Q116"/>
     </row>
     <row r="117" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F117"/>
-      <c r="H117" s="62"/>
-      <c r="I117" s="37"/>
+      <c r="H117" s="54"/>
+      <c r="I117" s="34"/>
       <c r="J117"/>
       <c r="O117"/>
-      <c r="P117" s="59"/>
+      <c r="P117" s="51"/>
       <c r="Q117"/>
     </row>
     <row r="118" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F118"/>
-      <c r="H118" s="62"/>
-      <c r="I118" s="37"/>
+      <c r="H118" s="54"/>
+      <c r="I118" s="34"/>
       <c r="J118"/>
       <c r="O118"/>
-      <c r="P118" s="59"/>
+      <c r="P118" s="51"/>
       <c r="Q118"/>
     </row>
     <row r="119" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F119"/>
-      <c r="H119" s="62"/>
-      <c r="I119" s="37"/>
+      <c r="H119" s="54"/>
+      <c r="I119" s="34"/>
       <c r="J119"/>
       <c r="O119"/>
-      <c r="P119" s="59"/>
+      <c r="P119" s="51"/>
       <c r="Q119"/>
     </row>
     <row r="120" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F120"/>
-      <c r="H120" s="62"/>
-      <c r="I120" s="37"/>
+      <c r="H120" s="54"/>
+      <c r="I120" s="34"/>
       <c r="J120"/>
       <c r="O120"/>
-      <c r="P120" s="59"/>
+      <c r="P120" s="51"/>
       <c r="Q120"/>
     </row>
     <row r="121" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F121"/>
-      <c r="H121" s="62"/>
-      <c r="I121" s="37"/>
+      <c r="H121" s="54"/>
+      <c r="I121" s="34"/>
       <c r="J121"/>
       <c r="O121"/>
-      <c r="P121" s="59"/>
+      <c r="P121" s="51"/>
       <c r="Q121"/>
     </row>
     <row r="122" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F122"/>
-      <c r="H122" s="62"/>
-      <c r="I122" s="37"/>
+      <c r="H122" s="54"/>
+      <c r="I122" s="34"/>
       <c r="J122"/>
       <c r="O122"/>
-      <c r="P122" s="59"/>
+      <c r="P122" s="51"/>
       <c r="Q122"/>
     </row>
     <row r="123" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F123"/>
-      <c r="H123" s="62"/>
-      <c r="I123" s="37"/>
+      <c r="H123" s="54"/>
+      <c r="I123" s="34"/>
       <c r="J123"/>
       <c r="O123"/>
-      <c r="P123" s="59"/>
+      <c r="P123" s="51"/>
       <c r="Q123"/>
     </row>
     <row r="124" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F124"/>
-      <c r="H124" s="62"/>
-      <c r="I124" s="37"/>
+      <c r="H124" s="54"/>
+      <c r="I124" s="34"/>
       <c r="J124"/>
       <c r="O124"/>
-      <c r="P124" s="59"/>
+      <c r="P124" s="51"/>
       <c r="Q124"/>
     </row>
     <row r="125" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F125"/>
-      <c r="H125" s="62"/>
-      <c r="I125" s="37"/>
+      <c r="H125" s="54"/>
+      <c r="I125" s="34"/>
       <c r="J125"/>
       <c r="O125"/>
-      <c r="P125" s="59"/>
+      <c r="P125" s="51"/>
       <c r="Q125"/>
     </row>
     <row r="126" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F126"/>
-      <c r="H126" s="62"/>
-      <c r="I126" s="37"/>
+      <c r="H126" s="54"/>
+      <c r="I126" s="34"/>
       <c r="J126"/>
       <c r="O126"/>
-      <c r="P126" s="59"/>
+      <c r="P126" s="51"/>
       <c r="Q126"/>
     </row>
     <row r="127" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F127"/>
-      <c r="H127" s="62"/>
-      <c r="I127" s="37"/>
+      <c r="H127" s="54"/>
+      <c r="I127" s="34"/>
       <c r="J127"/>
       <c r="O127"/>
-      <c r="P127" s="59"/>
+      <c r="P127" s="51"/>
       <c r="Q127"/>
     </row>
     <row r="128" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F128"/>
-      <c r="H128" s="62"/>
-      <c r="I128" s="37"/>
+      <c r="H128" s="54"/>
+      <c r="I128" s="34"/>
       <c r="J128"/>
       <c r="O128"/>
-      <c r="P128" s="59"/>
+      <c r="P128" s="51"/>
       <c r="Q128"/>
     </row>
     <row r="129" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F129"/>
-      <c r="H129" s="62"/>
-      <c r="I129" s="37"/>
+      <c r="H129" s="54"/>
+      <c r="I129" s="34"/>
       <c r="J129"/>
       <c r="O129"/>
-      <c r="P129" s="59"/>
+      <c r="P129" s="51"/>
       <c r="Q129"/>
     </row>
     <row r="130" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F130"/>
-      <c r="H130" s="62"/>
-      <c r="I130" s="37"/>
+      <c r="H130" s="54"/>
+      <c r="I130" s="34"/>
       <c r="J130"/>
       <c r="O130"/>
-      <c r="P130" s="59"/>
+      <c r="P130" s="51"/>
       <c r="Q130"/>
     </row>
     <row r="131" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F131"/>
-      <c r="H131" s="62"/>
-      <c r="I131" s="37"/>
+      <c r="H131" s="54"/>
+      <c r="I131" s="34"/>
       <c r="J131"/>
       <c r="O131"/>
-      <c r="P131" s="59"/>
+      <c r="P131" s="51"/>
       <c r="Q131"/>
     </row>
     <row r="132" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F132"/>
-      <c r="H132" s="62"/>
-      <c r="I132" s="37"/>
+      <c r="H132" s="54"/>
+      <c r="I132" s="34"/>
       <c r="J132"/>
       <c r="O132"/>
-      <c r="P132" s="59"/>
+      <c r="P132" s="51"/>
       <c r="Q132"/>
     </row>
     <row r="133" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F133"/>
-      <c r="H133" s="62"/>
-      <c r="I133" s="37"/>
+      <c r="H133" s="54"/>
+      <c r="I133" s="34"/>
       <c r="J133"/>
       <c r="O133"/>
-      <c r="P133" s="59"/>
+      <c r="P133" s="51"/>
       <c r="Q133"/>
     </row>
     <row r="134" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F134"/>
-      <c r="H134" s="62"/>
-      <c r="I134" s="37"/>
+      <c r="H134" s="54"/>
+      <c r="I134" s="34"/>
       <c r="J134"/>
       <c r="O134"/>
-      <c r="P134" s="59"/>
+      <c r="P134" s="51"/>
       <c r="Q134"/>
     </row>
     <row r="135" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F135"/>
-      <c r="H135" s="62"/>
-      <c r="I135" s="37"/>
+      <c r="H135" s="54"/>
+      <c r="I135" s="34"/>
       <c r="J135"/>
       <c r="O135"/>
-      <c r="P135" s="59"/>
+      <c r="P135" s="51"/>
       <c r="Q135"/>
     </row>
     <row r="136" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F136"/>
-      <c r="H136" s="62"/>
-      <c r="I136" s="37"/>
+      <c r="H136" s="54"/>
+      <c r="I136" s="34"/>
       <c r="J136"/>
       <c r="O136"/>
-      <c r="P136" s="59"/>
+      <c r="P136" s="51"/>
       <c r="Q136"/>
     </row>
     <row r="137" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F137"/>
-      <c r="H137" s="62"/>
-      <c r="I137" s="37"/>
+      <c r="H137" s="54"/>
+      <c r="I137" s="34"/>
       <c r="J137"/>
       <c r="O137"/>
-      <c r="P137" s="59"/>
+      <c r="P137" s="51"/>
       <c r="Q137"/>
     </row>
     <row r="138" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F138"/>
-      <c r="H138" s="62"/>
-      <c r="I138" s="37"/>
+      <c r="H138" s="54"/>
+      <c r="I138" s="34"/>
       <c r="J138"/>
       <c r="O138"/>
-      <c r="P138" s="59"/>
+      <c r="P138" s="51"/>
       <c r="Q138"/>
     </row>
     <row r="139" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F139"/>
-      <c r="H139" s="62"/>
-      <c r="I139" s="37"/>
+      <c r="H139" s="54"/>
+      <c r="I139" s="34"/>
       <c r="J139"/>
       <c r="O139"/>
-      <c r="P139" s="59"/>
+      <c r="P139" s="51"/>
       <c r="Q139"/>
     </row>
     <row r="140" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F140"/>
-      <c r="H140" s="62"/>
-      <c r="I140" s="37"/>
+      <c r="H140" s="54"/>
+      <c r="I140" s="34"/>
       <c r="J140"/>
       <c r="O140"/>
-      <c r="P140" s="59"/>
+      <c r="P140" s="51"/>
       <c r="Q140"/>
     </row>
     <row r="141" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F141"/>
-      <c r="H141" s="62"/>
-      <c r="I141" s="37"/>
+      <c r="H141" s="54"/>
+      <c r="I141" s="34"/>
       <c r="J141"/>
       <c r="O141"/>
-      <c r="P141" s="59"/>
+      <c r="P141" s="51"/>
       <c r="Q141"/>
     </row>
     <row r="142" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F142"/>
-      <c r="H142" s="62"/>
-      <c r="I142" s="37"/>
+      <c r="H142" s="54"/>
+      <c r="I142" s="34"/>
       <c r="J142"/>
       <c r="O142"/>
-      <c r="P142" s="59"/>
+      <c r="P142" s="51"/>
       <c r="Q142"/>
     </row>
     <row r="143" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F143"/>
-      <c r="H143" s="62"/>
-      <c r="I143" s="37"/>
+      <c r="H143" s="54"/>
+      <c r="I143" s="34"/>
       <c r="J143"/>
       <c r="O143"/>
-      <c r="P143" s="59"/>
+      <c r="P143" s="51"/>
       <c r="Q143"/>
     </row>
     <row r="144" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F144"/>
-      <c r="H144" s="62"/>
-      <c r="I144" s="37"/>
+      <c r="H144" s="54"/>
+      <c r="I144" s="34"/>
       <c r="J144"/>
       <c r="O144"/>
-      <c r="P144" s="59"/>
+      <c r="P144" s="51"/>
       <c r="Q144"/>
     </row>
     <row r="145" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F145"/>
-      <c r="H145" s="62"/>
-      <c r="I145" s="37"/>
+      <c r="H145" s="54"/>
+      <c r="I145" s="34"/>
       <c r="J145"/>
       <c r="O145"/>
-      <c r="P145" s="59"/>
+      <c r="P145" s="51"/>
       <c r="Q145"/>
     </row>
     <row r="146" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F146"/>
-      <c r="H146" s="62"/>
-      <c r="I146" s="37"/>
+      <c r="H146" s="54"/>
+      <c r="I146" s="34"/>
       <c r="J146"/>
       <c r="O146"/>
-      <c r="P146" s="59"/>
+      <c r="P146" s="51"/>
       <c r="Q146"/>
     </row>
     <row r="147" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F147"/>
-      <c r="H147" s="62"/>
-      <c r="I147" s="37"/>
+      <c r="H147" s="54"/>
+      <c r="I147" s="34"/>
       <c r="J147"/>
       <c r="O147"/>
-      <c r="P147" s="59"/>
+      <c r="P147" s="51"/>
       <c r="Q147"/>
     </row>
     <row r="148" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F148"/>
-      <c r="H148" s="62"/>
-      <c r="I148" s="37"/>
+      <c r="H148" s="54"/>
+      <c r="I148" s="34"/>
       <c r="J148"/>
       <c r="O148"/>
-      <c r="P148" s="59"/>
+      <c r="P148" s="51"/>
       <c r="Q148"/>
     </row>
     <row r="149" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F149"/>
-      <c r="H149" s="62"/>
-      <c r="I149" s="37"/>
+      <c r="H149" s="54"/>
+      <c r="I149" s="34"/>
       <c r="J149"/>
       <c r="O149"/>
-      <c r="P149" s="59"/>
+      <c r="P149" s="51"/>
       <c r="Q149"/>
     </row>
     <row r="150" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F150"/>
-      <c r="H150" s="62"/>
-      <c r="I150" s="37"/>
+      <c r="H150" s="54"/>
+      <c r="I150" s="34"/>
       <c r="J150"/>
       <c r="O150"/>
-      <c r="P150" s="59"/>
+      <c r="P150" s="51"/>
       <c r="Q150"/>
     </row>
     <row r="151" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F151"/>
-      <c r="H151" s="62"/>
-      <c r="I151" s="37"/>
+      <c r="H151" s="54"/>
+      <c r="I151" s="34"/>
       <c r="J151"/>
       <c r="O151"/>
-      <c r="P151" s="59"/>
+      <c r="P151" s="51"/>
       <c r="Q151"/>
     </row>
     <row r="152" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F152"/>
-      <c r="H152" s="62"/>
-      <c r="I152" s="37"/>
+      <c r="H152" s="54"/>
+      <c r="I152" s="34"/>
       <c r="J152"/>
       <c r="O152"/>
-      <c r="P152" s="59"/>
+      <c r="P152" s="51"/>
       <c r="Q152"/>
     </row>
     <row r="153" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F153"/>
-      <c r="H153" s="62"/>
-      <c r="I153" s="37"/>
+      <c r="H153" s="54"/>
+      <c r="I153" s="34"/>
       <c r="J153"/>
       <c r="O153"/>
-      <c r="P153" s="59"/>
+      <c r="P153" s="51"/>
       <c r="Q153"/>
     </row>
     <row r="154" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F154"/>
-      <c r="H154" s="62"/>
-      <c r="I154" s="37"/>
+      <c r="H154" s="54"/>
+      <c r="I154" s="34"/>
       <c r="J154"/>
       <c r="O154"/>
-      <c r="P154" s="59"/>
+      <c r="P154" s="51"/>
       <c r="Q154"/>
     </row>
     <row r="155" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F155"/>
-      <c r="H155" s="62"/>
-      <c r="I155" s="37"/>
+      <c r="H155" s="54"/>
+      <c r="I155" s="34"/>
       <c r="J155"/>
       <c r="O155"/>
-      <c r="P155" s="59"/>
+      <c r="P155" s="51"/>
       <c r="Q155"/>
     </row>
     <row r="156" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F156"/>
-      <c r="H156" s="62"/>
-      <c r="I156" s="37"/>
+      <c r="H156" s="54"/>
+      <c r="I156" s="34"/>
       <c r="J156"/>
       <c r="O156"/>
-      <c r="P156" s="59"/>
+      <c r="P156" s="51"/>
       <c r="Q156"/>
     </row>
     <row r="157" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F157"/>
-      <c r="H157" s="62"/>
-      <c r="I157" s="37"/>
+      <c r="H157" s="54"/>
+      <c r="I157" s="34"/>
       <c r="J157"/>
       <c r="O157"/>
-      <c r="P157" s="59"/>
+      <c r="P157" s="51"/>
       <c r="Q157"/>
     </row>
     <row r="158" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F158"/>
-      <c r="H158" s="62"/>
-      <c r="I158" s="37"/>
+      <c r="H158" s="54"/>
+      <c r="I158" s="34"/>
       <c r="J158"/>
       <c r="O158"/>
-      <c r="P158" s="59"/>
+      <c r="P158" s="51"/>
       <c r="Q158"/>
     </row>
     <row r="159" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F159"/>
-      <c r="H159" s="62"/>
-      <c r="I159" s="37"/>
+      <c r="H159" s="54"/>
+      <c r="I159" s="34"/>
       <c r="J159"/>
       <c r="O159"/>
-      <c r="P159" s="59"/>
+      <c r="P159" s="51"/>
       <c r="Q159"/>
     </row>
     <row r="160" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F160"/>
-      <c r="H160" s="62"/>
-      <c r="I160" s="37"/>
+      <c r="H160" s="54"/>
+      <c r="I160" s="34"/>
       <c r="J160"/>
       <c r="O160"/>
-      <c r="P160" s="59"/>
+      <c r="P160" s="51"/>
       <c r="Q160"/>
     </row>
     <row r="161" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F161"/>
-      <c r="H161" s="62"/>
-      <c r="I161" s="37"/>
+      <c r="H161" s="54"/>
+      <c r="I161" s="34"/>
       <c r="J161"/>
       <c r="O161"/>
-      <c r="P161" s="59"/>
+      <c r="P161" s="51"/>
       <c r="Q161"/>
     </row>
     <row r="162" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F162"/>
-      <c r="H162" s="62"/>
-      <c r="I162" s="37"/>
+      <c r="H162" s="54"/>
+      <c r="I162" s="34"/>
       <c r="J162"/>
       <c r="O162"/>
-      <c r="P162" s="59"/>
+      <c r="P162" s="51"/>
       <c r="Q162"/>
     </row>
     <row r="163" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F163"/>
-      <c r="H163" s="62"/>
-      <c r="I163" s="37"/>
+      <c r="H163" s="54"/>
+      <c r="I163" s="34"/>
       <c r="J163"/>
       <c r="O163"/>
-      <c r="P163" s="59"/>
+      <c r="P163" s="51"/>
       <c r="Q163"/>
     </row>
     <row r="164" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F164"/>
-      <c r="H164" s="62"/>
-      <c r="I164" s="37"/>
+      <c r="H164" s="54"/>
+      <c r="I164" s="34"/>
       <c r="J164"/>
       <c r="O164"/>
-      <c r="P164" s="59"/>
+      <c r="P164" s="51"/>
       <c r="Q164"/>
     </row>
     <row r="165" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F165"/>
-      <c r="H165" s="62"/>
-      <c r="I165" s="37"/>
+      <c r="H165" s="54"/>
+      <c r="I165" s="34"/>
       <c r="J165"/>
       <c r="O165"/>
-      <c r="P165" s="59"/>
+      <c r="P165" s="51"/>
       <c r="Q165"/>
     </row>
     <row r="166" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F166"/>
-      <c r="H166" s="62"/>
-      <c r="I166" s="37"/>
+      <c r="H166" s="54"/>
+      <c r="I166" s="34"/>
       <c r="J166"/>
       <c r="O166"/>
-      <c r="P166" s="59"/>
+      <c r="P166" s="51"/>
       <c r="Q166"/>
     </row>
     <row r="167" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F167"/>
-      <c r="H167" s="62"/>
-      <c r="I167" s="37"/>
+      <c r="H167" s="54"/>
+      <c r="I167" s="34"/>
       <c r="J167"/>
       <c r="O167"/>
-      <c r="P167" s="59"/>
+      <c r="P167" s="51"/>
       <c r="Q167"/>
     </row>
     <row r="168" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F168"/>
-      <c r="H168" s="62"/>
-      <c r="I168" s="37"/>
+      <c r="H168" s="54"/>
+      <c r="I168" s="34"/>
       <c r="J168"/>
       <c r="O168"/>
-      <c r="P168" s="59"/>
+      <c r="P168" s="51"/>
       <c r="Q168"/>
     </row>
     <row r="169" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F169"/>
-      <c r="H169" s="62"/>
-      <c r="I169" s="37"/>
+      <c r="H169" s="54"/>
+      <c r="I169" s="34"/>
       <c r="J169"/>
       <c r="O169"/>
-      <c r="P169" s="59"/>
+      <c r="P169" s="51"/>
       <c r="Q169"/>
     </row>
     <row r="170" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F170"/>
-      <c r="H170" s="62"/>
-      <c r="I170" s="37"/>
+      <c r="H170" s="54"/>
+      <c r="I170" s="34"/>
       <c r="J170"/>
       <c r="O170"/>
-      <c r="P170" s="59"/>
+      <c r="P170" s="51"/>
       <c r="Q170"/>
     </row>
     <row r="171" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F171"/>
-      <c r="H171" s="62"/>
-      <c r="I171" s="37"/>
+      <c r="H171" s="54"/>
+      <c r="I171" s="34"/>
       <c r="J171"/>
       <c r="O171"/>
-      <c r="P171" s="59"/>
+      <c r="P171" s="51"/>
       <c r="Q171"/>
     </row>
     <row r="172" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F172"/>
-      <c r="H172" s="62"/>
-      <c r="I172" s="37"/>
+      <c r="H172" s="54"/>
+      <c r="I172" s="34"/>
       <c r="J172"/>
       <c r="O172"/>
-      <c r="P172" s="59"/>
+      <c r="P172" s="51"/>
       <c r="Q172"/>
     </row>
     <row r="173" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F173"/>
-      <c r="H173" s="62"/>
-      <c r="I173" s="37"/>
+      <c r="H173" s="54"/>
+      <c r="I173" s="34"/>
       <c r="J173"/>
       <c r="O173"/>
-      <c r="P173" s="59"/>
+      <c r="P173" s="51"/>
       <c r="Q173"/>
     </row>
     <row r="174" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F174"/>
-      <c r="H174" s="62"/>
-      <c r="I174" s="37"/>
+      <c r="H174" s="54"/>
+      <c r="I174" s="34"/>
       <c r="J174"/>
       <c r="O174"/>
-      <c r="P174" s="59"/>
+      <c r="P174" s="51"/>
       <c r="Q174"/>
     </row>
     <row r="175" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F175"/>
-      <c r="H175" s="62"/>
-      <c r="I175" s="37"/>
+      <c r="H175" s="54"/>
+      <c r="I175" s="34"/>
       <c r="J175"/>
       <c r="O175"/>
-      <c r="P175" s="59"/>
+      <c r="P175" s="51"/>
       <c r="Q175"/>
     </row>
     <row r="176" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F176"/>
-      <c r="H176" s="62"/>
-      <c r="I176" s="37"/>
+      <c r="H176" s="54"/>
+      <c r="I176" s="34"/>
       <c r="J176"/>
       <c r="O176"/>
-      <c r="P176" s="59"/>
+      <c r="P176" s="51"/>
       <c r="Q176"/>
     </row>
     <row r="177" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F177"/>
-      <c r="H177" s="62"/>
-      <c r="I177" s="37"/>
+      <c r="H177" s="54"/>
+      <c r="I177" s="34"/>
       <c r="J177"/>
       <c r="O177"/>
-      <c r="P177" s="59"/>
+      <c r="P177" s="51"/>
       <c r="Q177"/>
     </row>
     <row r="178" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F178"/>
-      <c r="H178" s="62"/>
-      <c r="I178" s="37"/>
+      <c r="H178" s="54"/>
+      <c r="I178" s="34"/>
       <c r="J178"/>
       <c r="O178"/>
-      <c r="P178" s="59"/>
+      <c r="P178" s="51"/>
       <c r="Q178"/>
     </row>
     <row r="179" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F179"/>
-      <c r="H179" s="62"/>
-      <c r="I179" s="37"/>
+      <c r="H179" s="54"/>
+      <c r="I179" s="34"/>
       <c r="J179"/>
       <c r="O179"/>
-      <c r="P179" s="59"/>
+      <c r="P179" s="51"/>
       <c r="Q179"/>
     </row>
     <row r="180" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F180"/>
-      <c r="H180" s="62"/>
-      <c r="I180" s="37"/>
+      <c r="H180" s="54"/>
+      <c r="I180" s="34"/>
       <c r="J180"/>
       <c r="O180"/>
-      <c r="P180" s="59"/>
+      <c r="P180" s="51"/>
       <c r="Q180"/>
     </row>
     <row r="181" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F181"/>
-      <c r="H181" s="62"/>
-      <c r="I181" s="37"/>
+      <c r="H181" s="54"/>
+      <c r="I181" s="34"/>
       <c r="J181"/>
       <c r="O181"/>
-      <c r="P181" s="59"/>
+      <c r="P181" s="51"/>
       <c r="Q181"/>
     </row>
     <row r="182" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F182"/>
-      <c r="H182" s="62"/>
-      <c r="I182" s="37"/>
+      <c r="H182" s="54"/>
+      <c r="I182" s="34"/>
       <c r="J182"/>
       <c r="O182"/>
-      <c r="P182" s="59"/>
+      <c r="P182" s="51"/>
       <c r="Q182"/>
     </row>
     <row r="183" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F183"/>
-      <c r="H183" s="62"/>
-      <c r="I183" s="37"/>
+      <c r="H183" s="54"/>
+      <c r="I183" s="34"/>
       <c r="J183"/>
       <c r="O183"/>
-      <c r="P183" s="59"/>
+      <c r="P183" s="51"/>
       <c r="Q183"/>
     </row>
     <row r="184" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F184"/>
-      <c r="H184" s="62"/>
-      <c r="I184" s="37"/>
+      <c r="H184" s="54"/>
+      <c r="I184" s="34"/>
       <c r="J184"/>
       <c r="O184"/>
-      <c r="P184" s="59"/>
+      <c r="P184" s="51"/>
       <c r="Q184"/>
     </row>
     <row r="185" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F185"/>
-      <c r="H185" s="62"/>
-      <c r="I185" s="37"/>
+      <c r="H185" s="54"/>
+      <c r="I185" s="34"/>
       <c r="J185"/>
       <c r="O185"/>
-      <c r="P185" s="59"/>
+      <c r="P185" s="51"/>
       <c r="Q185"/>
     </row>
     <row r="186" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F186"/>
-      <c r="H186" s="62"/>
-      <c r="I186" s="37"/>
+      <c r="H186" s="54"/>
+      <c r="I186" s="34"/>
       <c r="J186"/>
       <c r="O186"/>
-      <c r="P186" s="59"/>
+      <c r="P186" s="51"/>
       <c r="Q186"/>
     </row>
     <row r="187" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F187"/>
-      <c r="H187" s="62"/>
-      <c r="I187" s="37"/>
+      <c r="H187" s="54"/>
+      <c r="I187" s="34"/>
       <c r="J187"/>
       <c r="O187"/>
-      <c r="P187" s="59"/>
+      <c r="P187" s="51"/>
       <c r="Q187"/>
     </row>
     <row r="188" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F188"/>
-      <c r="H188" s="62"/>
-      <c r="I188" s="37"/>
+      <c r="H188" s="54"/>
+      <c r="I188" s="34"/>
       <c r="J188"/>
       <c r="O188"/>
-      <c r="P188" s="59"/>
+      <c r="P188" s="51"/>
       <c r="Q188"/>
     </row>
     <row r="189" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F189"/>
-      <c r="H189" s="62"/>
-      <c r="I189" s="37"/>
+      <c r="H189" s="54"/>
+      <c r="I189" s="34"/>
       <c r="J189"/>
       <c r="O189"/>
-      <c r="P189" s="59"/>
+      <c r="P189" s="51"/>
       <c r="Q189"/>
     </row>
     <row r="190" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F190"/>
-      <c r="H190" s="62"/>
-      <c r="I190" s="37"/>
+      <c r="H190" s="54"/>
+      <c r="I190" s="34"/>
       <c r="J190"/>
       <c r="O190"/>
-      <c r="P190" s="59"/>
+      <c r="P190" s="51"/>
       <c r="Q190"/>
     </row>
     <row r="191" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F191"/>
-      <c r="H191" s="62"/>
-      <c r="I191" s="37"/>
+      <c r="H191" s="54"/>
+      <c r="I191" s="34"/>
       <c r="J191"/>
       <c r="O191"/>
-      <c r="P191" s="59"/>
+      <c r="P191" s="51"/>
       <c r="Q191"/>
     </row>
     <row r="192" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F192"/>
-      <c r="H192" s="62"/>
-      <c r="I192" s="37"/>
+      <c r="H192" s="54"/>
+      <c r="I192" s="34"/>
       <c r="J192"/>
       <c r="O192"/>
-      <c r="P192" s="59"/>
+      <c r="P192" s="51"/>
       <c r="Q192"/>
     </row>
     <row r="193" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F193"/>
-      <c r="H193" s="62"/>
-      <c r="I193" s="37"/>
+      <c r="H193" s="54"/>
+      <c r="I193" s="34"/>
       <c r="J193"/>
       <c r="O193"/>
-      <c r="P193" s="59"/>
+      <c r="P193" s="51"/>
       <c r="Q193"/>
     </row>
     <row r="194" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F194"/>
-      <c r="H194" s="62"/>
-      <c r="I194" s="37"/>
+      <c r="H194" s="54"/>
+      <c r="I194" s="34"/>
       <c r="J194"/>
       <c r="O194"/>
-      <c r="P194" s="59"/>
+      <c r="P194" s="51"/>
       <c r="Q194"/>
     </row>
     <row r="195" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F195"/>
-      <c r="H195" s="62"/>
-      <c r="I195" s="37"/>
+      <c r="H195" s="54"/>
+      <c r="I195" s="34"/>
       <c r="J195"/>
       <c r="O195"/>
-      <c r="P195" s="59"/>
+      <c r="P195" s="51"/>
       <c r="Q195"/>
     </row>
     <row r="196" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F196"/>
-      <c r="H196" s="62"/>
-      <c r="I196" s="37"/>
+      <c r="H196" s="54"/>
+      <c r="I196" s="34"/>
       <c r="J196"/>
       <c r="O196"/>
-      <c r="P196" s="59"/>
+      <c r="P196" s="51"/>
       <c r="Q196"/>
     </row>
     <row r="197" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F197"/>
-      <c r="H197" s="62"/>
-      <c r="I197" s="37"/>
+      <c r="H197" s="54"/>
+      <c r="I197" s="34"/>
       <c r="J197"/>
       <c r="O197"/>
-      <c r="P197" s="59"/>
+      <c r="P197" s="51"/>
       <c r="Q197"/>
     </row>
     <row r="198" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F198"/>
-      <c r="H198" s="62"/>
-      <c r="I198" s="37"/>
+      <c r="H198" s="54"/>
+      <c r="I198" s="34"/>
       <c r="J198"/>
       <c r="O198"/>
-      <c r="P198" s="59"/>
+      <c r="P198" s="51"/>
       <c r="Q198"/>
     </row>
     <row r="199" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F199"/>
-      <c r="H199" s="62"/>
-      <c r="I199" s="37"/>
+      <c r="H199" s="54"/>
+      <c r="I199" s="34"/>
       <c r="J199"/>
       <c r="O199"/>
-      <c r="P199" s="59"/>
+      <c r="P199" s="51"/>
       <c r="Q199"/>
     </row>
     <row r="200" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F200"/>
-      <c r="H200" s="62"/>
-      <c r="I200" s="37"/>
+      <c r="H200" s="54"/>
+      <c r="I200" s="34"/>
       <c r="J200"/>
       <c r="O200"/>
-      <c r="P200" s="59"/>
+      <c r="P200" s="51"/>
       <c r="Q200"/>
     </row>
     <row r="201" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F201"/>
-      <c r="H201" s="62"/>
-      <c r="I201" s="37"/>
+      <c r="H201" s="54"/>
+      <c r="I201" s="34"/>
       <c r="J201"/>
       <c r="O201"/>
-      <c r="P201" s="59"/>
+      <c r="P201" s="51"/>
       <c r="Q201"/>
     </row>
     <row r="202" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F202"/>
-      <c r="H202" s="62"/>
-      <c r="I202" s="37"/>
+      <c r="H202" s="54"/>
+      <c r="I202" s="34"/>
       <c r="J202"/>
       <c r="O202"/>
-      <c r="P202" s="59"/>
+      <c r="P202" s="51"/>
       <c r="Q202"/>
     </row>
     <row r="203" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F203"/>
-      <c r="H203" s="62"/>
-      <c r="I203" s="37"/>
+      <c r="H203" s="54"/>
+      <c r="I203" s="34"/>
       <c r="J203"/>
       <c r="O203"/>
-      <c r="P203" s="59"/>
+      <c r="P203" s="51"/>
       <c r="Q203"/>
     </row>
     <row r="204" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F204"/>
-      <c r="H204" s="62"/>
-      <c r="I204" s="37"/>
+      <c r="H204" s="54"/>
+      <c r="I204" s="34"/>
       <c r="J204"/>
       <c r="O204"/>
-      <c r="P204" s="59"/>
+      <c r="P204" s="51"/>
       <c r="Q204"/>
     </row>
     <row r="205" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F205"/>
-      <c r="H205" s="62"/>
-      <c r="I205" s="37"/>
+      <c r="H205" s="54"/>
+      <c r="I205" s="34"/>
       <c r="J205"/>
       <c r="O205"/>
-      <c r="P205" s="59"/>
+      <c r="P205" s="51"/>
       <c r="Q205"/>
     </row>
     <row r="206" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F206"/>
-      <c r="H206" s="62"/>
-      <c r="I206" s="37"/>
+      <c r="H206" s="54"/>
+      <c r="I206" s="34"/>
       <c r="J206"/>
       <c r="O206"/>
-      <c r="P206" s="59"/>
+      <c r="P206" s="51"/>
       <c r="Q206"/>
     </row>
     <row r="207" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F207"/>
-      <c r="H207" s="62"/>
-      <c r="I207" s="37"/>
+      <c r="H207" s="54"/>
+      <c r="I207" s="34"/>
       <c r="J207"/>
       <c r="O207"/>
-      <c r="P207" s="59"/>
+      <c r="P207" s="51"/>
       <c r="Q207"/>
     </row>
     <row r="208" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F208"/>
-      <c r="H208" s="62"/>
-      <c r="I208" s="37"/>
+      <c r="H208" s="54"/>
+      <c r="I208" s="34"/>
       <c r="J208"/>
       <c r="O208"/>
-      <c r="P208" s="59"/>
+      <c r="P208" s="51"/>
       <c r="Q208"/>
     </row>
     <row r="209" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F209"/>
-      <c r="H209" s="62"/>
-      <c r="I209" s="37"/>
+      <c r="H209" s="54"/>
+      <c r="I209" s="34"/>
       <c r="J209"/>
       <c r="O209"/>
-      <c r="P209" s="59"/>
+      <c r="P209" s="51"/>
       <c r="Q209"/>
     </row>
     <row r="210" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F210"/>
-      <c r="H210" s="62"/>
-      <c r="I210" s="37"/>
+      <c r="H210" s="54"/>
+      <c r="I210" s="34"/>
       <c r="J210"/>
       <c r="O210"/>
-      <c r="P210" s="59"/>
+      <c r="P210" s="51"/>
       <c r="Q210"/>
     </row>
     <row r="211" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F211"/>
-      <c r="H211" s="62"/>
-      <c r="I211" s="37"/>
+      <c r="H211" s="54"/>
+      <c r="I211" s="34"/>
       <c r="J211"/>
       <c r="O211"/>
-      <c r="P211" s="59"/>
+      <c r="P211" s="51"/>
       <c r="Q211"/>
     </row>
     <row r="212" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F212"/>
-      <c r="H212" s="62"/>
-      <c r="I212" s="37"/>
+      <c r="H212" s="54"/>
+      <c r="I212" s="34"/>
       <c r="J212"/>
       <c r="O212"/>
-      <c r="P212" s="59"/>
+      <c r="P212" s="51"/>
       <c r="Q212"/>
     </row>
     <row r="213" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F213"/>
-      <c r="H213" s="62"/>
-      <c r="I213" s="37"/>
+      <c r="H213" s="54"/>
+      <c r="I213" s="34"/>
       <c r="J213"/>
       <c r="O213"/>
-      <c r="P213" s="59"/>
+      <c r="P213" s="51"/>
       <c r="Q213"/>
     </row>
     <row r="214" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F214"/>
-      <c r="H214" s="62"/>
-      <c r="I214" s="37"/>
+      <c r="H214" s="54"/>
+      <c r="I214" s="34"/>
       <c r="J214"/>
       <c r="O214"/>
-      <c r="P214" s="59"/>
+      <c r="P214" s="51"/>
       <c r="Q214"/>
     </row>
     <row r="215" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F215"/>
-      <c r="H215" s="62"/>
-      <c r="I215" s="37"/>
+      <c r="H215" s="54"/>
+      <c r="I215" s="34"/>
       <c r="J215"/>
       <c r="O215"/>
-      <c r="P215" s="59"/>
+      <c r="P215" s="51"/>
       <c r="Q215"/>
     </row>
     <row r="216" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F216"/>
-      <c r="H216" s="62"/>
-      <c r="I216" s="37"/>
+      <c r="H216" s="54"/>
+      <c r="I216" s="34"/>
       <c r="J216"/>
       <c r="O216"/>
-      <c r="P216" s="59"/>
+      <c r="P216" s="51"/>
       <c r="Q216"/>
     </row>
     <row r="217" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F217"/>
-      <c r="H217" s="62"/>
-      <c r="I217" s="37"/>
+      <c r="H217" s="54"/>
+      <c r="I217" s="34"/>
       <c r="J217"/>
       <c r="O217"/>
-      <c r="P217" s="59"/>
+      <c r="P217" s="51"/>
       <c r="Q217"/>
     </row>
     <row r="218" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F218"/>
-      <c r="H218" s="62"/>
-      <c r="I218" s="37"/>
+      <c r="H218" s="54"/>
+      <c r="I218" s="34"/>
       <c r="J218"/>
       <c r="O218"/>
-      <c r="P218" s="59"/>
+      <c r="P218" s="51"/>
       <c r="Q218"/>
     </row>
     <row r="219" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F219"/>
-      <c r="H219" s="62"/>
-      <c r="I219" s="37"/>
+      <c r="H219" s="54"/>
+      <c r="I219" s="34"/>
       <c r="J219"/>
       <c r="O219"/>
-      <c r="P219" s="59"/>
+      <c r="P219" s="51"/>
       <c r="Q219"/>
     </row>
     <row r="220" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F220"/>
-      <c r="H220" s="62"/>
-      <c r="I220" s="37"/>
+      <c r="H220" s="54"/>
+      <c r="I220" s="34"/>
       <c r="J220"/>
       <c r="O220"/>
-      <c r="P220" s="59"/>
+      <c r="P220" s="51"/>
       <c r="Q220"/>
     </row>
     <row r="221" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F221"/>
-      <c r="H221" s="62"/>
-      <c r="I221" s="37"/>
+      <c r="H221" s="54"/>
+      <c r="I221" s="34"/>
       <c r="J221"/>
       <c r="O221"/>
-      <c r="P221" s="59"/>
+      <c r="P221" s="51"/>
       <c r="Q221"/>
     </row>
     <row r="222" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F222"/>
-      <c r="H222" s="62"/>
-      <c r="I222" s="37"/>
+      <c r="H222" s="54"/>
+      <c r="I222" s="34"/>
       <c r="J222"/>
       <c r="O222"/>
-      <c r="P222" s="59"/>
+      <c r="P222" s="51"/>
       <c r="Q222"/>
     </row>
     <row r="223" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F223"/>
-      <c r="H223" s="62"/>
-      <c r="I223" s="37"/>
+      <c r="H223" s="54"/>
+      <c r="I223" s="34"/>
       <c r="J223"/>
       <c r="O223"/>
-      <c r="P223" s="59"/>
+      <c r="P223" s="51"/>
       <c r="Q223"/>
     </row>
     <row r="224" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F224"/>
-      <c r="H224" s="62"/>
-      <c r="I224" s="37"/>
+      <c r="H224" s="54"/>
+      <c r="I224" s="34"/>
       <c r="J224"/>
       <c r="O224"/>
-      <c r="P224" s="59"/>
+      <c r="P224" s="51"/>
       <c r="Q224"/>
     </row>
     <row r="225" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F225"/>
-      <c r="H225" s="62"/>
-      <c r="I225" s="37"/>
+      <c r="H225" s="54"/>
+      <c r="I225" s="34"/>
       <c r="J225"/>
       <c r="O225"/>
-      <c r="P225" s="59"/>
+      <c r="P225" s="51"/>
       <c r="Q225"/>
     </row>
     <row r="226" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F226"/>
-      <c r="H226" s="62"/>
-      <c r="I226" s="37"/>
+      <c r="H226" s="54"/>
+      <c r="I226" s="34"/>
       <c r="J226"/>
       <c r="O226"/>
-      <c r="P226" s="59"/>
+      <c r="P226" s="51"/>
       <c r="Q226"/>
     </row>
     <row r="227" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F227"/>
-      <c r="H227" s="62"/>
-      <c r="I227" s="37"/>
+      <c r="H227" s="54"/>
+      <c r="I227" s="34"/>
       <c r="J227"/>
       <c r="O227"/>
-      <c r="P227" s="59"/>
+      <c r="P227" s="51"/>
       <c r="Q227"/>
     </row>
     <row r="228" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F228"/>
-      <c r="H228" s="62"/>
-      <c r="I228" s="37"/>
+      <c r="H228" s="54"/>
+      <c r="I228" s="34"/>
       <c r="J228"/>
       <c r="O228"/>
-      <c r="P228" s="59"/>
+      <c r="P228" s="51"/>
       <c r="Q228"/>
     </row>
     <row r="229" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F229"/>
-      <c r="H229" s="62"/>
-      <c r="I229" s="37"/>
+      <c r="H229" s="54"/>
+      <c r="I229" s="34"/>
       <c r="J229"/>
       <c r="O229"/>
-      <c r="P229" s="59"/>
+      <c r="P229" s="51"/>
       <c r="Q229"/>
     </row>
     <row r="230" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F230"/>
-      <c r="H230" s="62"/>
-      <c r="I230" s="37"/>
+      <c r="H230" s="54"/>
+      <c r="I230" s="34"/>
       <c r="J230"/>
       <c r="O230"/>
-      <c r="P230" s="59"/>
+      <c r="P230" s="51"/>
       <c r="Q230"/>
     </row>
     <row r="231" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F231"/>
-      <c r="H231" s="62"/>
-      <c r="I231" s="37"/>
+      <c r="H231" s="54"/>
+      <c r="I231" s="34"/>
       <c r="J231"/>
       <c r="O231"/>
-      <c r="P231" s="59"/>
+      <c r="P231" s="51"/>
       <c r="Q231"/>
     </row>
     <row r="232" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F232"/>
-      <c r="H232" s="62"/>
-      <c r="I232" s="37"/>
+      <c r="H232" s="54"/>
+      <c r="I232" s="34"/>
       <c r="J232"/>
       <c r="O232"/>
-      <c r="P232" s="59"/>
+      <c r="P232" s="51"/>
       <c r="Q232"/>
     </row>
     <row r="233" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F233"/>
-      <c r="H233" s="62"/>
-      <c r="I233" s="37"/>
+      <c r="H233" s="54"/>
+      <c r="I233" s="34"/>
       <c r="J233"/>
       <c r="O233"/>
-      <c r="P233" s="59"/>
+      <c r="P233" s="51"/>
       <c r="Q233"/>
     </row>
     <row r="234" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F234"/>
-      <c r="H234" s="62"/>
-      <c r="I234" s="37"/>
+      <c r="H234" s="54"/>
+      <c r="I234" s="34"/>
       <c r="J234"/>
       <c r="O234"/>
-      <c r="P234" s="59"/>
+      <c r="P234" s="51"/>
       <c r="Q234"/>
     </row>
     <row r="235" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F235"/>
-      <c r="H235" s="62"/>
-      <c r="I235" s="37"/>
+      <c r="H235" s="54"/>
+      <c r="I235" s="34"/>
       <c r="J235"/>
       <c r="O235"/>
-      <c r="P235" s="59"/>
+      <c r="P235" s="51"/>
       <c r="Q235"/>
     </row>
     <row r="236" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F236"/>
-      <c r="H236" s="62"/>
-      <c r="I236" s="37"/>
+      <c r="H236" s="54"/>
+      <c r="I236" s="34"/>
       <c r="J236"/>
       <c r="O236"/>
-      <c r="P236" s="59"/>
+      <c r="P236" s="51"/>
       <c r="Q236"/>
     </row>
     <row r="237" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F237"/>
-      <c r="H237" s="62"/>
-      <c r="I237" s="37"/>
+      <c r="H237" s="54"/>
+      <c r="I237" s="34"/>
       <c r="J237"/>
       <c r="O237"/>
-      <c r="P237" s="59"/>
+      <c r="P237" s="51"/>
       <c r="Q237"/>
     </row>
     <row r="238" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F238"/>
-      <c r="H238" s="62"/>
-      <c r="I238" s="37"/>
+      <c r="H238" s="54"/>
+      <c r="I238" s="34"/>
       <c r="J238"/>
       <c r="O238"/>
-      <c r="P238" s="59"/>
+      <c r="P238" s="51"/>
       <c r="Q238"/>
     </row>
     <row r="239" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F239"/>
-      <c r="H239" s="62"/>
-      <c r="I239" s="37"/>
+      <c r="H239" s="54"/>
+      <c r="I239" s="34"/>
       <c r="J239"/>
       <c r="O239"/>
-      <c r="P239" s="59"/>
+      <c r="P239" s="51"/>
       <c r="Q239"/>
     </row>
     <row r="240" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F240"/>
-      <c r="H240" s="62"/>
-      <c r="I240" s="37"/>
+      <c r="H240" s="54"/>
+      <c r="I240" s="34"/>
       <c r="J240"/>
       <c r="O240"/>
-      <c r="P240" s="59"/>
+      <c r="P240" s="51"/>
       <c r="Q240"/>
     </row>
     <row r="241" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F241"/>
-      <c r="H241" s="62"/>
-      <c r="I241" s="37"/>
+      <c r="H241" s="54"/>
+      <c r="I241" s="34"/>
       <c r="J241"/>
       <c r="O241"/>
-      <c r="P241" s="59"/>
+      <c r="P241" s="51"/>
       <c r="Q241"/>
     </row>
     <row r="242" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F242"/>
-      <c r="H242" s="62"/>
-      <c r="I242" s="37"/>
+      <c r="H242" s="54"/>
+      <c r="I242" s="34"/>
       <c r="J242"/>
       <c r="O242"/>
-      <c r="P242" s="59"/>
+      <c r="P242" s="51"/>
       <c r="Q242"/>
     </row>
     <row r="243" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F243"/>
-      <c r="H243" s="62"/>
-      <c r="I243" s="37"/>
+      <c r="H243" s="54"/>
+      <c r="I243" s="34"/>
       <c r="J243"/>
       <c r="O243"/>
-      <c r="P243" s="59"/>
+      <c r="P243" s="51"/>
       <c r="Q243"/>
     </row>
     <row r="244" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F244"/>
-      <c r="H244" s="62"/>
-      <c r="I244" s="37"/>
+      <c r="H244" s="54"/>
+      <c r="I244" s="34"/>
       <c r="J244"/>
       <c r="O244"/>
-      <c r="P244" s="59"/>
+      <c r="P244" s="51"/>
       <c r="Q244"/>
     </row>
     <row r="245" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F245"/>
-      <c r="H245" s="62"/>
-      <c r="I245" s="37"/>
+      <c r="H245" s="54"/>
+      <c r="I245" s="34"/>
       <c r="J245"/>
       <c r="O245"/>
-      <c r="P245" s="59"/>
+      <c r="P245" s="51"/>
       <c r="Q245"/>
     </row>
     <row r="246" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F246"/>
-      <c r="H246" s="62"/>
-      <c r="I246" s="37"/>
+      <c r="H246" s="54"/>
+      <c r="I246" s="34"/>
       <c r="J246"/>
       <c r="O246"/>
-      <c r="P246" s="59"/>
+      <c r="P246" s="51"/>
       <c r="Q246"/>
     </row>
     <row r="247" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F247"/>
-      <c r="H247" s="62"/>
-      <c r="I247" s="37"/>
+      <c r="H247" s="54"/>
+      <c r="I247" s="34"/>
       <c r="J247"/>
       <c r="O247"/>
-      <c r="P247" s="59"/>
+      <c r="P247" s="51"/>
       <c r="Q247"/>
     </row>
     <row r="248" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F248"/>
-      <c r="H248" s="62"/>
-      <c r="I248" s="37"/>
+      <c r="H248" s="54"/>
+      <c r="I248" s="34"/>
       <c r="J248"/>
       <c r="O248"/>
-      <c r="P248" s="59"/>
+      <c r="P248" s="51"/>
       <c r="Q248"/>
     </row>
     <row r="249" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F249"/>
-      <c r="H249" s="62"/>
-      <c r="I249" s="37"/>
+      <c r="H249" s="54"/>
+      <c r="I249" s="34"/>
       <c r="J249"/>
       <c r="O249"/>
-      <c r="P249" s="59"/>
+      <c r="P249" s="51"/>
       <c r="Q249"/>
     </row>
     <row r="250" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F250"/>
-      <c r="H250" s="62"/>
-      <c r="I250" s="37"/>
+      <c r="H250" s="54"/>
+      <c r="I250" s="34"/>
       <c r="J250"/>
       <c r="O250"/>
-      <c r="P250" s="59"/>
+      <c r="P250" s="51"/>
       <c r="Q250"/>
     </row>
     <row r="251" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F251"/>
-      <c r="H251" s="62"/>
-      <c r="I251" s="37"/>
+      <c r="H251" s="54"/>
+      <c r="I251" s="34"/>
       <c r="J251"/>
       <c r="O251"/>
-      <c r="P251" s="59"/>
+      <c r="P251" s="51"/>
       <c r="Q251"/>
     </row>
     <row r="252" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F252"/>
-      <c r="H252" s="62"/>
-      <c r="I252" s="37"/>
+      <c r="H252" s="54"/>
+      <c r="I252" s="34"/>
       <c r="J252"/>
       <c r="O252"/>
-      <c r="P252" s="59"/>
+      <c r="P252" s="51"/>
       <c r="Q252"/>
     </row>
     <row r="253" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F253"/>
-      <c r="H253" s="62"/>
-      <c r="I253" s="37"/>
+      <c r="H253" s="54"/>
+      <c r="I253" s="34"/>
       <c r="J253"/>
       <c r="O253"/>
-      <c r="P253" s="59"/>
+      <c r="P253" s="51"/>
       <c r="Q253"/>
     </row>
     <row r="254" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F254"/>
-      <c r="H254" s="62"/>
-      <c r="I254" s="37"/>
+      <c r="H254" s="54"/>
+      <c r="I254" s="34"/>
       <c r="J254"/>
       <c r="O254"/>
-      <c r="P254" s="59"/>
+      <c r="P254" s="51"/>
       <c r="Q254"/>
     </row>
     <row r="255" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F255"/>
-      <c r="H255" s="62"/>
-      <c r="I255" s="37"/>
+      <c r="H255" s="54"/>
+      <c r="I255" s="34"/>
       <c r="J255"/>
       <c r="O255"/>
-      <c r="P255" s="59"/>
+      <c r="P255" s="51"/>
       <c r="Q255"/>
     </row>
     <row r="256" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F256"/>
-      <c r="H256" s="62"/>
-      <c r="I256" s="37"/>
+      <c r="H256" s="54"/>
+      <c r="I256" s="34"/>
       <c r="J256"/>
       <c r="O256"/>
-      <c r="P256" s="59"/>
+      <c r="P256" s="51"/>
       <c r="Q256"/>
     </row>
     <row r="257" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F257"/>
-      <c r="H257" s="62"/>
-      <c r="I257" s="37"/>
+      <c r="H257" s="54"/>
+      <c r="I257" s="34"/>
       <c r="J257"/>
       <c r="O257"/>
-      <c r="P257" s="59"/>
+      <c r="P257" s="51"/>
       <c r="Q257"/>
     </row>
     <row r="258" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F258"/>
-      <c r="H258" s="62"/>
-      <c r="I258" s="37"/>
+      <c r="H258" s="54"/>
+      <c r="I258" s="34"/>
       <c r="J258"/>
       <c r="O258"/>
-      <c r="P258" s="59"/>
+      <c r="P258" s="51"/>
       <c r="Q258"/>
     </row>
     <row r="259" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F259"/>
-      <c r="H259" s="62"/>
-      <c r="I259" s="37"/>
+      <c r="H259" s="54"/>
+      <c r="I259" s="34"/>
       <c r="J259"/>
       <c r="O259"/>
-      <c r="P259" s="59"/>
+      <c r="P259" s="51"/>
       <c r="Q259"/>
     </row>
     <row r="260" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F260"/>
-      <c r="H260" s="62"/>
-      <c r="I260" s="37"/>
+      <c r="H260" s="54"/>
+      <c r="I260" s="34"/>
       <c r="J260"/>
       <c r="O260"/>
-      <c r="P260" s="59"/>
+      <c r="P260" s="51"/>
       <c r="Q260"/>
     </row>
     <row r="261" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F261"/>
-      <c r="H261" s="62"/>
-      <c r="I261" s="37"/>
+      <c r="H261" s="54"/>
+      <c r="I261" s="34"/>
       <c r="J261"/>
       <c r="O261"/>
-      <c r="P261" s="59"/>
+      <c r="P261" s="51"/>
       <c r="Q261"/>
     </row>
     <row r="262" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F262"/>
-      <c r="H262" s="62"/>
-      <c r="I262" s="37"/>
+      <c r="H262" s="54"/>
+      <c r="I262" s="34"/>
       <c r="J262"/>
       <c r="O262"/>
-      <c r="P262" s="59"/>
+      <c r="P262" s="51"/>
       <c r="Q262"/>
     </row>
     <row r="263" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F263"/>
-      <c r="H263" s="62"/>
-      <c r="I263" s="37"/>
+      <c r="H263" s="54"/>
+      <c r="I263" s="34"/>
       <c r="J263"/>
       <c r="O263"/>
-      <c r="P263" s="59"/>
+      <c r="P263" s="51"/>
       <c r="Q263"/>
     </row>
     <row r="264" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F264"/>
-      <c r="H264" s="62"/>
-      <c r="I264" s="37"/>
+      <c r="H264" s="54"/>
+      <c r="I264" s="34"/>
       <c r="J264"/>
       <c r="O264"/>
-      <c r="P264" s="59"/>
+      <c r="P264" s="51"/>
       <c r="Q264"/>
     </row>
     <row r="265" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F265"/>
-      <c r="H265" s="62"/>
-      <c r="I265" s="37"/>
+      <c r="H265" s="54"/>
+      <c r="I265" s="34"/>
       <c r="J265"/>
       <c r="O265"/>
-      <c r="P265" s="59"/>
+      <c r="P265" s="51"/>
       <c r="Q265"/>
     </row>
     <row r="266" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F266"/>
-      <c r="H266" s="62"/>
-      <c r="I266" s="37"/>
+      <c r="H266" s="54"/>
+      <c r="I266" s="34"/>
       <c r="J266"/>
       <c r="O266"/>
-      <c r="P266" s="59"/>
+      <c r="P266" s="51"/>
       <c r="Q266"/>
     </row>
     <row r="267" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F267"/>
-      <c r="H267" s="62"/>
-      <c r="I267" s="37"/>
+      <c r="H267" s="54"/>
+      <c r="I267" s="34"/>
       <c r="J267"/>
       <c r="O267"/>
-      <c r="P267" s="59"/>
+      <c r="P267" s="51"/>
       <c r="Q267"/>
     </row>
     <row r="268" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F268"/>
-      <c r="H268" s="62"/>
-      <c r="I268" s="37"/>
+      <c r="H268" s="54"/>
+      <c r="I268" s="34"/>
       <c r="J268"/>
       <c r="O268"/>
-      <c r="P268" s="59"/>
+      <c r="P268" s="51"/>
       <c r="Q268"/>
     </row>
     <row r="269" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F269"/>
-      <c r="H269" s="62"/>
-      <c r="I269" s="37"/>
+      <c r="H269" s="54"/>
+      <c r="I269" s="34"/>
       <c r="J269"/>
       <c r="O269"/>
-      <c r="P269" s="59"/>
+      <c r="P269" s="51"/>
       <c r="Q269"/>
     </row>
     <row r="270" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F270"/>
-      <c r="H270" s="62"/>
-      <c r="I270" s="37"/>
+      <c r="H270" s="54"/>
+      <c r="I270" s="34"/>
       <c r="J270"/>
       <c r="O270"/>
-      <c r="P270" s="59"/>
+      <c r="P270" s="51"/>
       <c r="Q270"/>
     </row>
     <row r="271" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F271"/>
-      <c r="H271" s="62"/>
-      <c r="I271" s="37"/>
+      <c r="H271" s="54"/>
+      <c r="I271" s="34"/>
       <c r="J271"/>
       <c r="O271"/>
-      <c r="P271" s="59"/>
+      <c r="P271" s="51"/>
       <c r="Q271"/>
     </row>
     <row r="272" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F272"/>
-      <c r="H272" s="62"/>
-      <c r="I272" s="37"/>
+      <c r="H272" s="54"/>
+      <c r="I272" s="34"/>
       <c r="J272"/>
       <c r="O272"/>
-      <c r="P272" s="59"/>
+      <c r="P272" s="51"/>
       <c r="Q272"/>
     </row>
     <row r="273" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F273"/>
-      <c r="H273" s="62"/>
-      <c r="I273" s="37"/>
+      <c r="H273" s="54"/>
+      <c r="I273" s="34"/>
       <c r="J273"/>
       <c r="O273"/>
-      <c r="P273" s="59"/>
+      <c r="P273" s="51"/>
       <c r="Q273"/>
     </row>
     <row r="274" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F274"/>
-      <c r="H274" s="62"/>
-      <c r="I274" s="37"/>
+      <c r="H274" s="54"/>
+      <c r="I274" s="34"/>
       <c r="J274"/>
       <c r="O274"/>
-      <c r="P274" s="59"/>
+      <c r="P274" s="51"/>
       <c r="Q274"/>
     </row>
     <row r="275" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F275"/>
-      <c r="H275" s="62"/>
-      <c r="I275" s="37"/>
+      <c r="H275" s="54"/>
+      <c r="I275" s="34"/>
       <c r="J275"/>
       <c r="O275"/>
-      <c r="P275" s="59"/>
+      <c r="P275" s="51"/>
       <c r="Q275"/>
     </row>
     <row r="276" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F276"/>
-      <c r="H276" s="62"/>
-      <c r="I276" s="37"/>
+      <c r="H276" s="54"/>
+      <c r="I276" s="34"/>
       <c r="J276"/>
       <c r="O276"/>
-      <c r="P276" s="59"/>
+      <c r="P276" s="51"/>
       <c r="Q276"/>
     </row>
     <row r="277" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F277"/>
-      <c r="H277" s="62"/>
-      <c r="I277" s="37"/>
+      <c r="H277" s="54"/>
+      <c r="I277" s="34"/>
       <c r="J277"/>
       <c r="O277"/>
-      <c r="P277" s="59"/>
+      <c r="P277" s="51"/>
       <c r="Q277"/>
     </row>
     <row r="278" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F278"/>
-      <c r="H278" s="62"/>
-      <c r="I278" s="37"/>
+      <c r="H278" s="54"/>
+      <c r="I278" s="34"/>
       <c r="J278"/>
       <c r="O278"/>
-      <c r="P278" s="59"/>
+      <c r="P278" s="51"/>
       <c r="Q278"/>
     </row>
     <row r="279" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F279"/>
-      <c r="H279" s="62"/>
-      <c r="I279" s="37"/>
+      <c r="H279" s="54"/>
+      <c r="I279" s="34"/>
       <c r="J279"/>
       <c r="O279"/>
-      <c r="P279" s="59"/>
+      <c r="P279" s="51"/>
       <c r="Q279"/>
     </row>
     <row r="280" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F280"/>
-      <c r="H280" s="62"/>
-      <c r="I280" s="37"/>
+      <c r="H280" s="54"/>
+      <c r="I280" s="34"/>
       <c r="J280"/>
       <c r="O280"/>
-      <c r="P280" s="59"/>
+      <c r="P280" s="51"/>
       <c r="Q280"/>
     </row>
     <row r="281" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F281"/>
-      <c r="H281" s="62"/>
-      <c r="I281" s="37"/>
+      <c r="H281" s="54"/>
+      <c r="I281" s="34"/>
       <c r="J281"/>
       <c r="O281"/>
-      <c r="P281" s="59"/>
+      <c r="P281" s="51"/>
       <c r="Q281"/>
     </row>
     <row r="282" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F282"/>
-      <c r="H282" s="62"/>
-      <c r="I282" s="37"/>
+      <c r="H282" s="54"/>
+      <c r="I282" s="34"/>
       <c r="J282"/>
       <c r="O282"/>
-      <c r="P282" s="59"/>
+      <c r="P282" s="51"/>
       <c r="Q282"/>
     </row>
     <row r="283" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F283"/>
-      <c r="H283" s="62"/>
-      <c r="I283" s="37"/>
+      <c r="H283" s="54"/>
+      <c r="I283" s="34"/>
       <c r="J283"/>
       <c r="O283"/>
-      <c r="P283" s="59"/>
+      <c r="P283" s="51"/>
       <c r="Q283"/>
     </row>
     <row r="284" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F284"/>
-      <c r="H284" s="62"/>
-      <c r="I284" s="37"/>
+      <c r="H284" s="54"/>
+      <c r="I284" s="34"/>
       <c r="J284"/>
       <c r="O284"/>
-      <c r="P284" s="59"/>
+      <c r="P284" s="51"/>
       <c r="Q284"/>
     </row>
     <row r="285" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F285"/>
-      <c r="H285" s="62"/>
-      <c r="I285" s="37"/>
+      <c r="H285" s="54"/>
+      <c r="I285" s="34"/>
       <c r="J285"/>
       <c r="O285"/>
-      <c r="P285" s="59"/>
+      <c r="P285" s="51"/>
       <c r="Q285"/>
     </row>
     <row r="286" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F286"/>
-      <c r="H286" s="62"/>
-      <c r="I286" s="37"/>
+      <c r="H286" s="54"/>
+      <c r="I286" s="34"/>
       <c r="J286"/>
       <c r="O286"/>
-      <c r="P286" s="59"/>
+      <c r="P286" s="51"/>
       <c r="Q286"/>
     </row>
     <row r="287" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F287"/>
-      <c r="H287" s="62"/>
-      <c r="I287" s="37"/>
+      <c r="H287" s="54"/>
+      <c r="I287" s="34"/>
       <c r="J287"/>
       <c r="O287"/>
-      <c r="P287" s="59"/>
+      <c r="P287" s="51"/>
       <c r="Q287"/>
     </row>
     <row r="288" spans="6:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="F288"/>
-      <c r="H288" s="62"/>
-      <c r="I288" s="37"/>
+      <c r="H288" s="54"/>
+      <c r="I288" s="34"/>
       <c r="J288"/>
       <c r="O288"/>
-      <c r="P288" s="59"/>
+      <c r="P288" s="51"/>
       <c r="Q288"/>
     </row>
     <row r="289" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F289"/>
-      <c r="H289" s="62"/>
-      <c r="I289" s="37"/>
+      <c r="H289" s="54"/>
+      <c r="I289" s="34"/>
       <c r="J289"/>
       <c r="O289"/>
-      <c r="P289" s="59"/>
+      <c r="P289" s="51"/>
       <c r="Q289"/>
     </row>
     <row r="290" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F290"/>
-      <c r="H290" s="62"/>
-      <c r="I290" s="37"/>
+      <c r="H290" s="54"/>
+      <c r="I290" s="34"/>
       <c r="J290"/>
       <c r="O290"/>
-      <c r="P290" s="59"/>
+      <c r="P290" s="51"/>
       <c r="Q290"/>
     </row>
   </sheetData>
@@ -6490,6 +6483,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -6504,12 +6503,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
